--- a/temp_exported_data.xlsx
+++ b/temp_exported_data.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF76"/>
+  <dimension ref="A1:AF55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -503,3414 +503,3414 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>537563</v>
+        <v>4913753</v>
       </c>
       <c r="B2" t="str">
-        <v>Agam</v>
+        <v>Mikael</v>
       </c>
       <c r="C2" t="str">
-        <v>Upadhyay</v>
+        <v>Lescuyer</v>
       </c>
       <c r="D2" t="str">
-        <v>GSK</v>
+        <v>STMicroelectronics</v>
       </c>
       <c r="E2" t="str">
-        <v>agam.upadhyay@gsk.com</v>
+        <v>mikael.lescuyer@st.com</v>
       </c>
       <c r="F2" t="str">
-        <v>valid</v>
+        <v>deliverable</v>
       </c>
       <c r="G2" t="str">
-        <v>SVP, Chief Technology Officer</v>
+        <v>Head of Infrastructure Security</v>
       </c>
       <c r="H2" t="str">
-        <v>C Level</v>
+        <v>Head</v>
       </c>
       <c r="I2" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J2" t="str">
-        <v>2157514000</v>
+        <v>33158077575</v>
       </c>
       <c r="K2" t="str">
         <v>-</v>
       </c>
       <c r="L2" t="str">
-        <v>5 Crescent Drive</v>
+        <v>134 Av. Aristide Briand</v>
       </c>
       <c r="M2" t="str">
         <v>-</v>
       </c>
       <c r="N2" t="str">
-        <v>Philadelphia</v>
+        <v>Montrouge</v>
       </c>
       <c r="O2" t="str">
-        <v>New York</v>
+        <v>Montrouge</v>
       </c>
       <c r="P2" t="str">
-        <v>19112</v>
+        <v>92120</v>
       </c>
       <c r="Q2" t="str">
-        <v>United States</v>
+        <v>France</v>
       </c>
       <c r="R2" t="str">
-        <v>https://www.linkedin.com/in/agamupadhyay/</v>
+        <v>https://www.linkedin.com/in/mikael-lescuyer/</v>
       </c>
       <c r="S2" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T2" t="str">
-        <v>-</v>
+        <v>All Client Collated Supp - 6 Months + Targeted job title does not match with the specs</v>
       </c>
       <c r="U2" t="str">
-        <v>gsk.com</v>
+        <v>st.com</v>
       </c>
       <c r="V2" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Semiconductor Manufacturing</v>
       </c>
       <c r="W2" t="str">
-        <v>Manufacturing</v>
+        <v>Semiconductor Manufacturing</v>
       </c>
       <c r="X2" t="str">
-        <v>https://www.linkedin.com/company/glaxosmithkline/about/</v>
+        <v>https://www.linkedin.com/company/stmicroelectronics/</v>
       </c>
       <c r="Y2" t="str">
         <v>10,001+ employees</v>
       </c>
       <c r="Z2" t="str">
-        <v>https://www.linkedin.com/company/glaxosmithkline/about/</v>
+        <v>https://www.linkedin.com/company/stmicroelectronics/</v>
       </c>
       <c r="AA2" t="str">
-        <v>$35.6 Billion</v>
+        <v>24.9M</v>
       </c>
       <c r="AB2" t="str">
-        <v>https://www.zoominfo.com/c/glaxosmithkline-plc/16859276</v>
+        <v>https://www.apollo.io/companies/STMicroelectronics/5d33844580f93ef264e953a2</v>
       </c>
       <c r="AC2" t="str">
-        <v>BCL_IH</v>
+        <v>Data Scraping</v>
       </c>
       <c r="AD2" t="str">
-        <v>AgaUpaGSK</v>
+        <v>MikLesSTM</v>
       </c>
       <c r="AE2" t="str">
-        <v>AgamUpadGSK</v>
+        <v>MikaLescSTMi</v>
       </c>
       <c r="AF2" s="1">
-        <v>45287.00011574074</v>
+        <v>45401.00011574074</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>544933</v>
+        <v>4913761</v>
       </c>
       <c r="B3" t="str">
-        <v>John</v>
+        <v>Laurent</v>
       </c>
       <c r="C3" t="str">
-        <v>Mckenna</v>
+        <v>Guerin</v>
       </c>
       <c r="D3" t="str">
-        <v>Novartis</v>
+        <v>Airbus</v>
       </c>
       <c r="E3" t="str">
-        <v>john@novartis.com</v>
+        <v>laurent.guerin@airbus.com</v>
       </c>
       <c r="F3" t="str">
-        <v>risky</v>
+        <v>deliverable</v>
       </c>
       <c r="G3" t="str">
-        <v>CFO, Novartis USA</v>
+        <v>Group Chief Information Security Officer CISO</v>
       </c>
       <c r="H3" t="str">
-        <v>C Level</v>
+        <v>C-Level</v>
       </c>
       <c r="I3" t="str">
-        <v>Finance</v>
+        <v>Information Technology</v>
       </c>
       <c r="J3" t="str">
-        <v>8627782100</v>
+        <v>33581317500</v>
       </c>
       <c r="K3" t="str">
         <v>-</v>
       </c>
       <c r="L3" t="str">
-        <v>1 South Ridgedale Avenue Building 122 East</v>
+        <v>7 Av. Albert Camus, 13830 R</v>
       </c>
       <c r="M3" t="str">
         <v>-</v>
       </c>
       <c r="N3" t="str">
-        <v>Hanover</v>
+        <v>oquefort-la-Bédoule</v>
       </c>
       <c r="O3" t="str">
-        <v>New Jersey</v>
+        <v>Île-de-France</v>
       </c>
       <c r="P3" t="str">
-        <v>7936</v>
+        <v>85077</v>
       </c>
       <c r="Q3" t="str">
-        <v>United States</v>
+        <v>France</v>
       </c>
       <c r="R3" t="str">
-        <v>https://www.linkedin.com/in/john-mckenna-aba3b27/</v>
+        <v>https://www.linkedin.com/in/laurent-guerin-4299091/?originalSubdomain=fr</v>
       </c>
       <c r="S3" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T3" t="str">
-        <v>-</v>
+        <v>Quality-Qualified Lead Supression_2024</v>
       </c>
       <c r="U3" t="str">
-        <v>novartis.com</v>
+        <v>airbus.com</v>
       </c>
       <c r="V3" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Aviation and Aerospace Component Manufacturing</v>
       </c>
       <c r="W3" t="str">
-        <v>Manufacturing</v>
+        <v>Aviation and Aerospace Component Manufacturing</v>
       </c>
       <c r="X3" t="str">
-        <v>https://www.linkedin.com/company/novartis/about/</v>
+        <v>https://www.linkedin.com/company/airbusgroup/about/</v>
       </c>
       <c r="Y3" t="str">
         <v>10,001+ employees</v>
       </c>
       <c r="Z3" t="str">
-        <v>https://www.linkedin.com/company/novartis/</v>
+        <v>https://www.linkedin.com/company/airbusgroup/about/</v>
       </c>
       <c r="AA3" t="str">
-        <v>$48 Billion</v>
+        <v>$69.2 Billion</v>
       </c>
       <c r="AB3" t="str">
-        <v>https://www.zoominfo.com/c/novartis-ag/62014529</v>
+        <v>https://cc.bingj.com/cache.aspx?q=airbus.com+zoominfo&amp;d=5020297473360005&amp;mkt=en-IN&amp;setlang=en-US&amp;w=qDcDByMFLiXq94beZsriHY2IqFcA1Xza</v>
       </c>
       <c r="AC3" t="str">
         <v>Data Scraping</v>
       </c>
       <c r="AD3" t="str">
-        <v>JohMckNov</v>
+        <v>LauGueAir</v>
       </c>
       <c r="AE3" t="str">
-        <v>JohnMckeNova</v>
+        <v>LaurGuerAirb</v>
       </c>
       <c r="AF3" s="1">
-        <v>45226.00011574074</v>
+        <v>45401.00011574074</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>547771</v>
+        <v>4913765</v>
       </c>
       <c r="B4" t="str">
-        <v>Benjamin</v>
+        <v>Fabien</v>
       </c>
       <c r="C4" t="str">
-        <v>Walt</v>
+        <v>Appert</v>
       </c>
       <c r="D4" t="str">
-        <v>Novartis</v>
+        <v>Carrefour</v>
       </c>
       <c r="E4" t="str">
-        <v>benjamin.walt@novartis.com</v>
+        <v>fabien.appert@carrefour.com</v>
       </c>
       <c r="F4" t="str">
-        <v>catch-all</v>
+        <v>risky</v>
       </c>
       <c r="G4" t="str">
-        <v>Senior Data Scientist</v>
+        <v>Chief Information Officer</v>
       </c>
       <c r="H4" t="str">
-        <v>Individual Contributor</v>
+        <v>C-Level</v>
       </c>
       <c r="I4" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J4" t="str">
-        <v>8628121927</v>
+        <v>33139861533</v>
       </c>
       <c r="K4" t="str">
         <v>-</v>
       </c>
       <c r="L4" t="str">
-        <v>One Health Plaza</v>
+        <v>3 Pl. du Pays de France Roissy-en-France</v>
       </c>
       <c r="M4" t="str">
         <v>-</v>
       </c>
       <c r="N4" t="str">
-        <v>East Hanover</v>
+        <v>Roissy-en-France</v>
       </c>
       <c r="O4" t="str">
-        <v>New Jersey</v>
+        <v>Île-de-France</v>
       </c>
       <c r="P4" t="str">
-        <v>7936</v>
+        <v>95700</v>
       </c>
       <c r="Q4" t="str">
-        <v>United States</v>
+        <v>France</v>
       </c>
       <c r="R4" t="str">
-        <v>https://www.linkedin.com/in/benjamin-walt-ph-d-47883151/</v>
+        <v>https://www.linkedin.com/in/fabienappert/</v>
       </c>
       <c r="S4" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T4" t="str">
-        <v>-</v>
+        <v>Quality-Qualified Lead Supression_2024</v>
       </c>
       <c r="U4" t="str">
-        <v>novartis.com</v>
+        <v>carrefour.com</v>
       </c>
       <c r="V4" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Retail</v>
       </c>
       <c r="W4" t="str">
-        <v>Manufacturing</v>
+        <v>Retail</v>
       </c>
       <c r="X4" t="str">
-        <v>https://www.linkedin.com/company/novartis/about/</v>
+        <v>https://www.linkedin.com/company/carrefour/about/</v>
       </c>
       <c r="Y4" t="str">
         <v>10,001+ employees</v>
       </c>
       <c r="Z4" t="str">
-        <v>https://www.linkedin.com/company/novartis/</v>
+        <v>https://www.linkedin.com/company/carrefour/about/</v>
       </c>
       <c r="AA4" t="str">
-        <v>$48 Billion</v>
+        <v>$94.2 Billion</v>
       </c>
       <c r="AB4" t="str">
-        <v>https://www.zoominfo.com/c/novartis-ag/62014529</v>
+        <v>https://webcache.googleusercontent.com/search?q=cache:https://www.zoominfo.com/c/carrefour-sa/6881912</v>
       </c>
       <c r="AC4" t="str">
-        <v>BCL_IH</v>
+        <v>Data Scraping</v>
       </c>
       <c r="AD4" t="str">
-        <v>BenWalNov</v>
+        <v>FabAppCar</v>
       </c>
       <c r="AE4" t="str">
-        <v>BenjWaltNova</v>
+        <v>FabiAppeCarr</v>
       </c>
       <c r="AF4" s="1">
-        <v>45209.00011574074</v>
+        <v>45401.00011574074</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>558847</v>
+        <v>4913766</v>
       </c>
       <c r="B5" t="str">
-        <v>Marissa</v>
+        <v>Nelly Bachelet</v>
       </c>
       <c r="C5" t="str">
-        <v>Eppes</v>
+        <v>Leyris</v>
       </c>
       <c r="D5" t="str">
-        <v>Merck</v>
+        <v>EDF</v>
       </c>
       <c r="E5" t="str">
-        <v>marissa.eppes@merck.com</v>
+        <v>nelly.leyris@edf.fr</v>
       </c>
       <c r="F5" t="str">
-        <v>deliverable</v>
+        <v>undeliverable</v>
       </c>
       <c r="G5" t="str">
-        <v>Senior Data Scientist</v>
+        <v>EDF Group - Cybersecurity CIO Office / DSIG</v>
       </c>
       <c r="H5" t="str">
-        <v>Individual Contributor</v>
+        <v>C-Level</v>
       </c>
       <c r="I5" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J5" t="str">
-        <v>19087404000</v>
+        <v>330140422222</v>
       </c>
       <c r="K5" t="str">
         <v>-</v>
       </c>
       <c r="L5" t="str">
-        <v>126 E Lincoln Ave</v>
+        <v>22-30, avenue de Wagram</v>
       </c>
       <c r="M5" t="str">
         <v>-</v>
       </c>
       <c r="N5" t="str">
-        <v>Rahway</v>
+        <v>Paris</v>
       </c>
       <c r="O5" t="str">
-        <v>New Jersey</v>
+        <v>Île-de-France</v>
       </c>
       <c r="P5" t="str">
-        <v>7065</v>
+        <v>75008</v>
       </c>
       <c r="Q5" t="str">
-        <v>United States</v>
+        <v>France</v>
       </c>
       <c r="R5" t="str">
-        <v>https://www.linkedin.com/in/marissa-eppes-294b55a0/</v>
+        <v>https://www.linkedin.com/in/nelly-bachelet-leyris-309a521/</v>
       </c>
       <c r="S5" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T5" t="str">
-        <v>-</v>
+        <v>Email bounce back</v>
       </c>
       <c r="U5" t="str">
-        <v>merck.com</v>
+        <v>edf.fr</v>
       </c>
       <c r="V5" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Electric Power Generation</v>
       </c>
       <c r="W5" t="str">
-        <v>Manufacturing</v>
+        <v>Electric Power Generation</v>
       </c>
       <c r="X5" t="str">
-        <v>https://www.linkedin.com/company/1486</v>
+        <v>https://www.linkedin.com/company/edf/about/</v>
       </c>
       <c r="Y5" t="str">
         <v>10,001+ employees</v>
       </c>
       <c r="Z5" t="str">
-        <v>https://www.linkedin.com/company/1486</v>
+        <v>https://www.linkedin.com/company/edf/about/</v>
       </c>
       <c r="AA5" t="str">
-        <v>$48.7B</v>
+        <v>$9 Billion</v>
       </c>
       <c r="AB5" t="str">
-        <v>https://www.zoominfo.com/c/merck-co-inc/24576142</v>
+        <v>https://cc.bingj.com/cache.aspx?q=edf+%2b+zoominfo&amp;d=4540541033710477&amp;mkt=en-IN&amp;setlang=en-US&amp;w=Jlp8Sj2ORfkQzKi1uD7BoToi05G4Gb-_</v>
       </c>
       <c r="AC5" t="str">
         <v>Data Scraping</v>
       </c>
       <c r="AD5" t="str">
-        <v>MarEppMer</v>
+        <v>NelLeyEDF</v>
       </c>
       <c r="AE5" t="str">
-        <v>MariEppeMerc</v>
+        <v>NellLeyrEDF</v>
       </c>
       <c r="AF5" s="1">
-        <v>45116.00011574074</v>
+        <v>45401.00011574074</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>558848</v>
+        <v>4921226</v>
       </c>
       <c r="B6" t="str">
-        <v>Pranav</v>
+        <v>Karl</v>
       </c>
       <c r="C6" t="str">
-        <v>adiga</v>
+        <v>Wright</v>
       </c>
       <c r="D6" t="str">
-        <v>Merck</v>
+        <v>Datacom</v>
       </c>
       <c r="E6" t="str">
-        <v>pranav.adiga@merck.com</v>
+        <v>karl.wright@datacom.com</v>
       </c>
       <c r="F6" t="str">
         <v>deliverable</v>
       </c>
       <c r="G6" t="str">
-        <v>Senior Data Scientist</v>
+        <v>Chief Information Security Officer</v>
       </c>
       <c r="H6" t="str">
-        <v>Individual Contributor</v>
+        <v>C-Level</v>
       </c>
       <c r="I6" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J6" t="str">
-        <v>19087404000</v>
+        <v>6478341666</v>
       </c>
       <c r="K6" t="str">
         <v>-</v>
       </c>
       <c r="L6" t="str">
-        <v>126 E Lincoln Ave</v>
+        <v>Level 1/2 Devon Street East, New Plymouth Central</v>
       </c>
       <c r="M6" t="str">
         <v>-</v>
       </c>
       <c r="N6" t="str">
-        <v>Rahway</v>
+        <v>New Plymouth</v>
       </c>
       <c r="O6" t="str">
-        <v>New Jersey</v>
+        <v>New Plymouth</v>
       </c>
       <c r="P6" t="str">
-        <v>7065</v>
+        <v>4310</v>
       </c>
       <c r="Q6" t="str">
-        <v>United States</v>
+        <v>New Zealand</v>
       </c>
       <c r="R6" t="str">
-        <v>https://www.linkedin.com/in/pranav-adiga-4a604561/</v>
+        <v>https://linkedin.com/in/karlwright/</v>
       </c>
       <c r="S6" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T6" t="str">
-        <v>-</v>
+        <v>DNC Contact and Company Suppression</v>
       </c>
       <c r="U6" t="str">
-        <v>merck.com</v>
+        <v>datacom.com</v>
       </c>
       <c r="V6" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>IT Services and IT Consulting</v>
       </c>
       <c r="W6" t="str">
-        <v>Manufacturing</v>
+        <v>IT Services and IT Consulting</v>
       </c>
       <c r="X6" t="str">
-        <v>https://www.linkedin.com/company/1486</v>
+        <v>https://www.linkedin.com/company/datacom/about/</v>
       </c>
       <c r="Y6" t="str">
-        <v>10,001+ employees</v>
+        <v>5,001-10,000 employees</v>
       </c>
       <c r="Z6" t="str">
-        <v>https://www.linkedin.com/company/1486</v>
+        <v>https://www.linkedin.com/company/datacom/about/</v>
       </c>
       <c r="AA6" t="str">
-        <v>$48.7B</v>
+        <v>1.5B</v>
       </c>
       <c r="AB6" t="str">
-        <v>https://www.zoominfo.com/c/merck-co-inc/24576142</v>
+        <v>https://www.apollo.io/companies/Datacom/5ed5a0bd80cf320001cd91d5</v>
       </c>
       <c r="AC6" t="str">
         <v>Data Scraping</v>
       </c>
       <c r="AD6" t="str">
-        <v>PraadiMer</v>
+        <v>KarWriDat</v>
       </c>
       <c r="AE6" t="str">
-        <v>PranadigMerc</v>
+        <v>KarlWrigData</v>
       </c>
       <c r="AF6" s="1">
-        <v>45116.00011574074</v>
+        <v>45401.00011574074</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>558849</v>
+        <v>4922469</v>
       </c>
       <c r="B7" t="str">
-        <v>Manoj</v>
+        <v>Petter</v>
       </c>
       <c r="C7" t="str">
-        <v>Banjara</v>
+        <v>Moe</v>
       </c>
       <c r="D7" t="str">
-        <v>Merck</v>
+        <v>Atea Norge AS</v>
       </c>
       <c r="E7" t="str">
-        <v>manoj.banjara@merck.com</v>
+        <v>pettermoe@atea.no</v>
       </c>
       <c r="F7" t="str">
-        <v>deliverable</v>
+        <v>risky</v>
       </c>
       <c r="G7" t="str">
-        <v>Senior Data Scientist - Data Manager</v>
+        <v>CTO</v>
       </c>
       <c r="H7" t="str">
-        <v>Manager</v>
+        <v>C-Level</v>
       </c>
       <c r="I7" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J7" t="str">
-        <v>19087404000</v>
+        <v>4722095000</v>
       </c>
       <c r="K7" t="str">
         <v>-</v>
       </c>
       <c r="L7" t="str">
-        <v>126 E Lincoln Ave</v>
+        <v>5 Karvesvingen</v>
       </c>
       <c r="M7" t="str">
         <v>-</v>
       </c>
       <c r="N7" t="str">
-        <v>Rahway</v>
+        <v>Oslo</v>
       </c>
       <c r="O7" t="str">
-        <v>New Jersey</v>
+        <v>Oslo</v>
       </c>
       <c r="P7" t="str">
-        <v>7065</v>
+        <v>579</v>
       </c>
       <c r="Q7" t="str">
-        <v>United States</v>
+        <v>Norway</v>
       </c>
       <c r="R7" t="str">
-        <v>https://www.linkedin.com/in/manojbanjara/</v>
+        <v>https://www.linkedin.com/in/petter-moe/</v>
       </c>
       <c r="S7" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T7" t="str">
-        <v>-</v>
+        <v>All Client Collated Supp - 6 Months</v>
       </c>
       <c r="U7" t="str">
-        <v>merck.com</v>
+        <v>atea.no</v>
       </c>
       <c r="V7" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>IT Services and IT Consulting</v>
       </c>
       <c r="W7" t="str">
-        <v>Manufacturing</v>
+        <v>IT Services and IT Consulting</v>
       </c>
       <c r="X7" t="str">
-        <v>https://www.linkedin.com/company/1486</v>
+        <v>https://www.linkedin.com/company/atea/about/</v>
       </c>
       <c r="Y7" t="str">
-        <v>10,001+ employees</v>
+        <v>1,001-5,000 employees</v>
       </c>
       <c r="Z7" t="str">
-        <v>https://www.linkedin.com/company/1486</v>
+        <v>https://www.linkedin.com/company/atea/about/</v>
       </c>
       <c r="AA7" t="str">
-        <v>$48.7B</v>
+        <v>$3.4 B</v>
       </c>
       <c r="AB7" t="str">
-        <v>https://www.zoominfo.com/c/merck-co-inc/24576142</v>
+        <v>https://www.datanyze.com/companies/atea/352923679</v>
       </c>
       <c r="AC7" t="str">
-        <v>Data Scraping</v>
+        <v>Operator Verified</v>
       </c>
       <c r="AD7" t="str">
-        <v>ManBanMer</v>
+        <v>PetMoeAte</v>
       </c>
       <c r="AE7" t="str">
-        <v>ManoBanjMerc</v>
+        <v>PettMoeAtea</v>
       </c>
       <c r="AF7" s="1">
-        <v>45116.00011574074</v>
+        <v>45401.00011574074</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>558858</v>
+        <v>4932358</v>
       </c>
       <c r="B8" t="str">
-        <v>Cheryl</v>
+        <v>Fahad</v>
       </c>
       <c r="C8" t="str">
-        <v>Pendergrass</v>
+        <v>Iqbal</v>
       </c>
       <c r="D8" t="str">
-        <v>Novartis</v>
+        <v>Itim Group Plc</v>
       </c>
       <c r="E8" t="str">
-        <v>cheryl.pendergrass@novartis.com</v>
+        <v>fiqbal@itim.com</v>
       </c>
       <c r="F8" t="str">
-        <v>risky</v>
+        <v>undeliverable</v>
       </c>
       <c r="G8" t="str">
-        <v>Head of Clinical Operations</v>
+        <v>Chief Technology Officer</v>
       </c>
       <c r="H8" t="str">
-        <v>Director</v>
+        <v>C-Level</v>
       </c>
       <c r="I8" t="str">
-        <v>Operations</v>
+        <v>Information Technology</v>
       </c>
       <c r="J8" t="str">
-        <v>18627788300</v>
+        <v>442075987700</v>
       </c>
       <c r="K8" t="str">
         <v>-</v>
       </c>
       <c r="L8" t="str">
-        <v>1 Health Plaza</v>
+        <v>2nd floor, Atlas House, 173 Victoria St</v>
       </c>
       <c r="M8" t="str">
         <v>-</v>
       </c>
       <c r="N8" t="str">
-        <v>East Hanover</v>
+        <v>London</v>
       </c>
       <c r="O8" t="str">
-        <v>New Jersey</v>
+        <v>Greater London</v>
       </c>
       <c r="P8" t="str">
-        <v>7936</v>
+        <v>SW1E 5NH</v>
       </c>
       <c r="Q8" t="str">
-        <v>United States</v>
+        <v>United Kingdom</v>
       </c>
       <c r="R8" t="str">
-        <v>https://www.linkedin.com/in/cherylpendergrass/</v>
+        <v>https://www.linkedin.com/in/fahadiqbal</v>
       </c>
       <c r="S8" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T8" t="str">
-        <v>-</v>
+        <v>Email bounce back</v>
       </c>
       <c r="U8" t="str">
-        <v>novartis.com</v>
+        <v>itim.com</v>
       </c>
       <c r="V8" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>IT Services and IT Consulting</v>
       </c>
       <c r="W8" t="str">
-        <v>Manufacturing</v>
+        <v>IT Services and IT Consulting</v>
       </c>
       <c r="X8" t="str">
-        <v>https://www.linkedin.com/company/novartis/about/</v>
+        <v>https://www.linkedin.com/company/itim/about/</v>
       </c>
       <c r="Y8" t="str">
-        <v>10,001+ employees</v>
+        <v>51-200 employees</v>
       </c>
       <c r="Z8" t="str">
-        <v>https://www.linkedin.com/company/novartis/</v>
+        <v>https://www.linkedin.com/company/itim/about/</v>
       </c>
       <c r="AA8" t="str">
-        <v>$48 Billion</v>
+        <v>$14.7 Million</v>
       </c>
       <c r="AB8" t="str">
-        <v>https://www.zoominfo.com/c/novartis-ag/62014529</v>
+        <v>https://www.zoominfo.com/c/itim-ltd/20349036</v>
       </c>
       <c r="AC8" t="str">
         <v>Data Scraping</v>
       </c>
       <c r="AD8" t="str">
-        <v>ChePenNov</v>
+        <v>FahIqbIti</v>
       </c>
       <c r="AE8" t="str">
-        <v>CherPendNova</v>
+        <v>FahaIqbaItim</v>
       </c>
       <c r="AF8" s="1">
-        <v>45116.00011574074</v>
+        <v>45401.00011574074</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>564821</v>
+        <v>4932360</v>
       </c>
       <c r="B9" t="str">
-        <v>James</v>
+        <v>Bob</v>
       </c>
       <c r="C9" t="str">
-        <v>Clarke</v>
+        <v>Harvey</v>
       </c>
       <c r="D9" t="str">
-        <v>Merck</v>
+        <v>Netbuilder</v>
       </c>
       <c r="E9" t="str">
-        <v>james.clarke@merck.com</v>
+        <v>bob.harvey@netbuilder.com</v>
       </c>
       <c r="F9" t="str">
-        <v>deliverable</v>
+        <v>unknown</v>
       </c>
       <c r="G9" t="str">
-        <v>Product Manager (&amp; Associate. Principal Data Scientist)</v>
+        <v>Chief Technology Officer</v>
       </c>
       <c r="H9" t="str">
-        <v>Manager</v>
+        <v>C-Level</v>
       </c>
       <c r="I9" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J9" t="str">
-        <v>16179922000</v>
+        <v>441905770882</v>
       </c>
       <c r="K9" t="str">
         <v>-</v>
       </c>
       <c r="L9" t="str">
-        <v>33 Avenue Louis Pasteur</v>
+        <v>7 Beecham Ct, Pemberton</v>
       </c>
       <c r="M9" t="str">
         <v>-</v>
       </c>
       <c r="N9" t="str">
-        <v>Boston</v>
+        <v>Wigan</v>
       </c>
       <c r="O9" t="str">
-        <v>Massachusetts</v>
+        <v>Greater Manchester</v>
       </c>
       <c r="P9" t="str">
-        <v>2115</v>
+        <v>WN3 6PR</v>
       </c>
       <c r="Q9" t="str">
-        <v>United States</v>
+        <v>United Kingdom</v>
       </c>
       <c r="R9" t="str">
-        <v>https://www.linkedin.com/in/james-clarke-a25a11169/</v>
+        <v>https://www.linkedin.com/in/bob-harvey-b7320545/?originalSubdomain=uk</v>
       </c>
       <c r="S9" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T9" t="str">
-        <v>-</v>
+        <v>Email bounce back</v>
       </c>
       <c r="U9" t="str">
-        <v>merck.com</v>
+        <v>netbuilder.com</v>
       </c>
       <c r="V9" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>IT Services and IT Consulting</v>
       </c>
       <c r="W9" t="str">
-        <v>Manufacturing</v>
+        <v>IT Services and IT Consulting</v>
       </c>
       <c r="X9" t="str">
-        <v>https://www.linkedin.com/company/1486</v>
+        <v>https://www.linkedin.com/company/netbuilder/about/</v>
       </c>
       <c r="Y9" t="str">
-        <v>10,001+ employees</v>
+        <v>51-200 employees</v>
       </c>
       <c r="Z9" t="str">
-        <v>https://www.linkedin.com/company/1486</v>
+        <v>https://www.linkedin.com/company/netbuilder/about/</v>
       </c>
       <c r="AA9" t="str">
-        <v>$48.7B</v>
+        <v>$25.1 M</v>
       </c>
       <c r="AB9" t="str">
-        <v>https://www.zoominfo.com/c/merck-co-inc/24576142</v>
+        <v>https://www.datanyze.com/companies/netbuilder/353751721</v>
       </c>
       <c r="AC9" t="str">
-        <v>-</v>
+        <v>Data Scraping</v>
       </c>
       <c r="AD9" t="str">
-        <v>JamClaMer</v>
+        <v>BobHarNet</v>
       </c>
       <c r="AE9" t="str">
-        <v>JameClarMerc</v>
+        <v>BobHarvNetb</v>
       </c>
       <c r="AF9" s="1">
-        <v>45022.00011574074</v>
+        <v>45401.00011574074</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>931801</v>
+        <v>4932459</v>
       </c>
       <c r="B10" t="str">
-        <v>Caroline</v>
+        <v>Amanda</v>
       </c>
       <c r="C10" t="str">
-        <v>Litchfield</v>
+        <v>Creak</v>
       </c>
       <c r="D10" t="str">
-        <v>Merck</v>
+        <v>Morgan Stanley</v>
       </c>
       <c r="E10" t="str">
-        <v>caroline.litchfield@merck.com</v>
+        <v>amanda.creak@morganstanley.com</v>
       </c>
       <c r="F10" t="str">
         <v>deliverable</v>
       </c>
       <c r="G10" t="str">
-        <v>Chief Financial Officer</v>
+        <v>EMEA CIO and Head of EMEA Technology</v>
       </c>
       <c r="H10" t="str">
-        <v>C Level</v>
+        <v>C-Level</v>
       </c>
       <c r="I10" t="str">
-        <v>Finance</v>
+        <v>Information Technology</v>
       </c>
       <c r="J10" t="str">
-        <v>9087404000</v>
+        <v>442074258000</v>
       </c>
       <c r="K10" t="str">
         <v>-</v>
       </c>
       <c r="L10" t="str">
-        <v>126 E Lincoln Ave</v>
+        <v>25 Cabot Square</v>
       </c>
       <c r="M10" t="str">
         <v>-</v>
       </c>
       <c r="N10" t="str">
-        <v>Rahway</v>
+        <v>London</v>
       </c>
       <c r="O10" t="str">
-        <v>New Jersey</v>
+        <v>Greater London</v>
       </c>
       <c r="P10" t="str">
-        <v>7065</v>
+        <v>E14 4QA</v>
       </c>
       <c r="Q10" t="str">
-        <v>United States</v>
+        <v>United Kingdom</v>
       </c>
       <c r="R10" t="str">
-        <v>https://www.linkedin.com/in/caroline-litchfield-4569a9a8/</v>
+        <v>https://www.linkedin.com/in/amandacreak</v>
       </c>
       <c r="S10" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T10" t="str">
-        <v>-</v>
+        <v>All Client Collated Supp - 6 Months</v>
       </c>
       <c r="U10" t="str">
-        <v>merck.com</v>
+        <v>morganstanley.com</v>
       </c>
       <c r="V10" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Financial Services</v>
       </c>
       <c r="W10" t="str">
-        <v>Manufacturing</v>
+        <v>Financial Services</v>
       </c>
       <c r="X10" t="str">
-        <v>https://www.linkedin.com/company/merck/about/</v>
+        <v>https://www.linkedin.com/company/morgan-stanley/about/</v>
       </c>
       <c r="Y10" t="str">
         <v>10,001+ employees</v>
       </c>
       <c r="Z10" t="str">
-        <v>https://www.linkedin.com/company/merck/about/</v>
+        <v>https://www.linkedin.com/company/morgan-stanley/about/</v>
       </c>
       <c r="AA10" t="str">
-        <v>$59.3 B</v>
+        <v>$50.7 Billion</v>
       </c>
       <c r="AB10" t="str">
-        <v>https://www.zoominfo.com/c/merck--co-inc/24576142</v>
+        <v>https://www.zoominfo.com/c/morgan-stanley/64144030</v>
       </c>
       <c r="AC10" t="str">
-        <v>BCL_IH</v>
+        <v>Data Scraping</v>
       </c>
       <c r="AD10" t="str">
-        <v>CarLitMer</v>
+        <v>AmaCreMor</v>
       </c>
       <c r="AE10" t="str">
-        <v>CaroLitcMerc</v>
+        <v>AmanCreaMorg</v>
       </c>
       <c r="AF10" s="1">
-        <v>45372.00011574074</v>
+        <v>45401.00011574074</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1084045</v>
+        <v>4932474</v>
       </c>
       <c r="B11" t="str">
-        <v>Rajeev</v>
+        <v>Ram</v>
       </c>
       <c r="C11" t="str">
-        <v>Sukumaran</v>
+        <v>Kashyap</v>
       </c>
       <c r="D11" t="str">
-        <v>Boehringer Ingelheim</v>
+        <v>Tata Motors</v>
       </c>
       <c r="E11" t="str">
-        <v>rajeev.sukumaran@boehringer-ingelheim.com</v>
+        <v>ram.kashyap@tatamotors.com</v>
       </c>
       <c r="F11" t="str">
         <v>deliverable</v>
       </c>
       <c r="G11" t="str">
-        <v>VP, Head of IT / CIO</v>
+        <v>Chief Information Officer</v>
       </c>
       <c r="H11" t="str">
-        <v>C Level</v>
+        <v>C-Level</v>
       </c>
       <c r="I11" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J11" t="str">
-        <v>2037989988</v>
+        <v>442476524717</v>
       </c>
       <c r="K11" t="str">
         <v>-</v>
       </c>
       <c r="L11" t="str">
-        <v>900 Ridgebury Rd</v>
+        <v>18 Grosvenor Pl,</v>
       </c>
       <c r="M11" t="str">
         <v>-</v>
       </c>
       <c r="N11" t="str">
-        <v>Ridgefield</v>
+        <v>London</v>
       </c>
       <c r="O11" t="str">
-        <v>Connecticut</v>
+        <v>Greater London</v>
       </c>
       <c r="P11" t="str">
-        <v>6877</v>
+        <v>SW1X 7HS</v>
       </c>
       <c r="Q11" t="str">
-        <v>United States</v>
+        <v>United Kingdom</v>
       </c>
       <c r="R11" t="str">
-        <v>https://www.linkedin.com/in/rajeevsukumaran/</v>
+        <v>https://www.linkedin.com/in/ram-kashyap-23b44118/</v>
       </c>
       <c r="S11" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T11" t="str">
-        <v>-</v>
+        <v>Phone Number does not match address</v>
       </c>
       <c r="U11" t="str">
-        <v>boehringer-ingelheim.com</v>
+        <v>tatamotors.com</v>
       </c>
       <c r="V11" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Motor Vehicle Manufacturing</v>
       </c>
       <c r="W11" t="str">
-        <v>Manufacturing</v>
+        <v>Motor Vehicle Manufacturing</v>
       </c>
       <c r="X11" t="str">
-        <v>https://www.linkedin.com/company/boehringer-ingelheim/about/</v>
+        <v>https://www.linkedin.com/company/tata-motors/about/</v>
       </c>
       <c r="Y11" t="str">
         <v>10,001+ employees</v>
       </c>
       <c r="Z11" t="str">
-        <v>https://www.linkedin.com/company/boehringer-ingelheim/about/</v>
+        <v>https://www.linkedin.com/company/tata-motors/about/</v>
       </c>
       <c r="AA11" t="str">
-        <v>$5.3 Billion</v>
+        <v>$35.6 B</v>
       </c>
       <c r="AB11" t="str">
-        <v>https://cc.bingj.com/cache.aspx?q=Boehringer+Ingelheim%2bREVENUE+ZOOMINFO&amp;d=4783236766567699&amp;mkt=en-IN&amp;setlang=en-US&amp;w=WYhs_Jwk1YB_KhqYfbcHBhyJXSzUaDvv</v>
+        <v>https://www.datanyze.com/companies/tata-motors/344545337</v>
       </c>
       <c r="AC11" t="str">
-        <v>BCL_DS</v>
+        <v>Data Scraping</v>
       </c>
       <c r="AD11" t="str">
-        <v>RajSukBoe</v>
+        <v>RamKasTat</v>
       </c>
       <c r="AE11" t="str">
-        <v>RajeSukuBoeh</v>
+        <v>RamKashTata</v>
       </c>
       <c r="AF11" s="1">
-        <v>45450.00011574074</v>
+        <v>45401.00011574074</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1084049</v>
+        <v>4932479</v>
       </c>
       <c r="B12" t="str">
-        <v>Valentina</v>
+        <v>Tad</v>
       </c>
       <c r="C12" t="str">
-        <v>Micheli</v>
+        <v>Nadolny</v>
       </c>
       <c r="D12" t="str">
-        <v>Boehringer Ingelheim</v>
+        <v>BT Group</v>
       </c>
       <c r="E12" t="str">
-        <v>valentina.micheli@boehringer-ingelheim.com</v>
+        <v>tad.nadolny@bt.com</v>
       </c>
       <c r="F12" t="str">
-        <v>deliverable</v>
+        <v>undeliverable</v>
       </c>
       <c r="G12" t="str">
-        <v>Executive Director, Global Head of IT</v>
+        <v>Head of Technology &amp; Digital Transformation, Global CIO</v>
       </c>
       <c r="H12" t="str">
-        <v>Director</v>
+        <v>C-Level</v>
       </c>
       <c r="I12" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J12" t="str">
-        <v>2527927617</v>
+        <v>442073565000</v>
       </c>
       <c r="K12" t="str">
         <v>-</v>
       </c>
       <c r="L12" t="str">
-        <v>11939 US64</v>
+        <v>1 Braham St,</v>
       </c>
       <c r="M12" t="str">
         <v>-</v>
       </c>
       <c r="N12" t="str">
-        <v>Williamston</v>
+        <v>London</v>
       </c>
       <c r="O12" t="str">
-        <v>North Carolina</v>
+        <v>Greater London</v>
       </c>
       <c r="P12" t="str">
-        <v>27892</v>
+        <v>E1 8EE</v>
       </c>
       <c r="Q12" t="str">
-        <v>United States</v>
+        <v>United Kingdom</v>
       </c>
       <c r="R12" t="str">
-        <v>https://www.linkedin.com/in/valentinamicheli/</v>
+        <v>https://www.linkedin.com/in/tad-nadolny/</v>
       </c>
       <c r="S12" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T12" t="str">
-        <v>-</v>
+        <v>Email bounce back</v>
       </c>
       <c r="U12" t="str">
-        <v>boehringer-ingelheim.com</v>
+        <v>bt.com</v>
       </c>
       <c r="V12" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Telecommunications</v>
       </c>
       <c r="W12" t="str">
-        <v>Manufacturing</v>
+        <v>Telecommunications</v>
       </c>
       <c r="X12" t="str">
-        <v>https://www.linkedin.com/company/boehringer-ingelheim/</v>
+        <v>https://www.linkedin.com/company/bt/about/</v>
       </c>
       <c r="Y12" t="str">
         <v>10,001+ employees</v>
       </c>
       <c r="Z12" t="str">
-        <v>https://www.linkedin.com/company/boehringer-ingelheim/</v>
+        <v>https://www.linkedin.com/company/bt/about/</v>
       </c>
       <c r="AA12" t="str">
-        <v>$314.1 Million</v>
+        <v>20.7Billion</v>
       </c>
       <c r="AB12" t="str">
-        <v>https://www.zoominfo.com/c/barnhill-contracting-co/7833919</v>
+        <v>https://www.bing.com/search?pglt=2083&amp;q=bt.com+revenue&amp;cvid=8c192cb342e540068b36dc122bac16f8&amp;gs_lcrp=EgZjaHJvbWUyBggAEEUYOTIGCAEQABhAMgYIAhAAGEDSAQgzNTQ0ajBqMagCB7ACAQ&amp;FORM=ANNTA1&amp;PC=U531</v>
       </c>
       <c r="AC12" t="str">
-        <v>BCL_IH</v>
+        <v>Data Scraping</v>
       </c>
       <c r="AD12" t="str">
-        <v>ValMicBoe</v>
+        <v>TadNadBT</v>
       </c>
       <c r="AE12" t="str">
-        <v>ValeMichBoeh</v>
+        <v>TadNadoBT G</v>
       </c>
       <c r="AF12" s="1">
-        <v>45463.00011574074</v>
+        <v>45401.00011574074</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1597219</v>
+        <v>4932483</v>
       </c>
       <c r="B13" t="str">
-        <v>Amir</v>
+        <v>Paul</v>
       </c>
       <c r="C13" t="str">
-        <v>B</v>
+        <v>Watkinson</v>
       </c>
       <c r="D13" t="str">
-        <v>Roche</v>
+        <v>Accenture</v>
       </c>
       <c r="E13" t="str">
-        <v>amir.b@roche.com</v>
+        <v>pw@accenture.com</v>
       </c>
       <c r="F13" t="str">
-        <v>undeliverable</v>
+        <v>deliverable</v>
       </c>
       <c r="G13" t="str">
-        <v>Senior Data Scientist</v>
+        <v>Green IT Lead, CIO</v>
       </c>
       <c r="H13" t="str">
-        <v>Individual Contributor</v>
+        <v>C-Level</v>
       </c>
       <c r="I13" t="str">
-        <v>Human Resource</v>
+        <v>Information Technology</v>
       </c>
       <c r="J13" t="str">
-        <v>41616881111</v>
+        <v>442078444000</v>
       </c>
       <c r="K13" t="str">
         <v>-</v>
       </c>
       <c r="L13" t="str">
-        <v>430 E 29th St</v>
+        <v>30 Fenchurch St</v>
       </c>
       <c r="M13" t="str">
         <v>-</v>
       </c>
       <c r="N13" t="str">
-        <v>New York</v>
+        <v>London</v>
       </c>
       <c r="O13" t="str">
-        <v>New York</v>
+        <v>Greater London</v>
       </c>
       <c r="P13" t="str">
-        <v>10016</v>
+        <v>EC3M 3BD</v>
       </c>
       <c r="Q13" t="str">
-        <v>United States</v>
+        <v>United Kingdom</v>
       </c>
       <c r="R13" t="str">
-        <v>https://www.linkedin.com/in/amir-b-6b77037a</v>
+        <v>https://www.linkedin.com/in/paul-watkinson-9a813534</v>
       </c>
       <c r="S13" t="str">
         <v>Disqualified</v>
       </c>
       <c r="T13" t="str">
-        <v>Email bounce back</v>
+        <v>Invalid Email updated</v>
       </c>
       <c r="U13" t="str">
-        <v>roche.com</v>
+        <v>accenture.com</v>
       </c>
       <c r="V13" t="str">
-        <v>Biotechnology Research</v>
+        <v>Business Consulting and Services</v>
       </c>
       <c r="W13" t="str">
-        <v>Healthcare, Pharmaceuticals, &amp; Biotech</v>
+        <v>Business Consulting and Services</v>
       </c>
       <c r="X13" t="str">
-        <v>https://www.linkedin.com/company/roche/?originalSubdomain=in</v>
+        <v>https://www.linkedin.com/company/accenture/about/</v>
       </c>
       <c r="Y13" t="str">
         <v>10,001+ employees</v>
       </c>
       <c r="Z13" t="str">
-        <v>https://www.linkedin.com/company/roche/?originalSubdomain=in</v>
+        <v>https://www.linkedin.com/company/accenture/about/</v>
       </c>
       <c r="AA13" t="str">
-        <v>-</v>
+        <v>$64.6 Billion</v>
       </c>
       <c r="AB13" t="str">
-        <v>-</v>
+        <v>https://www.zoominfo.com/c/accenture-plc/246280</v>
       </c>
       <c r="AC13" t="str">
-        <v>CDQALITE_Data</v>
+        <v>Data Scraping</v>
       </c>
       <c r="AD13" t="str">
-        <v>AmiBRoc</v>
+        <v>PauWatAcc</v>
       </c>
       <c r="AE13" t="str">
-        <v>AmirBRoch</v>
+        <v>PaulWatkAcce</v>
       </c>
       <c r="AF13" s="1">
-        <v>44958.00011574074</v>
+        <v>45401.00011574074</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>539883</v>
+        <v>4932494</v>
       </c>
       <c r="B14" t="str">
-        <v>Christine</v>
+        <v>Andrew</v>
       </c>
       <c r="C14" t="str">
-        <v>Duffy</v>
+        <v>Groothedde</v>
       </c>
       <c r="D14" t="str">
-        <v>Boehringer Ingelheim</v>
+        <v>JPMorgan Chase &amp; Co.</v>
       </c>
       <c r="E14" t="str">
-        <v>christine.duffy@boehringer-ingelheim.com</v>
+        <v>andrew.j.groothedde@jpmorgan.com</v>
       </c>
       <c r="F14" t="str">
         <v>risky</v>
       </c>
       <c r="G14" t="str">
-        <v>Executive Director, Clinical Operations, Oncology (Head of Clinical Development &amp; Operations-Onc)</v>
+        <v>CIO - Employee Platforms</v>
       </c>
       <c r="H14" t="str">
-        <v>Director</v>
+        <v>C-Level</v>
       </c>
       <c r="I14" t="str">
-        <v>Operations</v>
+        <v>Information Technology</v>
       </c>
       <c r="J14" t="str">
-        <v>2037989988</v>
+        <v>442077424000</v>
       </c>
       <c r="K14" t="str">
         <v>-</v>
       </c>
       <c r="L14" t="str">
-        <v>900 Ridgebury Rd</v>
+        <v>25 Bank St</v>
       </c>
       <c r="M14" t="str">
         <v>-</v>
       </c>
       <c r="N14" t="str">
-        <v>Ridgefield</v>
+        <v>London</v>
       </c>
       <c r="O14" t="str">
-        <v>connecticut</v>
+        <v>Greater London</v>
       </c>
       <c r="P14" t="str">
-        <v>6877</v>
+        <v>E14 5JP</v>
       </c>
       <c r="Q14" t="str">
-        <v>United States</v>
+        <v>United Kingdom</v>
       </c>
       <c r="R14" t="str">
-        <v>https://www.linkedin.com/in/christine-duffy-4b7b3a6/</v>
+        <v>https://www.linkedin.com/in/andrew-groothedde-684206a</v>
       </c>
       <c r="S14" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T14" t="str">
-        <v>-</v>
+        <v>Account list not mapped + Invalid Email updated</v>
       </c>
       <c r="U14" t="str">
-        <v>boehringer-ingelheim.com</v>
+        <v>jpmorgan.com</v>
       </c>
       <c r="V14" t="str">
-        <v>Manufacturing</v>
+        <v>Financial Services</v>
       </c>
       <c r="W14" t="str">
-        <v>Manufacturing</v>
+        <v>Financial Services</v>
       </c>
       <c r="X14" t="str">
-        <v>https://www.linkedin.com/company/boehringer-ingelheim/</v>
+        <v>https://www.linkedin.com/company/jpmorganchase/about/</v>
       </c>
       <c r="Y14" t="str">
         <v>10,001+ employees</v>
       </c>
       <c r="Z14" t="str">
-        <v>https://www.linkedin.com/company/boehringer-ingelheim/</v>
+        <v>https://www.linkedin.com/company/jpmorganchase/about/</v>
       </c>
       <c r="AA14" t="str">
-        <v>$5.3B</v>
+        <v>$155 Billion</v>
       </c>
       <c r="AB14" t="str">
-        <v>https://webcache.googleusercontent.com/searchq=cache:358t9x0r7msJ:https://www.zoominfo.com/c/boehringer-ingelheim-international-gmbh/15896733&amp;hl=en&amp;gl=in</v>
+        <v>https://www.zoominfo.com/c/jpmorgan-chase--co/12227700</v>
       </c>
       <c r="AC14" t="str">
         <v>Data Scraping</v>
       </c>
       <c r="AD14" t="str">
-        <v>ChrDufBoe</v>
+        <v>AndGroJPM</v>
       </c>
       <c r="AE14" t="str">
-        <v>ChriDuffBoeh</v>
+        <v>AndrGrooJPMo</v>
       </c>
       <c r="AF14" s="1">
-        <v>45265.00011574074</v>
+        <v>45401.00011574074</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>548312</v>
+        <v>4932500</v>
       </c>
       <c r="B15" t="str">
-        <v>Ronald</v>
+        <v>Richard</v>
       </c>
       <c r="C15" t="str">
-        <v>Kim</v>
+        <v>Lamb</v>
       </c>
       <c r="D15" t="str">
-        <v>Merck</v>
+        <v>Tesco</v>
       </c>
       <c r="E15" t="str">
-        <v>ronald.kim@merck.com</v>
+        <v>richard.lamb@tesco.com</v>
       </c>
       <c r="F15" t="str">
-        <v>valid</v>
+        <v>risky</v>
       </c>
       <c r="G15" t="str">
-        <v>Chief Technology Officer, Senior Vice President</v>
+        <v>CIO &amp; Online Director at Tesco Central Europe</v>
       </c>
       <c r="H15" t="str">
-        <v>C Level</v>
+        <v>C-Level</v>
       </c>
       <c r="I15" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J15" t="str">
-        <v>9087404000</v>
+        <v>441992632222</v>
       </c>
       <c r="K15" t="str">
         <v>-</v>
       </c>
       <c r="L15" t="str">
-        <v>2000 Galloping Hill Rd,</v>
+        <v>Cirrus A, Shire Park, Kestrel Way,</v>
       </c>
       <c r="M15" t="str">
         <v>-</v>
       </c>
       <c r="N15" t="str">
-        <v>Kenilworth</v>
+        <v>London</v>
       </c>
       <c r="O15" t="str">
-        <v>New Jersey</v>
+        <v>Greater London</v>
       </c>
       <c r="P15" t="str">
-        <v>7033</v>
+        <v>AL71GA</v>
       </c>
       <c r="Q15" t="str">
-        <v>United States</v>
+        <v>United Kingdom</v>
       </c>
       <c r="R15" t="str">
-        <v>https://www.linkedin.com/in/ronaldykim</v>
+        <v>https://www.linkedin.com/in/richard-lamb-66b6a48/</v>
       </c>
       <c r="S15" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T15" t="str">
-        <v>-</v>
+        <v>Incorrect Address as per given address link + Prospect working from different location</v>
       </c>
       <c r="U15" t="str">
-        <v>merck.com</v>
+        <v>tesco.com</v>
       </c>
       <c r="V15" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Retail</v>
       </c>
       <c r="W15" t="str">
-        <v>Manufacturing</v>
+        <v>Retail</v>
       </c>
       <c r="X15" t="str">
-        <v>https://www.linkedin.com/company/1486</v>
+        <v>https://www.linkedin.com/company/-tesco/about/</v>
       </c>
       <c r="Y15" t="str">
         <v>10,001+ employees</v>
       </c>
       <c r="Z15" t="str">
-        <v>https://www.linkedin.com/company/1486</v>
+        <v>https://www.linkedin.com/company/-tesco/about/</v>
       </c>
       <c r="AA15" t="str">
-        <v>$48.7B</v>
+        <v>$85.6 Billion</v>
       </c>
       <c r="AB15" t="str">
-        <v>https://www.zoominfo.com/c/merck-co-inc/24576142</v>
+        <v>Tesco - Overview, News &amp; Similar companies | ZoomInfo.com (bingj.com)</v>
       </c>
       <c r="AC15" t="str">
-        <v>BCL_IH</v>
+        <v>Data Scraping</v>
       </c>
       <c r="AD15" t="str">
-        <v>RonKimMer</v>
+        <v>RicLamTes</v>
       </c>
       <c r="AE15" t="str">
-        <v>RonaKimMerc</v>
+        <v>RichLambTesc</v>
       </c>
       <c r="AF15" s="1">
-        <v>45205.00011574074</v>
+        <v>45401.00011574074</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>575494</v>
+        <v>4932598</v>
       </c>
       <c r="B16" t="str">
-        <v>Randy</v>
+        <v>Michael</v>
       </c>
       <c r="C16" t="str">
-        <v>Qin</v>
+        <v>Bulpitt</v>
       </c>
       <c r="D16" t="str">
-        <v>Merck</v>
+        <v>BOXT</v>
       </c>
       <c r="E16" t="str">
-        <v>randy.qin@merck.com</v>
+        <v>michael.bulpitt@boxt.co.uk</v>
       </c>
       <c r="F16" t="str">
-        <v>valid</v>
+        <v>deliverable</v>
       </c>
       <c r="G16" t="str">
-        <v>Principal Data Scientist / Director Cloud Platform &amp; Digital Solutions</v>
+        <v>Chief Technology Officer</v>
       </c>
       <c r="H16" t="str">
-        <v>Director</v>
+        <v>C-level</v>
       </c>
       <c r="I16" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J16" t="str">
-        <v>9087404000</v>
+        <v>442074391900</v>
       </c>
       <c r="K16" t="str">
         <v>-</v>
       </c>
       <c r="L16" t="str">
-        <v>2000 Galloping Hill Rd</v>
+        <v>Octagon Point, 5 Cheapside,</v>
       </c>
       <c r="M16" t="str">
         <v>-</v>
       </c>
       <c r="N16" t="str">
-        <v>Kenilworth</v>
+        <v>London</v>
       </c>
       <c r="O16" t="str">
-        <v>New Jersey</v>
+        <v>Greater London</v>
       </c>
       <c r="P16" t="str">
-        <v>7033</v>
+        <v>EC2V 6AA</v>
       </c>
       <c r="Q16" t="str">
-        <v>United States</v>
+        <v>United Kingdom</v>
       </c>
       <c r="R16" t="str">
-        <v>https://www.linkedin.com/in/randy-qin-467a1b26</v>
+        <v>https://www.linkedin.com/in/michael-bulpitt-27315b23/</v>
       </c>
       <c r="S16" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T16" t="str">
-        <v>-</v>
+        <v>CTPS registered</v>
       </c>
       <c r="U16" t="str">
-        <v>merck.com</v>
+        <v>boxt.co.uk</v>
       </c>
       <c r="V16" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Utilities</v>
       </c>
       <c r="W16" t="str">
-        <v>Manufacturing</v>
+        <v>Utilities</v>
       </c>
       <c r="X16" t="str">
-        <v>https://www.linkedin.com/company/1486</v>
+        <v>https://www.linkedin.com/company/boxt-limited/about/</v>
       </c>
       <c r="Y16" t="str">
-        <v>10,001+ employees</v>
+        <v>51-200 employees</v>
       </c>
       <c r="Z16" t="str">
-        <v>https://www.linkedin.com/company/1486</v>
+        <v>https://www.linkedin.com/company/boxt-limited/about/</v>
       </c>
       <c r="AA16" t="str">
-        <v>$48.7B</v>
+        <v>$6.7 M</v>
       </c>
       <c r="AB16" t="str">
-        <v>https://www.zoominfo.com/c/merck-co-inc/24576142</v>
+        <v>https://www.datanyze.com/companies/boxt/356621133</v>
       </c>
       <c r="AC16" t="str">
-        <v>Data Scrapping</v>
+        <v>Data Scraping</v>
       </c>
       <c r="AD16" t="str">
-        <v>RanQinMer</v>
+        <v>MicBulBOX</v>
       </c>
       <c r="AE16" t="str">
-        <v>RandQinMerc</v>
+        <v>MichBulpBOXT</v>
       </c>
       <c r="AF16" s="1">
-        <v>44958.00011574074</v>
+        <v>45400.00011574074</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>575520</v>
+        <v>4932676</v>
       </c>
       <c r="B17" t="str">
-        <v>Abhishek</v>
+        <v>Lucia</v>
       </c>
       <c r="C17" t="str">
-        <v>Singh</v>
+        <v>Pino-Garcia</v>
       </c>
       <c r="D17" t="str">
-        <v>Merck</v>
+        <v>Ninety One</v>
       </c>
       <c r="E17" t="str">
-        <v>abhishek.singh13@merck.com</v>
+        <v>lucia.pino-garcia@ninetyone.com</v>
       </c>
       <c r="F17" t="str">
         <v>deliverable</v>
       </c>
       <c r="G17" t="str">
-        <v>Head of Data Science and Analytics Solutions Human Health</v>
+        <v>Chief Technology Officer</v>
       </c>
       <c r="H17" t="str">
-        <v>Director</v>
+        <v>C - Level</v>
       </c>
       <c r="I17" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J17" t="str">
-        <v>9087404000</v>
+        <v>442039382000</v>
       </c>
       <c r="K17" t="str">
         <v>-</v>
       </c>
       <c r="L17" t="str">
-        <v>2000 Galloping Hill Rd,</v>
+        <v>55 Gresham St</v>
       </c>
       <c r="M17" t="str">
         <v>-</v>
       </c>
       <c r="N17" t="str">
-        <v>Kenilworth</v>
+        <v>London</v>
       </c>
       <c r="O17" t="str">
-        <v>New Jersey</v>
+        <v>Greater London</v>
       </c>
       <c r="P17" t="str">
-        <v>7033</v>
+        <v>EC2V 7EL</v>
       </c>
       <c r="Q17" t="str">
-        <v>United States</v>
+        <v>United Kingdom</v>
       </c>
       <c r="R17" t="str">
-        <v>https://www.linkedin.com/in/abhishek-narayan-singh-2379827</v>
+        <v>https://www.linkedin.com/in/lucia-pino-garcia-362b0b10/</v>
       </c>
       <c r="S17" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T17" t="str">
-        <v>-</v>
+        <v>C-Level not allowed more than 200</v>
       </c>
       <c r="U17" t="str">
-        <v>merck.com</v>
+        <v>ninetyone.com</v>
       </c>
       <c r="V17" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Financial Services</v>
       </c>
       <c r="W17" t="str">
-        <v>Manufacturing</v>
+        <v>Financial Services</v>
       </c>
       <c r="X17" t="str">
-        <v>https://www.linkedin.com/company/1486</v>
+        <v>https://linkedin.com/company/30720095</v>
       </c>
       <c r="Y17" t="str">
-        <v>10,001+ employees</v>
+        <v>1,001-5,000 employees</v>
       </c>
       <c r="Z17" t="str">
-        <v>https://www.linkedin.com/company/1486</v>
+        <v>https://linkedin.com/company/30720095</v>
       </c>
       <c r="AA17" t="str">
-        <v>$48.7B</v>
+        <v>-</v>
       </c>
       <c r="AB17" t="str">
-        <v>https://www.zoominfo.com/c/merck-co-inc/24576142</v>
+        <v>-</v>
       </c>
       <c r="AC17" t="str">
-        <v>BCL</v>
+        <v>Data Scraping</v>
       </c>
       <c r="AD17" t="str">
-        <v>AbhSinMer</v>
+        <v>LucPinNin</v>
       </c>
       <c r="AE17" t="str">
-        <v>AbhiSingMerc</v>
+        <v>LuciPinoNine</v>
       </c>
       <c r="AF17" s="1">
-        <v>44958.00011574074</v>
+        <v>45400.00011574074</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>575522</v>
+        <v>4932763</v>
       </c>
       <c r="B18" t="str">
-        <v>Juanjo</v>
+        <v>Dirard</v>
       </c>
       <c r="C18" t="str">
-        <v>Francesch</v>
+        <v>Mikdad</v>
       </c>
       <c r="D18" t="str">
-        <v>Merck</v>
+        <v>PwC UK</v>
       </c>
       <c r="E18" t="str">
-        <v>juanjo.francesch@merck.com</v>
+        <v>dirard.mikdad@pwc.co.uk</v>
       </c>
       <c r="F18" t="str">
-        <v>deliverable</v>
+        <v>unknown</v>
       </c>
       <c r="G18" t="str">
-        <v>VP &amp; Global CIO Human Health IT Global Head of IT Transformation</v>
+        <v>Chief Technology Officer</v>
       </c>
       <c r="H18" t="str">
-        <v>C level</v>
+        <v>C - Level</v>
       </c>
       <c r="I18" t="str">
-        <v>HR</v>
+        <v>Information Technology</v>
       </c>
       <c r="J18" t="str">
-        <v>9087404000</v>
+        <v>442075835000</v>
       </c>
       <c r="K18" t="str">
         <v>-</v>
       </c>
       <c r="L18" t="str">
-        <v>2000 Galloping Hill Rd,</v>
+        <v>1 Embankment Pl</v>
       </c>
       <c r="M18" t="str">
         <v>-</v>
       </c>
       <c r="N18" t="str">
-        <v>Kenilworth</v>
+        <v>London</v>
       </c>
       <c r="O18" t="str">
-        <v>New Jersey</v>
+        <v>Greater London</v>
       </c>
       <c r="P18" t="str">
-        <v>7033</v>
+        <v>WC2N 6RH</v>
       </c>
       <c r="Q18" t="str">
-        <v>United States</v>
+        <v>United Kingdom</v>
       </c>
       <c r="R18" t="str">
-        <v>https://www.linkedin.com/in/jfrancesch</v>
+        <v>https://www.linkedin.com/in/dirard-mikdad-1a664a218/</v>
       </c>
       <c r="S18" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T18" t="str">
-        <v>-</v>
+        <v>C-Level not allowed more than 200 + Email Bounce Back</v>
       </c>
       <c r="U18" t="str">
-        <v>merck.com</v>
+        <v>pwc.co.uk</v>
       </c>
       <c r="V18" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Accounting</v>
       </c>
       <c r="W18" t="str">
-        <v>Manufacturing</v>
+        <v>Accounting</v>
       </c>
       <c r="X18" t="str">
-        <v>https://www.linkedin.com/company/1486</v>
+        <v>https://www.linkedin.com/company/3268526/about</v>
       </c>
       <c r="Y18" t="str">
         <v>10,001+ employees</v>
       </c>
       <c r="Z18" t="str">
-        <v>https://www.linkedin.com/company/1486</v>
+        <v>https://www.linkedin.com/company/3268526/about</v>
       </c>
       <c r="AA18" t="str">
-        <v>$48.7B</v>
+        <v>-</v>
       </c>
       <c r="AB18" t="str">
-        <v>https://www.zoominfo.com/c/merck-co-inc/24576142</v>
+        <v>-</v>
       </c>
       <c r="AC18" t="str">
-        <v>CDQA_Scrapping</v>
+        <v>Data Scraping</v>
       </c>
       <c r="AD18" t="str">
-        <v>JuaFraMer</v>
+        <v>DirMikPwC</v>
       </c>
       <c r="AE18" t="str">
-        <v>JuanFranMerc</v>
+        <v>DiraMikdPwC</v>
       </c>
       <c r="AF18" s="1">
-        <v>44958.00011574074</v>
+        <v>45400.00011574074</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>575526</v>
+        <v>4932764</v>
       </c>
       <c r="B19" t="str">
-        <v>Sarai</v>
+        <v>Paul</v>
       </c>
       <c r="C19" t="str">
-        <v>Alvarez</v>
+        <v>Tomlinson</v>
       </c>
       <c r="D19" t="str">
-        <v>Merck</v>
+        <v>PwC UK</v>
       </c>
       <c r="E19" t="str">
-        <v>sarai.alvarez@merck.com</v>
+        <v>paul.tomlinson@pwc.co.uk</v>
       </c>
       <c r="F19" t="str">
-        <v>valid</v>
+        <v>unknown</v>
       </c>
       <c r="G19" t="str">
-        <v>Data Scientist</v>
+        <v>Chief Technology Officer</v>
       </c>
       <c r="H19" t="str">
-        <v>Individual Contributor</v>
+        <v>C - Level</v>
       </c>
       <c r="I19" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J19" t="str">
-        <v>9087404000</v>
+        <v>442075835000</v>
       </c>
       <c r="K19" t="str">
         <v>-</v>
       </c>
       <c r="L19" t="str">
-        <v>2000 Galloping Hill Road</v>
+        <v>1 Embankment Pl</v>
       </c>
       <c r="M19" t="str">
         <v>-</v>
       </c>
       <c r="N19" t="str">
-        <v>Kenilworth</v>
+        <v>London</v>
       </c>
       <c r="O19" t="str">
-        <v>New Jersey</v>
+        <v>Greater London</v>
       </c>
       <c r="P19" t="str">
-        <v>7033</v>
+        <v>WC2N 6RH</v>
       </c>
       <c r="Q19" t="str">
-        <v>United States</v>
+        <v>United Kingdom</v>
       </c>
       <c r="R19" t="str">
-        <v>https://www.linkedin.com/in/sarai-alvarez-6a8b29a5/</v>
+        <v>https://www.linkedin.com/in/paultomlinson2/</v>
       </c>
       <c r="S19" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T19" t="str">
-        <v>-</v>
+        <v>C-Level not allowed more than 200 + Email Bounce Back</v>
       </c>
       <c r="U19" t="str">
-        <v>merck.com</v>
+        <v>pwc.co.uk</v>
       </c>
       <c r="V19" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Accounting</v>
       </c>
       <c r="W19" t="str">
-        <v>Manufacturing</v>
+        <v>Accounting</v>
       </c>
       <c r="X19" t="str">
-        <v>https://www.linkedin.com/company/1486</v>
+        <v>https://www.linkedin.com/company/3268526/about</v>
       </c>
       <c r="Y19" t="str">
         <v>10,001+ employees</v>
       </c>
       <c r="Z19" t="str">
-        <v>https://www.linkedin.com/company/1486</v>
+        <v>https://www.linkedin.com/company/3268526/about</v>
       </c>
       <c r="AA19" t="str">
-        <v>$48.7B</v>
+        <v>-</v>
       </c>
       <c r="AB19" t="str">
-        <v>https://www.zoominfo.com/c/merck-co-inc/24576142</v>
+        <v>-</v>
       </c>
       <c r="AC19" t="str">
-        <v>Data Scrapping</v>
+        <v>Data Scraping</v>
       </c>
       <c r="AD19" t="str">
-        <v>SarAlvMer</v>
+        <v>PauTomPwC</v>
       </c>
       <c r="AE19" t="str">
-        <v>SaraAlvaMerc</v>
+        <v>PaulTomlPwC</v>
       </c>
       <c r="AF19" s="1">
-        <v>44958.00011574074</v>
+        <v>45400.00011574074</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>575527</v>
+        <v>4932850</v>
       </c>
       <c r="B20" t="str">
-        <v>Kristen</v>
+        <v>Rafal</v>
       </c>
       <c r="C20" t="str">
-        <v>Ong</v>
+        <v>Karaszewski</v>
       </c>
       <c r="D20" t="str">
-        <v>Merck</v>
+        <v>Cavendish</v>
       </c>
       <c r="E20" t="str">
-        <v>kristen.ong@merck.com</v>
+        <v>rkaraszewski@finncap.com</v>
       </c>
       <c r="F20" t="str">
-        <v>valid</v>
+        <v>undeliverable</v>
       </c>
       <c r="G20" t="str">
-        <v>Data Scientist - IT Emerging Talent Rotational Program</v>
+        <v>Chief Technology Officer</v>
       </c>
       <c r="H20" t="str">
-        <v>Individual Contributor</v>
+        <v>C - Level</v>
       </c>
       <c r="I20" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J20" t="str">
-        <v>9087404000</v>
+        <v>442079115000</v>
       </c>
       <c r="K20" t="str">
         <v>-</v>
       </c>
       <c r="L20" t="str">
-        <v>2000 Galloping Hill Road</v>
+        <v>115 New Cavendish Street</v>
       </c>
       <c r="M20" t="str">
         <v>-</v>
       </c>
       <c r="N20" t="str">
-        <v>Kenilworth</v>
+        <v>London</v>
       </c>
       <c r="O20" t="str">
-        <v>New Jersey</v>
+        <v>Greater London</v>
       </c>
       <c r="P20" t="str">
-        <v>7033</v>
+        <v>W1W 6UW</v>
       </c>
       <c r="Q20" t="str">
-        <v>United States</v>
+        <v>United Kingdom</v>
       </c>
       <c r="R20" t="str">
-        <v>https://www.linkedin.com/in/kristen-ong/</v>
+        <v>https://www.linkedin.com/in/rafal-karaszewski-10372479/</v>
       </c>
       <c r="S20" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T20" t="str">
-        <v>-</v>
+        <v>Email Bounce Back</v>
       </c>
       <c r="U20" t="str">
-        <v>merck.com</v>
+        <v>finncap.com</v>
       </c>
       <c r="V20" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Financial Services</v>
       </c>
       <c r="W20" t="str">
-        <v>Manufacturing</v>
+        <v>Financial Services</v>
       </c>
       <c r="X20" t="str">
-        <v>https://www.linkedin.com/company/1486</v>
+        <v>https://www.linkedin.com/company/912377/about</v>
       </c>
       <c r="Y20" t="str">
-        <v>10,001+ employees</v>
+        <v>51-200 employees</v>
       </c>
       <c r="Z20" t="str">
-        <v>https://www.linkedin.com/company/1486</v>
+        <v>https://www.linkedin.com/company/912377/about</v>
       </c>
       <c r="AA20" t="str">
-        <v>$48.7B</v>
+        <v>-</v>
       </c>
       <c r="AB20" t="str">
-        <v>https://www.zoominfo.com/c/merck-co-inc/24576142</v>
+        <v>-</v>
       </c>
       <c r="AC20" t="str">
-        <v>Data Scrapping</v>
+        <v>Data Scraping</v>
       </c>
       <c r="AD20" t="str">
-        <v>KriOngMer</v>
+        <v>RafKarCav</v>
       </c>
       <c r="AE20" t="str">
-        <v>KrisOngMerc</v>
+        <v>RafaKaraCave</v>
       </c>
       <c r="AF20" s="1">
-        <v>44958.00011574074</v>
+        <v>45400.00011574074</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>575528</v>
+        <v>4932855</v>
       </c>
       <c r="B21" t="str">
-        <v>Arth</v>
+        <v>Dave</v>
       </c>
       <c r="C21" t="str">
-        <v>Talati</v>
+        <v>Faupel</v>
       </c>
       <c r="D21" t="str">
-        <v>Merck</v>
+        <v>Serco</v>
       </c>
       <c r="E21" t="str">
-        <v>arth.talati@merck.com</v>
+        <v>dave.faupel@serco.com</v>
       </c>
       <c r="F21" t="str">
-        <v>valid</v>
+        <v>risky</v>
       </c>
       <c r="G21" t="str">
-        <v>Data Scientist Sr Specialist</v>
+        <v>CIO</v>
       </c>
       <c r="H21" t="str">
-        <v>Individual Contributor</v>
+        <v>C-Level</v>
       </c>
       <c r="I21" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J21" t="str">
-        <v>9087404000</v>
+        <v>447715277613</v>
       </c>
       <c r="K21" t="str">
         <v>-</v>
       </c>
       <c r="L21" t="str">
-        <v>2000 Galloping Hill Road</v>
+        <v>11 Bartley Wood Business ParkBartley Way</v>
       </c>
       <c r="M21" t="str">
         <v>-</v>
       </c>
       <c r="N21" t="str">
-        <v>Kenilworth</v>
+        <v>Hook</v>
       </c>
       <c r="O21" t="str">
-        <v>New Jersey</v>
+        <v>Hampshire</v>
       </c>
       <c r="P21" t="str">
-        <v>7033</v>
+        <v>RG27 9XB</v>
       </c>
       <c r="Q21" t="str">
-        <v>United States</v>
+        <v>United Kingdom</v>
       </c>
       <c r="R21" t="str">
-        <v>https://www.linkedin.com/in/arthtalati/</v>
+        <v>https://www.linkedin.com/in/dave-faupel-6518421/</v>
       </c>
       <c r="S21" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T21" t="str">
-        <v>-</v>
+        <v>TPS registered</v>
       </c>
       <c r="U21" t="str">
-        <v>merck.com</v>
+        <v>serco.com</v>
       </c>
       <c r="V21" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Information Technology</v>
       </c>
       <c r="W21" t="str">
-        <v>Manufacturing</v>
+        <v>Information Technology &amp; Services</v>
       </c>
       <c r="X21" t="str">
-        <v>https://www.linkedin.com/company/1486</v>
+        <v>https://www.linkedin.com/company/serco/about/</v>
       </c>
       <c r="Y21" t="str">
         <v>10,001+ employees</v>
       </c>
       <c r="Z21" t="str">
-        <v>https://www.linkedin.com/company/1486</v>
+        <v>https://www.linkedin.com/company/serco/about/</v>
       </c>
       <c r="AA21" t="str">
-        <v>$48.7B</v>
+        <v>1 Billion and above</v>
       </c>
       <c r="AB21" t="str">
-        <v>https://www.zoominfo.com/c/merck-co-inc/24576142</v>
+        <v>https://growjo.com/company/SERCO</v>
       </c>
       <c r="AC21" t="str">
-        <v>Data Scrapping</v>
+        <v>Rpc Voicemail</v>
       </c>
       <c r="AD21" t="str">
-        <v>ArtTalMer</v>
+        <v>DavFauSer</v>
       </c>
       <c r="AE21" t="str">
-        <v>ArthTalaMerc</v>
+        <v>DaveFaupSerc</v>
       </c>
       <c r="AF21" s="1">
-        <v>44958.00011574074</v>
+        <v>45401.00011574074</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>575535</v>
+        <v>4932857</v>
       </c>
       <c r="B22" t="str">
-        <v>Manohar</v>
+        <v>Alun</v>
       </c>
       <c r="C22" t="str">
-        <v>Boorlu</v>
+        <v>McGlinchey</v>
       </c>
       <c r="D22" t="str">
-        <v>Merck</v>
+        <v>University of Glasgow</v>
       </c>
       <c r="E22" t="str">
-        <v>manohar.boorlu@merck.com</v>
+        <v>alun.mcglinchey@gla.ac.uk</v>
       </c>
       <c r="F22" t="str">
-        <v>valid</v>
+        <v>deliverable</v>
       </c>
       <c r="G22" t="str">
-        <v>Sr Data Scientist &amp; ML Engineer</v>
+        <v>Chief Information Security Officer</v>
       </c>
       <c r="H22" t="str">
-        <v>Individual Contributor</v>
+        <v>C-Level</v>
       </c>
       <c r="I22" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J22" t="str">
-        <v>9087404000</v>
+        <v>441413302000</v>
       </c>
       <c r="K22" t="str">
         <v>-</v>
       </c>
       <c r="L22" t="str">
-        <v>2000 Galloping Hill Road</v>
+        <v>300 Bath Street</v>
       </c>
       <c r="M22" t="str">
         <v>-</v>
       </c>
       <c r="N22" t="str">
-        <v>Kenilworth</v>
+        <v>Glasgow</v>
       </c>
       <c r="O22" t="str">
-        <v>New Jersey</v>
+        <v>Glasgow</v>
       </c>
       <c r="P22" t="str">
-        <v>7033</v>
+        <v>G2 4LH</v>
       </c>
       <c r="Q22" t="str">
-        <v>United States</v>
+        <v>United Kingdom</v>
       </c>
       <c r="R22" t="str">
-        <v>https://www.linkedin.com/in/manoharboorlu/</v>
+        <v>https://www.google.com/search?q=University+of+Glasgow+Glasgow%2C+Scotland%2C+United+Kingdom+adress&amp;rlz=1C1JJTC_enIN1106IN1106&amp;oq=University+of+Glasgow+Glasgow%2C+Scotland%2C+United+Kingdom+adress&amp;gs_lcrp=EgZjaHJvbWUyBggAEEUYOTIGCAEQIRgKMgcIAhAhGI8CMgcIAxAhGI8CMgcIBBAhGI8C0gEIMzUzNWowajeoAgCwAgA&amp;sourceid=chrome&amp;ie=UTF-8</v>
       </c>
       <c r="S22" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T22" t="str">
-        <v>-</v>
+        <v>TPS registered + prospect Contact link not found + TE16 - 1 Year Supp</v>
       </c>
       <c r="U22" t="str">
-        <v>merck.com</v>
+        <v>gla.ac.uk</v>
       </c>
       <c r="V22" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Education</v>
       </c>
       <c r="W22" t="str">
-        <v>Manufacturing</v>
+        <v>Higher Education</v>
       </c>
       <c r="X22" t="str">
-        <v>https://www.linkedin.com/company/1486</v>
+        <v>https://www.linkedin.com/school/university-of-glasgow/about/</v>
       </c>
       <c r="Y22" t="str">
-        <v>10,001+ employees</v>
+        <v>5,001-10,000 employees</v>
       </c>
       <c r="Z22" t="str">
-        <v>https://www.linkedin.com/company/1486</v>
+        <v>https://www.linkedin.com/school/university-of-glasgow/about/</v>
       </c>
       <c r="AA22" t="str">
-        <v>$48.7B</v>
+        <v>200 Million to 500 Million</v>
       </c>
       <c r="AB22" t="str">
-        <v>https://www.zoominfo.com/c/merck-co-inc/24576142</v>
+        <v>https://www.google.com/search?q=University+of+Glasgow+revenue&amp;rlz=1C1JJTC_enIN1106IN1106&amp;oq=University+of+Glasgow+revenue&amp;gs_lcrp=EgZjaHJvbWUyBggAEEUYOTIICAEQABgWGB4yDQgCEAAYhgMYgAQYigUyDQgDEAAYhgMYgAQYigUyDQgEEAAYhgMYgAQYigUyDQgFEAAYhgMYgAQYigXSAQg0MDE1ajBqN6gCALACAA&amp;sourceid=chrome&amp;ie=UTF-8</v>
       </c>
       <c r="AC22" t="str">
-        <v>Data Scrapping</v>
+        <v>Operator Verified</v>
       </c>
       <c r="AD22" t="str">
-        <v>ManBooMer</v>
+        <v>AluMcGUni</v>
       </c>
       <c r="AE22" t="str">
-        <v>ManoBoorMerc</v>
+        <v>AlunMcGlUniv</v>
       </c>
       <c r="AF22" s="1">
-        <v>44958.00011574074</v>
+        <v>45401.00011574074</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>576307</v>
+        <v>1929956</v>
       </c>
       <c r="B23" t="str">
-        <v>Craig</v>
+        <v>Ronnie</v>
       </c>
       <c r="C23" t="str">
-        <v>Osten</v>
+        <v>Mize</v>
       </c>
       <c r="D23" t="str">
-        <v>Novartis</v>
+        <v>Etech Global Services</v>
       </c>
       <c r="E23" t="str">
-        <v>craig.osten@novartis.com</v>
+        <v>ronnie.mize@etechgs.com</v>
       </c>
       <c r="F23" t="str">
-        <v>risky</v>
+        <v>deliverable</v>
       </c>
       <c r="G23" t="str">
-        <v>Vice President and CFO Sandoz North America</v>
+        <v>Chief Security Officer and CTO</v>
       </c>
       <c r="H23" t="str">
         <v>C level</v>
       </c>
       <c r="I23" t="str">
-        <v>Finance</v>
+        <v>Information Technology</v>
       </c>
       <c r="J23" t="str">
-        <v>8627788300</v>
+        <v>9364624687</v>
       </c>
       <c r="K23" t="str">
         <v>-</v>
       </c>
       <c r="L23" t="str">
-        <v>1 Health Plz East</v>
+        <v>1903 Berry Dr,</v>
       </c>
       <c r="M23" t="str">
         <v>-</v>
       </c>
       <c r="N23" t="str">
-        <v>Hanover</v>
+        <v>Nacogdoches</v>
       </c>
       <c r="O23" t="str">
-        <v>New Jersey</v>
+        <v>Texas</v>
       </c>
       <c r="P23" t="str">
-        <v>7936</v>
+        <v>75964</v>
       </c>
       <c r="Q23" t="str">
         <v>United States</v>
       </c>
       <c r="R23" t="str">
-        <v>https://www.linkedin.com/in/craig-osten-045ab15</v>
+        <v>https://www.linkedin.com/in/ronnie-mize-a509947/</v>
       </c>
       <c r="S23" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T23" t="str">
-        <v>-</v>
+        <v>Targeted job title does not match with the specs + Prospect Details Not Verified In Call</v>
       </c>
       <c r="U23" t="str">
-        <v>novartis.com</v>
+        <v>etechgs.com</v>
       </c>
       <c r="V23" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Outsourcing and Offshoring Consulting</v>
       </c>
       <c r="W23" t="str">
-        <v>Manufacturing</v>
+        <v>Outsourcing and Offshoring Consulting</v>
       </c>
       <c r="X23" t="str">
-        <v>https://www.linkedin.com/company/novartis/about/</v>
+        <v>https://www.linkedin.com/company/etech-global-services/?originalSubdomain=in</v>
       </c>
       <c r="Y23" t="str">
-        <v>10,001+ employees</v>
+        <v>1,001-5,000 employees</v>
       </c>
       <c r="Z23" t="str">
-        <v>https://www.linkedin.com/company/novartis/</v>
+        <v>https://www.linkedin.com/company/etech-global-services/?originalSubdomain=in</v>
       </c>
       <c r="AA23" t="str">
-        <v>$48 Billion</v>
+        <v>500 Million to 1 Billion</v>
       </c>
       <c r="AB23" t="str">
-        <v>https://www.zoominfo.com/c/novartis-ag/62014529</v>
+        <v>https://www.datanyze.com/companies/etech/41030220</v>
       </c>
       <c r="AC23" t="str">
-        <v>CDQA_Scrapping</v>
+        <v>Rpc Voicemail</v>
       </c>
       <c r="AD23" t="str">
-        <v>CraOstNov</v>
+        <v>RonMizEte</v>
       </c>
       <c r="AE23" t="str">
-        <v>CraiOsteNova</v>
+        <v>RonnMizeEtec</v>
       </c>
       <c r="AF23" s="1">
-        <v>44958.00011574074</v>
+        <v>45401.00011574074</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>576375</v>
+        <v>1930111</v>
       </c>
       <c r="B24" t="str">
-        <v>Denise</v>
+        <v>Jean</v>
       </c>
       <c r="C24" t="str">
-        <v>Evans</v>
+        <v>Player</v>
       </c>
       <c r="D24" t="str">
-        <v>Novartis</v>
+        <v>Cloudera</v>
       </c>
       <c r="E24" t="str">
-        <v>denise.evans@novartis.com</v>
+        <v>jplayer@cloudera.com</v>
       </c>
       <c r="F24" t="str">
-        <v>risky</v>
+        <v>invalid</v>
       </c>
       <c r="G24" t="str">
-        <v>VP/Head of Data Management</v>
+        <v>Field CTO</v>
       </c>
       <c r="H24" t="str">
-        <v>VP Level</v>
+        <v>C Level</v>
       </c>
       <c r="I24" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J24" t="str">
-        <v>9732906000</v>
+        <v>6503620488</v>
       </c>
       <c r="K24" t="str">
         <v>-</v>
       </c>
       <c r="L24" t="str">
-        <v>8 Sylvan Way</v>
+        <v>5470 Great America Pkwy Santa Clara</v>
       </c>
       <c r="M24" t="str">
         <v>-</v>
       </c>
       <c r="N24" t="str">
-        <v>Parsippany</v>
+        <v>Santa Clara</v>
       </c>
       <c r="O24" t="str">
-        <v>New Jersey</v>
+        <v>California</v>
       </c>
       <c r="P24" t="str">
-        <v>7054</v>
+        <v>95054</v>
       </c>
       <c r="Q24" t="str">
         <v>United States</v>
       </c>
       <c r="R24" t="str">
-        <v>https://www.linkedin.com/in/denise-evans-7aaa4214/</v>
+        <v>https://www.linkedin.com/in/jpplayer/</v>
       </c>
       <c r="S24" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T24" t="str">
-        <v>-</v>
+        <v>Email Bounce Back</v>
       </c>
       <c r="U24" t="str">
-        <v>novartis.com</v>
+        <v>cloudera.com</v>
       </c>
       <c r="V24" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Software Development</v>
       </c>
       <c r="W24" t="str">
-        <v>Manufacturing</v>
+        <v>Software Development</v>
       </c>
       <c r="X24" t="str">
-        <v>https://www.linkedin.com/company/novartis/about/</v>
+        <v>https://www.linkedin.com/company/cloudera/about/</v>
       </c>
       <c r="Y24" t="str">
-        <v>10,001+ employees</v>
+        <v>1,001-5,000 employees</v>
       </c>
       <c r="Z24" t="str">
-        <v>https://www.linkedin.com/company/novartis/</v>
+        <v>https://www.linkedin.com/company/cloudera/about/</v>
       </c>
       <c r="AA24" t="str">
-        <v>$48 Billion</v>
+        <v>$869.3M</v>
       </c>
       <c r="AB24" t="str">
-        <v>https://www.zoominfo.com/c/novartis-ag/62014529</v>
+        <v>https://webcache.googleusercontent.com/search?q=cache:rMn6CK42bf8J:https://www.zoominfo.com/c/cloudera-inc/354049788&amp;cd=1&amp;hl=en&amp;ct=clnk&amp;gl=in</v>
       </c>
       <c r="AC24" t="str">
-        <v>CDQALITE_Data</v>
+        <v>BCL_IH</v>
       </c>
       <c r="AD24" t="str">
-        <v>DenEvaNov</v>
+        <v>JeaPlaClo</v>
       </c>
       <c r="AE24" t="str">
-        <v>DeniEvanNova</v>
+        <v>JeanPlayClou</v>
       </c>
       <c r="AF24" s="1">
-        <v>44958.00011574074</v>
+        <v>45400.00011574074</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>576377</v>
+        <v>1930139</v>
       </c>
       <c r="B25" t="str">
-        <v>Cheng</v>
+        <v>Nadin</v>
       </c>
       <c r="C25" t="str">
-        <v>Shi</v>
+        <v>Knippschild</v>
       </c>
       <c r="D25" t="str">
-        <v>Novartis</v>
+        <v>Catawba Valley Health System</v>
       </c>
       <c r="E25" t="str">
-        <v>cheng.shi@novartis.com</v>
+        <v>nknippschild@catawbavalleymc.org</v>
       </c>
       <c r="F25" t="str">
-        <v>catch-all</v>
+        <v>valid</v>
       </c>
       <c r="G25" t="str">
-        <v>Associate Director Data Scientist</v>
+        <v>Assistant Vice President - Chief Information Officer</v>
       </c>
       <c r="H25" t="str">
-        <v>Director</v>
+        <v>C Level</v>
       </c>
       <c r="I25" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J25" t="str">
-        <v>5055734654</v>
+        <v>5133272679</v>
       </c>
       <c r="K25" t="str">
         <v>-</v>
       </c>
       <c r="L25" t="str">
-        <v>One Health Plaza</v>
+        <v>810 Fairgrove Church Rd</v>
       </c>
       <c r="M25" t="str">
         <v>-</v>
       </c>
       <c r="N25" t="str">
-        <v>East Hanover</v>
+        <v>Hickory</v>
       </c>
       <c r="O25" t="str">
-        <v>New Jersey</v>
+        <v>North Carolina</v>
       </c>
       <c r="P25" t="str">
-        <v>7936</v>
+        <v>28602</v>
       </c>
       <c r="Q25" t="str">
         <v>United States</v>
       </c>
       <c r="R25" t="str">
-        <v>https://www.linkedin.com/in/chengshi5b1aa618</v>
+        <v>https://www.linkedin.com/in/nadin-knippschild-69990944/</v>
       </c>
       <c r="S25" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T25" t="str">
-        <v>-</v>
+        <v>All Client Collated Suppression Match</v>
       </c>
       <c r="U25" t="str">
-        <v>novartis.com</v>
+        <v>catawbavalleymc.org</v>
       </c>
       <c r="V25" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Healthcare, Pharmaceuticals, &amp; Biotech</v>
       </c>
       <c r="W25" t="str">
-        <v>Manufacturing</v>
+        <v>Healthcare, Pharmaceuticals, &amp; Biotech</v>
       </c>
       <c r="X25" t="str">
-        <v>https://www.linkedin.com/company/novartis/about/</v>
+        <v>https://www.linkedin.com/company/catawbavalleyhealthsystem/</v>
       </c>
       <c r="Y25" t="str">
-        <v>10,001+ employees</v>
+        <v>1,001-5,000 employees</v>
       </c>
       <c r="Z25" t="str">
-        <v>https://www.linkedin.com/company/novartis/</v>
+        <v>https://www.linkedin.com/company/catawbavalleyhealthsystem/</v>
       </c>
       <c r="AA25" t="str">
-        <v>$48 Billion</v>
+        <v>$6.9M</v>
       </c>
       <c r="AB25" t="str">
-        <v>https://www.zoominfo.com/c/novartis-ag/62014529</v>
+        <v>https://growjo.com/company/Catawba_Valley_Staffing</v>
       </c>
       <c r="AC25" t="str">
-        <v>Data Scrapping</v>
+        <v>BCL_IH</v>
       </c>
       <c r="AD25" t="str">
-        <v>CheShiNov</v>
+        <v>NadKniCat</v>
       </c>
       <c r="AE25" t="str">
-        <v>ChenShiNova</v>
+        <v>NadiKnipCata</v>
       </c>
       <c r="AF25" s="1">
-        <v>44958.00011574074</v>
+        <v>45400.00011574074</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>576383</v>
+        <v>1930497</v>
       </c>
       <c r="B26" t="str">
-        <v>Thomas</v>
+        <v>Markus</v>
       </c>
       <c r="C26" t="str">
-        <v>Frei</v>
+        <v>Lonnquist</v>
       </c>
       <c r="D26" t="str">
-        <v>Novartis</v>
+        <v>Bagel Brands</v>
       </c>
       <c r="E26" t="str">
-        <v>thomas.frei@novartis.com</v>
+        <v>markus.lonnquist@bagelbrands.com</v>
       </c>
       <c r="F26" t="str">
-        <v>risky</v>
+        <v>deliverable</v>
       </c>
       <c r="G26" t="str">
-        <v>CIO</v>
+        <v>Chief Information Officer</v>
       </c>
       <c r="H26" t="str">
-        <v>C level</v>
+        <v>C Level</v>
       </c>
       <c r="I26" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J26" t="str">
-        <v>8627788300</v>
+        <v>3035688000</v>
       </c>
       <c r="K26" t="str">
         <v>-</v>
       </c>
       <c r="L26" t="str">
-        <v>One Health Plaza</v>
+        <v>555 Zang St Ste 300,</v>
       </c>
       <c r="M26" t="str">
         <v>-</v>
       </c>
       <c r="N26" t="str">
-        <v>East Hanover</v>
+        <v>Lakewood</v>
       </c>
       <c r="O26" t="str">
-        <v>New Jersey</v>
+        <v>Colorado</v>
       </c>
       <c r="P26" t="str">
-        <v>7936</v>
+        <v>80228</v>
       </c>
       <c r="Q26" t="str">
         <v>United States</v>
       </c>
       <c r="R26" t="str">
-        <v>https://www.linkedin.com/in/thomasafrei/miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAAL9rcB626L-ZG__e5CM4602u_mPJI-K20</v>
+        <v>https://www.linkedin.com/in/mlonnquist/</v>
       </c>
       <c r="S26" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T26" t="str">
-        <v>-</v>
+        <v>Found in All Client Collated Supp - 6 Months</v>
       </c>
       <c r="U26" t="str">
-        <v>novartis.com</v>
+        <v>bagelbrands.com</v>
       </c>
       <c r="V26" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Restaurants</v>
       </c>
       <c r="W26" t="str">
-        <v>Manufacturing</v>
+        <v>Restaurants</v>
       </c>
       <c r="X26" t="str">
-        <v>https://www.linkedin.com/company/novartis/about/</v>
+        <v>https://www.linkedin.com/company/bagel-brands/about/</v>
       </c>
       <c r="Y26" t="str">
         <v>10,001+ employees</v>
       </c>
       <c r="Z26" t="str">
-        <v>https://www.linkedin.com/company/novartis/</v>
+        <v>https://www.linkedin.com/company/bagel-brands/about/</v>
       </c>
       <c r="AA26" t="str">
-        <v>$48 Billion</v>
+        <v>$24.2M</v>
       </c>
       <c r="AB26" t="str">
-        <v>https://www.zoominfo.com/c/novartis-ag/62014529</v>
+        <v>https://webcache.googleusercontent.com/search?q=cache:UG7WFKf97REJ:https://www.zoominfo.com/c/bagel-brands/563972649&amp;cd=10&amp;hl=en&amp;ct=clnk&amp;gl=in</v>
       </c>
       <c r="AC26" t="str">
-        <v>Level_2_Verefied</v>
+        <v>BCL-DS</v>
       </c>
       <c r="AD26" t="str">
-        <v>ThoFreNov</v>
+        <v>MarLonBag</v>
       </c>
       <c r="AE26" t="str">
-        <v>ThomFreiNova</v>
+        <v>MarkLonnBage</v>
       </c>
       <c r="AF26" s="1">
-        <v>44958.00011574074</v>
+        <v>45401.00011574074</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>576384</v>
+        <v>1930762</v>
       </c>
       <c r="B27" t="str">
-        <v>Elizabeth</v>
+        <v>Marcos</v>
       </c>
       <c r="C27" t="str">
-        <v>Kurien</v>
+        <v>Christodonteii</v>
       </c>
       <c r="D27" t="str">
-        <v>Novartis</v>
+        <v>CDW</v>
       </c>
       <c r="E27" t="str">
-        <v>elizabeth.kurien@novartis.com</v>
+        <v>marcos.christodonteii@cdw.com</v>
       </c>
       <c r="F27" t="str">
-        <v>catch-all</v>
+        <v>valid</v>
       </c>
       <c r="G27" t="str">
-        <v>Data Scientist</v>
+        <v>Global Chief Information Security Officer (CISO)</v>
       </c>
       <c r="H27" t="str">
-        <v>Individual Contributor</v>
+        <v>C Level</v>
       </c>
       <c r="I27" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J27" t="str">
-        <v>9146432666</v>
+        <v>2075522000</v>
       </c>
       <c r="K27" t="str">
         <v>-</v>
       </c>
       <c r="L27" t="str">
-        <v>One Health Plaza</v>
+        <v>75 Tri State International</v>
       </c>
       <c r="M27" t="str">
         <v>-</v>
       </c>
       <c r="N27" t="str">
-        <v>East Hanover</v>
+        <v>Lincolnshire</v>
       </c>
       <c r="O27" t="str">
-        <v>New Jersey</v>
+        <v>Illinois</v>
       </c>
       <c r="P27" t="str">
-        <v>7936</v>
+        <v>60069</v>
       </c>
       <c r="Q27" t="str">
         <v>United States</v>
       </c>
       <c r="R27" t="str">
-        <v>https://www.linkedin.com/in/elizabethkurien70b6996</v>
+        <v>https://www.linkedin.com/in/marcoschristodonte/</v>
       </c>
       <c r="S27" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T27" t="str">
-        <v>-</v>
+        <v>All Client Collated Suppression Match</v>
       </c>
       <c r="U27" t="str">
-        <v>novartis.com</v>
+        <v>cdw.com</v>
       </c>
       <c r="V27" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>IT Services and IT Consulting</v>
       </c>
       <c r="W27" t="str">
-        <v>Manufacturing</v>
+        <v>IT Services and IT Consulting</v>
       </c>
       <c r="X27" t="str">
-        <v>https://www.linkedin.com/company/novartis/about/</v>
+        <v>https://www.linkedin.com/company/cdw/about/</v>
       </c>
       <c r="Y27" t="str">
         <v>10,001+ employees</v>
       </c>
       <c r="Z27" t="str">
-        <v>https://www.linkedin.com/company/novartis/</v>
+        <v>https://www.linkedin.com/company/cdw/about/</v>
       </c>
       <c r="AA27" t="str">
-        <v>$48 Billion</v>
+        <v>$20.2B</v>
       </c>
       <c r="AB27" t="str">
-        <v>https://www.zoominfo.com/c/novartis-ag/62014529</v>
+        <v>https://growjo.com/company/CDW</v>
       </c>
       <c r="AC27" t="str">
-        <v>Data Scrapping</v>
+        <v>BCL_IH</v>
       </c>
       <c r="AD27" t="str">
-        <v>EliKurNov</v>
+        <v>MarChrCDW</v>
       </c>
       <c r="AE27" t="str">
-        <v>ElizKuriNova</v>
+        <v>MarcChriCDW</v>
       </c>
       <c r="AF27" s="1">
-        <v>44958.00011574074</v>
+        <v>45400.00011574074</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>576385</v>
+        <v>1931173</v>
       </c>
       <c r="B28" t="str">
-        <v>Hao</v>
+        <v>Isaiah</v>
       </c>
       <c r="C28" t="str">
-        <v>He</v>
+        <v>Kirk</v>
       </c>
       <c r="D28" t="str">
-        <v>Novartis</v>
+        <v>City of Yuma, Arizona</v>
       </c>
       <c r="E28" t="str">
-        <v>hao.he@novartis.com</v>
+        <v>isaiah.kirk@ci.yuma.az.us</v>
       </c>
       <c r="F28" t="str">
         <v>catch-all</v>
       </c>
       <c r="G28" t="str">
-        <v>Data Scientist</v>
+        <v>Chief Information Officer</v>
       </c>
       <c r="H28" t="str">
-        <v>Individual Contributor</v>
+        <v>C Level</v>
       </c>
       <c r="I28" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J28" t="str">
-        <v>5055734654</v>
+        <v>9283735000</v>
       </c>
       <c r="K28" t="str">
         <v>-</v>
       </c>
       <c r="L28" t="str">
-        <v>One Health Plaza</v>
+        <v>1 City Plaza</v>
       </c>
       <c r="M28" t="str">
         <v>-</v>
       </c>
       <c r="N28" t="str">
-        <v>East Hanover</v>
+        <v>Yuma</v>
       </c>
       <c r="O28" t="str">
-        <v>New Jersey</v>
+        <v>Arizona</v>
       </c>
       <c r="P28" t="str">
-        <v>7936</v>
+        <v>85364</v>
       </c>
       <c r="Q28" t="str">
         <v>United States</v>
       </c>
       <c r="R28" t="str">
-        <v>https://www.linkedin.com/in/haohehhe</v>
+        <v>https://www.linkedin.com/in/isaiahkirk/</v>
       </c>
       <c r="S28" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T28" t="str">
-        <v>-</v>
+        <v>All Client Collated Suppression Match</v>
       </c>
       <c r="U28" t="str">
-        <v>novartis.com</v>
+        <v>ci.yuma.az.us</v>
       </c>
       <c r="V28" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Government Administration</v>
       </c>
       <c r="W28" t="str">
-        <v>Manufacturing</v>
+        <v>Government Administration</v>
       </c>
       <c r="X28" t="str">
-        <v>https://www.linkedin.com/company/novartis/about/</v>
+        <v>https://www.linkedin.com/company/city-of-yuma-arizona/about/</v>
       </c>
       <c r="Y28" t="str">
-        <v>10,001+ employees</v>
+        <v>501-1,000 employees</v>
       </c>
       <c r="Z28" t="str">
-        <v>https://www.linkedin.com/company/novartis/</v>
+        <v>https://www.linkedin.com/company/city-of-yuma-arizona/about/</v>
       </c>
       <c r="AA28" t="str">
-        <v>$48 Billion</v>
+        <v>$216 million</v>
       </c>
       <c r="AB28" t="str">
-        <v>https://www.zoominfo.com/c/novartis-ag/62014529</v>
+        <v>https://www.yumaaz.gov/government/annual-budget</v>
       </c>
       <c r="AC28" t="str">
-        <v>Data Scrapping</v>
+        <v>BCL_IH</v>
       </c>
       <c r="AD28" t="str">
-        <v>HaoHeNov</v>
+        <v>IsaKirCit</v>
       </c>
       <c r="AE28" t="str">
-        <v>HaoHeNova</v>
+        <v>IsaiKirkCity</v>
       </c>
       <c r="AF28" s="1">
-        <v>44958.00011574074</v>
+        <v>45400.00011574074</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>576386</v>
+        <v>1931185</v>
       </c>
       <c r="B29" t="str">
-        <v>Prasanth</v>
+        <v>Leanne</v>
       </c>
       <c r="C29" t="str">
-        <v>Kumar</v>
+        <v>Staalenburg</v>
       </c>
       <c r="D29" t="str">
-        <v>Novartis</v>
+        <v>Capital City Bank Group, Inc.</v>
       </c>
       <c r="E29" t="str">
-        <v>prasanth.kumar@novartis.com</v>
+        <v>leanne@ccbg.com</v>
       </c>
       <c r="F29" t="str">
-        <v>catch-all</v>
+        <v>valid</v>
       </c>
       <c r="G29" t="str">
-        <v>Data Scientist</v>
+        <v>SVP Chief Information Security Officer</v>
       </c>
       <c r="H29" t="str">
-        <v>Individual Contributor</v>
+        <v>C Level</v>
       </c>
       <c r="I29" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J29" t="str">
-        <v>9146432666</v>
+        <v>5088545800</v>
       </c>
       <c r="K29" t="str">
         <v>-</v>
       </c>
       <c r="L29" t="str">
-        <v>One Health Plaza</v>
+        <v>217 N Calhoun St</v>
       </c>
       <c r="M29" t="str">
         <v>-</v>
       </c>
       <c r="N29" t="str">
-        <v>East Hanover</v>
+        <v>Tallahassee</v>
       </c>
       <c r="O29" t="str">
-        <v>New Jersey</v>
+        <v>Florida</v>
       </c>
       <c r="P29" t="str">
-        <v>7936</v>
+        <v>32301</v>
       </c>
       <c r="Q29" t="str">
         <v>United States</v>
       </c>
       <c r="R29" t="str">
-        <v>https://www.linkedin.com/in/prasanthkumarkolluru</v>
+        <v>https://www.linkedin.com/in/leanne-staalenburg-02489420/</v>
       </c>
       <c r="S29" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T29" t="str">
-        <v>-</v>
+        <v>All Client Collated Suppression Match</v>
       </c>
       <c r="U29" t="str">
-        <v>novartis.com</v>
+        <v>ccbg.com</v>
       </c>
       <c r="V29" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Financial Services</v>
       </c>
       <c r="W29" t="str">
-        <v>Manufacturing</v>
+        <v>Financial Services</v>
       </c>
       <c r="X29" t="str">
-        <v>https://www.linkedin.com/company/novartis/about/</v>
+        <v>https://www.linkedin.com/company/capital-city-bank-group-inc-/about/</v>
       </c>
       <c r="Y29" t="str">
-        <v>10,001+ employees</v>
+        <v>501-1,000 employees</v>
       </c>
       <c r="Z29" t="str">
-        <v>https://www.linkedin.com/company/novartis/</v>
+        <v>https://www.linkedin.com/company/capital-city-bank-group-inc-/about/</v>
       </c>
       <c r="AA29" t="str">
-        <v>$48 Billion</v>
+        <v>$216.7M</v>
       </c>
       <c r="AB29" t="str">
-        <v>https://www.zoominfo.com/c/novartis-ag/62014529</v>
+        <v>https://growjo.com/company/Capital_City_Bank_Group</v>
       </c>
       <c r="AC29" t="str">
-        <v>Data Scrapping</v>
+        <v>BCL_IH</v>
       </c>
       <c r="AD29" t="str">
-        <v>PraKumNov</v>
+        <v>LeaStaCap</v>
       </c>
       <c r="AE29" t="str">
-        <v>PrasKumaNova</v>
+        <v>LeanStaaCapi</v>
       </c>
       <c r="AF29" s="1">
-        <v>44958.00011574074</v>
+        <v>45400.00011574074</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>576393</v>
+        <v>1931335</v>
       </c>
       <c r="B30" t="str">
-        <v>Erica</v>
+        <v>Robyn</v>
       </c>
       <c r="C30" t="str">
-        <v>Deacon</v>
+        <v>Mccall</v>
       </c>
       <c r="D30" t="str">
-        <v>Novartis</v>
+        <v>Carestream</v>
       </c>
       <c r="E30" t="str">
-        <v>erica.deacon@novartis.com</v>
+        <v>robyn.mccall@carestreamhealth.com</v>
       </c>
       <c r="F30" t="str">
-        <v>catch-all</v>
+        <v>risky</v>
       </c>
       <c r="G30" t="str">
-        <v>Head of IT for Patient Services Market Access and Cell Therapies</v>
+        <v>Chief Information Officer</v>
       </c>
       <c r="H30" t="str">
-        <v>Director</v>
+        <v>C Level</v>
       </c>
       <c r="I30" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J30" t="str">
-        <v>18625798456</v>
+        <v>5856271800</v>
       </c>
       <c r="K30" t="str">
         <v>-</v>
       </c>
       <c r="L30" t="str">
-        <v>One Health Plaza</v>
+        <v>150 Verona St,</v>
       </c>
       <c r="M30" t="str">
         <v>-</v>
       </c>
       <c r="N30" t="str">
-        <v>East Hanover</v>
+        <v>Rochester</v>
       </c>
       <c r="O30" t="str">
-        <v>New Jersey</v>
+        <v>New York</v>
       </c>
       <c r="P30" t="str">
-        <v>7936</v>
+        <v>14608</v>
       </c>
       <c r="Q30" t="str">
         <v>United States</v>
       </c>
       <c r="R30" t="str">
-        <v>https://www.linkedin.com/in/erica-deacon/</v>
+        <v>https://www.linkedin.com/in/robyn-hooker-mccall-858aa412b/</v>
       </c>
       <c r="S30" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T30" t="str">
-        <v>-</v>
+        <v>Suppression_List_Te16 (Master Suppression) + All Client Collated Suppression Match</v>
       </c>
       <c r="U30" t="str">
-        <v>novartis.com</v>
+        <v>carestreamhealth.com</v>
       </c>
       <c r="V30" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Medical Equipment Manufacturing</v>
       </c>
       <c r="W30" t="str">
-        <v>Manufacturing</v>
+        <v>Medical Equipment Manufacturing</v>
       </c>
       <c r="X30" t="str">
-        <v>https://www.linkedin.com/company/novartis/about/</v>
+        <v>https://www.linkedin.com/company/carestream-health/</v>
       </c>
       <c r="Y30" t="str">
-        <v>10,001+ employees</v>
+        <v>1,001-5,000 employees</v>
       </c>
       <c r="Z30" t="str">
-        <v>https://www.linkedin.com/company/novartis/</v>
+        <v>https://www.linkedin.com/company/carestream-health/</v>
       </c>
       <c r="AA30" t="str">
-        <v>$48 Billion</v>
+        <v>-</v>
       </c>
       <c r="AB30" t="str">
-        <v>https://www.zoominfo.com/c/novartis-ag/62014529</v>
+        <v>-</v>
       </c>
       <c r="AC30" t="str">
         <v>Data Scraping</v>
       </c>
       <c r="AD30" t="str">
-        <v>EriDeaNov</v>
+        <v>RobMccCar</v>
       </c>
       <c r="AE30" t="str">
-        <v>EricDeacNova</v>
+        <v>RobyMccaCare</v>
       </c>
       <c r="AF30" s="1">
-        <v>44958.00011574074</v>
+        <v>45400.00011574074</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>576402</v>
+        <v>1931336</v>
       </c>
       <c r="B31" t="str">
-        <v>Prateek</v>
+        <v>James</v>
       </c>
       <c r="C31" t="str">
-        <v>Kacker</v>
+        <v>Burns</v>
       </c>
       <c r="D31" t="str">
-        <v>Novartis</v>
+        <v>Carestream</v>
       </c>
       <c r="E31" t="str">
-        <v>prateek.kacker@novartis.com</v>
+        <v>james.burns@carestreamhealth.com</v>
       </c>
       <c r="F31" t="str">
-        <v>catch-all</v>
+        <v>risky</v>
       </c>
       <c r="G31" t="str">
-        <v>Principal Data Scientist</v>
+        <v>Chief Technology Officer</v>
       </c>
       <c r="H31" t="str">
-        <v>Individual Contributor</v>
+        <v>C Level</v>
       </c>
       <c r="I31" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J31" t="str">
-        <v>9146432666</v>
+        <v>5856271800</v>
       </c>
       <c r="K31" t="str">
         <v>-</v>
       </c>
       <c r="L31" t="str">
-        <v>One Health Plaza</v>
+        <v>150 Verona St,</v>
       </c>
       <c r="M31" t="str">
         <v>-</v>
       </c>
       <c r="N31" t="str">
-        <v>East Hanover</v>
+        <v>Rochester</v>
       </c>
       <c r="O31" t="str">
-        <v>New Jersey</v>
+        <v>New York</v>
       </c>
       <c r="P31" t="str">
-        <v>7936</v>
+        <v>14608</v>
       </c>
       <c r="Q31" t="str">
         <v>United States</v>
       </c>
       <c r="R31" t="str">
-        <v>https://www.linkedin.com/in/prateekkacker</v>
+        <v>https://www.linkedin.com/in/james-burns-88681428/</v>
       </c>
       <c r="S31" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T31" t="str">
-        <v>-</v>
+        <v>Suppression_List_Te16 (Master Suppression) + All Client Collated Suppression Match</v>
       </c>
       <c r="U31" t="str">
-        <v>novartis.com</v>
+        <v>carestreamhealth.com</v>
       </c>
       <c r="V31" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Medical Equipment Manufacturing</v>
       </c>
       <c r="W31" t="str">
-        <v>Manufacturing</v>
+        <v>Medical Equipment Manufacturing</v>
       </c>
       <c r="X31" t="str">
-        <v>https://www.linkedin.com/company/novartis/about/</v>
+        <v>https://www.linkedin.com/company/carestream-health/</v>
       </c>
       <c r="Y31" t="str">
-        <v>10,001+ employees</v>
+        <v>1,001-5,000 employees</v>
       </c>
       <c r="Z31" t="str">
-        <v>https://www.linkedin.com/company/novartis/</v>
+        <v>https://www.linkedin.com/company/carestream-health/</v>
       </c>
       <c r="AA31" t="str">
-        <v>$48 Billion</v>
+        <v>-</v>
       </c>
       <c r="AB31" t="str">
-        <v>https://www.zoominfo.com/c/novartis-ag/62014529</v>
+        <v>-</v>
       </c>
       <c r="AC31" t="str">
-        <v>Data Scrapping</v>
+        <v>Data Scraping</v>
       </c>
       <c r="AD31" t="str">
-        <v>PraKacNov</v>
+        <v>JamBurCar</v>
       </c>
       <c r="AE31" t="str">
-        <v>PratKackNova</v>
+        <v>JameBurnCare</v>
       </c>
       <c r="AF31" s="1">
-        <v>44958.00011574074</v>
+        <v>45400.00011574074</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>576406</v>
+        <v>1931337</v>
       </c>
       <c r="B32" t="str">
-        <v>Rahul</v>
+        <v>Jd</v>
       </c>
       <c r="C32" t="str">
-        <v>Bakshee</v>
+        <v>Maurer</v>
       </c>
       <c r="D32" t="str">
-        <v>Novartis</v>
+        <v>Carestream</v>
       </c>
       <c r="E32" t="str">
-        <v>rahul.bakshee@novartis.com</v>
+        <v>jd.maurer@carestreamhealth.com</v>
       </c>
       <c r="F32" t="str">
-        <v>catch-all</v>
+        <v>risky</v>
       </c>
       <c r="G32" t="str">
-        <v>Senior Data Scientist</v>
+        <v>Chief Information Security Officer</v>
       </c>
       <c r="H32" t="str">
-        <v>Individual Contributor</v>
+        <v>C Level</v>
       </c>
       <c r="I32" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J32" t="str">
-        <v>9146432666</v>
+        <v>5856271800</v>
       </c>
       <c r="K32" t="str">
         <v>-</v>
       </c>
       <c r="L32" t="str">
-        <v>One Health Plaza</v>
+        <v>150 Verona St,</v>
       </c>
       <c r="M32" t="str">
         <v>-</v>
       </c>
       <c r="N32" t="str">
-        <v>East Hanover</v>
+        <v>Rochester</v>
       </c>
       <c r="O32" t="str">
-        <v>New Jersey</v>
+        <v>New York</v>
       </c>
       <c r="P32" t="str">
-        <v>7936</v>
+        <v>14608</v>
       </c>
       <c r="Q32" t="str">
         <v>United States</v>
       </c>
       <c r="R32" t="str">
-        <v>https://www.linkedin.com/in/rahulbakshee</v>
+        <v>https://www.linkedin.com/in/jonathanmaurer/</v>
       </c>
       <c r="S32" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T32" t="str">
-        <v>-</v>
+        <v>First Name Initial</v>
       </c>
       <c r="U32" t="str">
-        <v>novartis.com</v>
+        <v>carestreamhealth.com</v>
       </c>
       <c r="V32" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Medical Equipment Manufacturing</v>
       </c>
       <c r="W32" t="str">
-        <v>Manufacturing</v>
+        <v>Medical Equipment Manufacturing</v>
       </c>
       <c r="X32" t="str">
-        <v>https://www.linkedin.com/company/novartis/about/</v>
+        <v>https://www.linkedin.com/company/carestream-health/</v>
       </c>
       <c r="Y32" t="str">
-        <v>10,001+ employees</v>
+        <v>1,001-5,000 employees</v>
       </c>
       <c r="Z32" t="str">
-        <v>https://www.linkedin.com/company/novartis/</v>
+        <v>https://www.linkedin.com/company/carestream-health/</v>
       </c>
       <c r="AA32" t="str">
-        <v>$48 Billion</v>
+        <v>-</v>
       </c>
       <c r="AB32" t="str">
-        <v>https://www.zoominfo.com/c/novartis-ag/62014529</v>
+        <v>-</v>
       </c>
       <c r="AC32" t="str">
-        <v>Data Scrapping</v>
+        <v>Data Scraping</v>
       </c>
       <c r="AD32" t="str">
-        <v>RahBakNov</v>
+        <v>JdMauCar</v>
       </c>
       <c r="AE32" t="str">
-        <v>RahuBaksNova</v>
+        <v>JdMaurCare</v>
       </c>
       <c r="AF32" s="1">
-        <v>44958.00011574074</v>
+        <v>45400.00011574074</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>934653</v>
+        <v>1931338</v>
       </c>
       <c r="B33" t="str">
-        <v>John</v>
+        <v>Michael</v>
       </c>
       <c r="C33" t="str">
-        <v>Mckenna</v>
+        <v>Lalena</v>
       </c>
       <c r="D33" t="str">
-        <v>Novartis</v>
+        <v>Carestream</v>
       </c>
       <c r="E33" t="str">
-        <v>john.mckenna@novartis.com</v>
+        <v>michael.lalena@carestreamhealth.com</v>
       </c>
       <c r="F33" t="str">
         <v>risky</v>
       </c>
       <c r="G33" t="str">
-        <v>CFO, Novartis USA</v>
+        <v>Deputy CISO</v>
       </c>
       <c r="H33" t="str">
         <v>C Level</v>
       </c>
       <c r="I33" t="str">
-        <v>Finance</v>
+        <v>Information Technology</v>
       </c>
       <c r="J33" t="str">
-        <v>8627788300</v>
+        <v>5856271800</v>
       </c>
       <c r="K33" t="str">
         <v>-</v>
       </c>
       <c r="L33" t="str">
-        <v>1 Health Plaza</v>
+        <v>150 Verona St,</v>
       </c>
       <c r="M33" t="str">
         <v>-</v>
       </c>
       <c r="N33" t="str">
-        <v>East Hanover</v>
+        <v>Rochester</v>
       </c>
       <c r="O33" t="str">
-        <v>New Jersey</v>
+        <v>New York</v>
       </c>
       <c r="P33" t="str">
-        <v>7936</v>
+        <v>14608</v>
       </c>
       <c r="Q33" t="str">
         <v>United States</v>
       </c>
       <c r="R33" t="str">
-        <v>https://www.linkedin.com/in/john-mckenna-aba3b27/</v>
+        <v>https://www.linkedin.com/in/michaellalena/</v>
       </c>
       <c r="S33" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T33" t="str">
-        <v>-</v>
+        <v>Suppression_List_Te16 (Master Suppression)</v>
       </c>
       <c r="U33" t="str">
-        <v>novartis.com</v>
+        <v>carestreamhealth.com</v>
       </c>
       <c r="V33" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Medical Equipment Manufacturing</v>
       </c>
       <c r="W33" t="str">
-        <v>Manufacturing</v>
+        <v>Medical Equipment Manufacturing</v>
       </c>
       <c r="X33" t="str">
-        <v>https://www.linkedin.com/company/novartis/about/</v>
+        <v>https://www.linkedin.com/company/carestream-health/</v>
       </c>
       <c r="Y33" t="str">
-        <v>10,001+ employees</v>
+        <v>1,001-5,000 employees</v>
       </c>
       <c r="Z33" t="str">
-        <v>https://www.linkedin.com/company/novartis/about/</v>
+        <v>https://www.linkedin.com/company/carestream-health/</v>
       </c>
       <c r="AA33" t="str">
-        <v>$46.7 B</v>
+        <v>-</v>
       </c>
       <c r="AB33" t="str">
-        <v>https://www.datanyze.com/companies/novartis/62014529</v>
+        <v>-</v>
       </c>
       <c r="AC33" t="str">
-        <v>Data scraping</v>
+        <v>Data Scraping</v>
       </c>
       <c r="AD33" t="str">
-        <v>JohMckNov</v>
+        <v>MicLalCar</v>
       </c>
       <c r="AE33" t="str">
-        <v>JohnMckeNova</v>
+        <v>MichLaleCare</v>
       </c>
       <c r="AF33" s="1">
-        <v>45393.00011574074</v>
+        <v>45400.00011574074</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>934654</v>
+        <v>1931375</v>
       </c>
       <c r="B34" t="str">
-        <v>Mark</v>
+        <v>Austine</v>
       </c>
       <c r="C34" t="str">
-        <v>Borowsky</v>
+        <v>Kwaka</v>
       </c>
       <c r="D34" t="str">
-        <v>Novartis</v>
+        <v>Danone</v>
       </c>
       <c r="E34" t="str">
-        <v>mark.borowsky@novartis.com</v>
+        <v>austine.kwaka@danflynninsurance.com</v>
       </c>
       <c r="F34" t="str">
         <v>risky</v>
       </c>
       <c r="G34" t="str">
-        <v>Chief Information Officer</v>
+        <v>Chief Technology Officer</v>
       </c>
       <c r="H34" t="str">
         <v>C Level</v>
       </c>
       <c r="I34" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J34" t="str">
-        <v>8627788300</v>
+        <v>3036354670</v>
       </c>
       <c r="K34" t="str">
         <v>-</v>
       </c>
       <c r="L34" t="str">
-        <v>1 Health Plaza</v>
+        <v>1225 17th St #1000</v>
       </c>
       <c r="M34" t="str">
         <v>-</v>
       </c>
       <c r="N34" t="str">
-        <v>East Hanover</v>
+        <v>Denver</v>
       </c>
       <c r="O34" t="str">
-        <v>New Jersey</v>
+        <v>Colorado</v>
       </c>
       <c r="P34" t="str">
-        <v>7936</v>
+        <v>80202</v>
       </c>
       <c r="Q34" t="str">
         <v>United States</v>
       </c>
       <c r="R34" t="str">
-        <v>https://www.linkedin.com/in/borowsky/</v>
+        <v>https://www.linkedin.com/in/austine-kwaka-b744192a9/</v>
       </c>
       <c r="S34" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T34" t="str">
-        <v>-</v>
+        <v>Company Domain And Email Domain Does Not Match</v>
       </c>
       <c r="U34" t="str">
-        <v>novartis.com</v>
+        <v>danflynninsurance.com</v>
       </c>
       <c r="V34" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Food and Beverage Manufacturing</v>
       </c>
       <c r="W34" t="str">
-        <v>Manufacturing</v>
+        <v>Food and Beverage Manufacturing</v>
       </c>
       <c r="X34" t="str">
-        <v>https://www.linkedin.com/company/novartis/about/</v>
+        <v>https://www.linkedin.com/company/danone/</v>
       </c>
       <c r="Y34" t="str">
         <v>10,001+ employees</v>
       </c>
       <c r="Z34" t="str">
-        <v>https://www.linkedin.com/company/novartis/about/</v>
+        <v>https://www.linkedin.com/company/danone/</v>
       </c>
       <c r="AA34" t="str">
-        <v>$46.7 B</v>
+        <v>27.62 billion</v>
       </c>
       <c r="AB34" t="str">
-        <v>https://www.datanyze.com/companies/novartis/62014529</v>
+        <v>https://www.google.com/search?q=Danone+revebue+size&amp;rlz=1C1GCEU_en-GBIN1102IN1102&amp;oq=Danone+revebue+size&amp;gs_lcrp=EgZjaHJvbWUyBggAEEUYOTIJCAEQIRgKGKABMgkIAhAhGAoYoAHSAQg0NjYzajBqN6gCALACAA&amp;sourceid=chrome&amp;ie=UTF-8</v>
       </c>
       <c r="AC34" t="str">
-        <v>Data scraping</v>
+        <v>Data Scraping</v>
       </c>
       <c r="AD34" t="str">
-        <v>MarBorNov</v>
+        <v>AusKwaDan</v>
       </c>
       <c r="AE34" t="str">
-        <v>MarkBoroNova</v>
+        <v>AustKwakDano</v>
       </c>
       <c r="AF34" s="1">
-        <v>45393.00011574074</v>
+        <v>45400.00011574074</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>934657</v>
+        <v>1931411</v>
       </c>
       <c r="B35" t="str">
-        <v>Pushkar</v>
+        <v>Shawn</v>
       </c>
       <c r="C35" t="str">
-        <v>Bedekar</v>
+        <v>Campbell</v>
       </c>
       <c r="D35" t="str">
-        <v>Novartis</v>
+        <v>Ciena Healthcare</v>
       </c>
       <c r="E35" t="str">
-        <v>pushkar.bedekar@novartis.com</v>
+        <v>shawn.campbell@cienahmi.com</v>
       </c>
       <c r="F35" t="str">
-        <v>risky</v>
+        <v>undeliverable</v>
       </c>
       <c r="G35" t="str">
-        <v>Chief Financial Officer, US Oncology</v>
+        <v>Chief Information Security Officer- CISO --- AVIEN, CHIME, MHCC, AEHIS, CISSP</v>
       </c>
       <c r="H35" t="str">
         <v>C Level</v>
       </c>
       <c r="I35" t="str">
-        <v>Finance</v>
+        <v>Information Technology</v>
       </c>
       <c r="J35" t="str">
-        <v>8627788300</v>
+        <v>2483860300</v>
       </c>
       <c r="K35" t="str">
         <v>-</v>
       </c>
       <c r="L35" t="str">
-        <v>1 Health Plaza</v>
+        <v>4000 Town Center #2000</v>
       </c>
       <c r="M35" t="str">
         <v>-</v>
       </c>
       <c r="N35" t="str">
-        <v>East Hanover</v>
+        <v>Southfield</v>
       </c>
       <c r="O35" t="str">
-        <v>New Jersey</v>
+        <v>Michigan</v>
       </c>
       <c r="P35" t="str">
-        <v>7936</v>
+        <v>48075</v>
       </c>
       <c r="Q35" t="str">
         <v>United States</v>
       </c>
       <c r="R35" t="str">
-        <v>https://www.linkedin.com/in/pushkarbedekar/</v>
+        <v>https://www.linkedin.com/in/scampb18</v>
       </c>
       <c r="S35" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T35" t="str">
-        <v>-</v>
+        <v>Email Bounce Back</v>
       </c>
       <c r="U35" t="str">
-        <v>novartis.com</v>
+        <v>cienahmi.com</v>
       </c>
       <c r="V35" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Hospitals and Health Care</v>
       </c>
       <c r="W35" t="str">
-        <v>Manufacturing</v>
+        <v>Hospitals and Health Care</v>
       </c>
       <c r="X35" t="str">
-        <v>https://www.linkedin.com/company/novartis/about/</v>
+        <v>https://www.linkedin.com/company/ciena-healthcare/about/</v>
       </c>
       <c r="Y35" t="str">
-        <v>10,001+ employees</v>
+        <v>5,001-10,000 employees</v>
       </c>
       <c r="Z35" t="str">
-        <v>https://www.linkedin.com/company/novartis/about/</v>
+        <v>https://www.linkedin.com/company/ciena-healthcare/about/</v>
       </c>
       <c r="AA35" t="str">
-        <v>$46.7 B</v>
+        <v>-</v>
       </c>
       <c r="AB35" t="str">
-        <v>https://www.datanyze.com/companies/novartis/62014529</v>
+        <v>-</v>
       </c>
       <c r="AC35" t="str">
-        <v>Data scraping</v>
+        <v>Data Scraping</v>
       </c>
       <c r="AD35" t="str">
-        <v>PusBedNov</v>
+        <v>ShaCamCie</v>
       </c>
       <c r="AE35" t="str">
-        <v>PushBedeNova</v>
+        <v>ShawCampCien</v>
       </c>
       <c r="AF35" s="1">
-        <v>45393.00011574074</v>
+        <v>45400.00011574074</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1098091</v>
+        <v>1931416</v>
       </c>
       <c r="B36" t="str">
-        <v>Rufus</v>
+        <v>Tony</v>
       </c>
       <c r="C36" t="str">
-        <v>Cochran</v>
+        <v>Taylor</v>
       </c>
       <c r="D36" t="str">
-        <v>Roche</v>
+        <v>Land O'Lakes, Inc.</v>
       </c>
       <c r="E36" t="str">
-        <v>rufus.cochran@roche.com</v>
+        <v>tony.taylor@landolakes.com</v>
       </c>
       <c r="F36" t="str">
-        <v>-</v>
+        <v>undeliverable</v>
       </c>
       <c r="G36" t="str">
-        <v>Data Scientist</v>
+        <v>CISO</v>
       </c>
       <c r="H36" t="str">
-        <v>Individual Contributor</v>
+        <v>C Level</v>
       </c>
       <c r="I36" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J36" t="str">
-        <v>1 625-225-1000</v>
+        <v>6513752222</v>
       </c>
       <c r="K36" t="str">
         <v>-</v>
       </c>
       <c r="L36" t="str">
-        <v>1 Dna Way</v>
+        <v>4001 Lexington Ave N,</v>
       </c>
       <c r="M36" t="str">
         <v>-</v>
       </c>
       <c r="N36" t="str">
-        <v>South San Francisco</v>
+        <v>Arden Hills</v>
       </c>
       <c r="O36" t="str">
-        <v>California</v>
+        <v>Minnesota</v>
       </c>
       <c r="P36" t="str">
-        <v>94080</v>
+        <v>55126</v>
       </c>
       <c r="Q36" t="str">
         <v>United States</v>
       </c>
       <c r="R36" t="str">
-        <v>https://www.linkedin.com/in/rufuscochran/</v>
+        <v>https://www.linkedin.com/in/tony-taylor-2403276</v>
       </c>
       <c r="S36" t="str">
-        <v>-</v>
+        <v>Disqualified</v>
       </c>
       <c r="T36" t="str">
-        <v>-</v>
+        <v>Email Bounce Back</v>
       </c>
       <c r="U36" t="str">
-        <v>roche.com</v>
+        <v>landolakes.com</v>
       </c>
       <c r="V36" t="str">
-        <v>Biotechnology Research</v>
+        <v>Food and Beverage Manufacturing</v>
       </c>
       <c r="W36" t="str">
-        <v>Healthcare, Pharmaceuticals, &amp; Biotech</v>
+        <v>Food and Beverage Manufacturing</v>
       </c>
       <c r="X36" t="str">
-        <v>https://www.linkedin.com/company/roche/?originalSubdomain=in</v>
+        <v>https://www.linkedin.com/company/landolakesinc/about/</v>
       </c>
       <c r="Y36" t="str">
-        <v>10,001+ employees</v>
+        <v>5,001-10,000 employees</v>
       </c>
       <c r="Z36" t="str">
-        <v>https://www.linkedin.com/company/roche/?originalSubdomain=in</v>
+        <v>https://www.linkedin.com/company/landolakesinc/about/</v>
       </c>
       <c r="AA36" t="str">
         <v>-</v>
@@ -3919,3941 +3919,1883 @@
         <v>-</v>
       </c>
       <c r="AC36" t="str">
-        <v>-</v>
+        <v>Data Scraping</v>
       </c>
       <c r="AD36" t="str">
-        <v>RufCocRoc</v>
+        <v>TonTayLan</v>
       </c>
       <c r="AE36" t="str">
-        <v>RufuCochRoch</v>
+        <v>TonyTaylLand</v>
       </c>
       <c r="AF36" s="1">
-        <v>44958.00011574074</v>
+        <v>45400.00011574074</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1098094</v>
+        <v>1931530</v>
       </c>
       <c r="B37" t="str">
-        <v>Sumeet</v>
+        <v>Amy</v>
       </c>
       <c r="C37" t="str">
-        <v>Saini</v>
+        <v>Kling</v>
       </c>
       <c r="D37" t="str">
-        <v>Roche</v>
+        <v>Turner Industries</v>
       </c>
       <c r="E37" t="str">
-        <v>sumeet.saini@roche.com</v>
+        <v>akling@turner-industries.com</v>
       </c>
       <c r="F37" t="str">
-        <v>-</v>
+        <v>deliverable</v>
       </c>
       <c r="G37" t="str">
-        <v>Data Scientist Intern</v>
+        <v>Chief Information Officer</v>
       </c>
       <c r="H37" t="str">
-        <v>Individual Contributor</v>
+        <v>C Level</v>
       </c>
       <c r="I37" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J37" t="str">
-        <v>1 625-225-1000</v>
+        <v>2253008100</v>
       </c>
       <c r="K37" t="str">
         <v>-</v>
       </c>
       <c r="L37" t="str">
-        <v>1 Dna Way</v>
+        <v>215 Highlandia Dr</v>
       </c>
       <c r="M37" t="str">
         <v>-</v>
       </c>
       <c r="N37" t="str">
-        <v>South San Francisco</v>
+        <v>Baton Rouge</v>
       </c>
       <c r="O37" t="str">
-        <v>California</v>
+        <v>Louisiana</v>
       </c>
       <c r="P37" t="str">
-        <v>94080</v>
+        <v>70810</v>
       </c>
       <c r="Q37" t="str">
         <v>United States</v>
       </c>
       <c r="R37" t="str">
-        <v>https://www.linkedin.com/in/sumeet2807/</v>
+        <v>https://www.linkedin.com/in/amy-kling-15551346/</v>
       </c>
       <c r="S37" t="str">
-        <v>-</v>
+        <v>Disqualified</v>
       </c>
       <c r="T37" t="str">
-        <v>-</v>
+        <v>Same prospect is already profile for same campaign</v>
       </c>
       <c r="U37" t="str">
-        <v>roche.com</v>
+        <v>turner-industries.com</v>
       </c>
       <c r="V37" t="str">
-        <v>Biotechnology Research</v>
+        <v>Construction</v>
       </c>
       <c r="W37" t="str">
-        <v>Healthcare, Pharmaceuticals, &amp; Biotech</v>
+        <v>Construction</v>
       </c>
       <c r="X37" t="str">
-        <v>https://www.linkedin.com/company/roche/?originalSubdomain=in</v>
+        <v>https://www.linkedin.com/company/turner-industries/about/</v>
       </c>
       <c r="Y37" t="str">
         <v>10,001+ employees</v>
       </c>
       <c r="Z37" t="str">
-        <v>https://www.linkedin.com/company/roche/?originalSubdomain=in</v>
+        <v>https://www.linkedin.com/company/turner-industries/about/</v>
       </c>
       <c r="AA37" t="str">
-        <v>-</v>
+        <v>$5B</v>
       </c>
       <c r="AB37" t="str">
-        <v>-</v>
+        <v>https://dashboard.slintel.com/company-details/5b89170b7c866675e511717b</v>
       </c>
       <c r="AC37" t="str">
-        <v>-</v>
+        <v>Data Scraping</v>
       </c>
       <c r="AD37" t="str">
-        <v>SumSaiRoc</v>
+        <v>AmyKliTur</v>
       </c>
       <c r="AE37" t="str">
-        <v>SumeSainRoch</v>
+        <v>AmyKlinTurn</v>
       </c>
       <c r="AF37" s="1">
-        <v>44958.00011574074</v>
+        <v>45400.00011574074</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1115112</v>
+        <v>1931566</v>
       </c>
       <c r="B38" t="str">
-        <v>Tomasz</v>
+        <v>Manuel</v>
       </c>
       <c r="C38" t="str">
-        <v>Malcharek</v>
+        <v>Nedbal</v>
       </c>
       <c r="D38" t="str">
-        <v>Novartis</v>
+        <v>ShieldX Networks</v>
       </c>
       <c r="E38" t="str">
-        <v>tomasz.malcharek@novartis.com</v>
+        <v>manuel@shieldx.com</v>
       </c>
       <c r="F38" t="str">
-        <v>-</v>
+        <v>unknown</v>
       </c>
       <c r="G38" t="str">
-        <v>Clinical Data Manager</v>
+        <v>Chief Technology Officer</v>
       </c>
       <c r="H38" t="str">
-        <v>Manager</v>
+        <v>C Level</v>
       </c>
       <c r="I38" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J38" t="str">
-        <v>1 212-307-1122</v>
+        <v>8583616260</v>
       </c>
       <c r="K38" t="str">
-        <v>18622778210</v>
+        <v>-</v>
       </c>
       <c r="L38" t="str">
-        <v>1 S Ridgedale Ave</v>
+        <v>2025 Gateway Pl, Ste 400,</v>
       </c>
       <c r="M38" t="str">
         <v>-</v>
       </c>
       <c r="N38" t="str">
-        <v>East Hanover</v>
+        <v>San Jose</v>
       </c>
       <c r="O38" t="str">
-        <v>New Jersey</v>
+        <v>California</v>
       </c>
       <c r="P38" t="str">
-        <v>7936</v>
+        <v>95110</v>
       </c>
       <c r="Q38" t="str">
         <v>United States</v>
       </c>
       <c r="R38" t="str">
-        <v>https://www.linkedin.com/in/tomasz-malcharek-809b6ab/</v>
+        <v>https://www.linkedin.com/in/manuelnedbal/</v>
       </c>
       <c r="S38" t="str">
-        <v>-</v>
+        <v>Disqualified</v>
       </c>
       <c r="T38" t="str">
-        <v>-</v>
+        <v>Email bounce back</v>
       </c>
       <c r="U38" t="str">
-        <v>novartis.com</v>
+        <v>shieldx.com</v>
       </c>
       <c r="V38" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>VAR/VAD/System Integrator</v>
       </c>
       <c r="W38" t="str">
-        <v>Manufacturing</v>
+        <v>VAR/VAD/System Integrator</v>
       </c>
       <c r="X38" t="str">
-        <v>https://www.linkedin.com/company/novartis/</v>
+        <v>https://www.linkedin.com/company/shieldx-networks</v>
       </c>
       <c r="Y38" t="str">
-        <v>10,001+ employees</v>
+        <v>51-200 employees</v>
       </c>
       <c r="Z38" t="str">
-        <v>https://www.linkedin.com/company/novartis/</v>
+        <v>https://www.linkedin.com/company/shieldx-networks</v>
       </c>
       <c r="AA38" t="str">
-        <v>$48 Billion</v>
+        <v>$10 - 50M</v>
       </c>
       <c r="AB38" t="str">
-        <v>https://www.zoominfo.com/c/novartis-ag/62014529</v>
+        <v>-</v>
       </c>
       <c r="AC38" t="str">
-        <v>-</v>
+        <v>Data Scraping</v>
       </c>
       <c r="AD38" t="str">
-        <v>TomMalNov</v>
+        <v>ManNedShi</v>
       </c>
       <c r="AE38" t="str">
-        <v>TomaMalcNova</v>
+        <v>ManuNedbShie</v>
       </c>
       <c r="AF38" s="1">
-        <v>44958.00011574074</v>
+        <v>45400.00011574074</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1115117</v>
+        <v>1931600</v>
       </c>
       <c r="B39" t="str">
-        <v>Reza</v>
+        <v>Ralph</v>
       </c>
       <c r="C39" t="str">
-        <v>Mojahed-Yazdi</v>
+        <v>Kubicsek</v>
       </c>
       <c r="D39" t="str">
-        <v>Novartis</v>
+        <v xml:space="preserve">Tower HillInsurance Group Inc                                      </v>
       </c>
       <c r="E39" t="str">
-        <v>reza.mojahed-yazdi@novartis.com</v>
+        <v>jkubicsek@thig.com</v>
       </c>
       <c r="F39" t="str">
-        <v>-</v>
+        <v>undeliverable</v>
       </c>
       <c r="G39" t="str">
-        <v>Artificial Intelligence Resident | Data Scientist</v>
+        <v>Chief Technology Officer</v>
       </c>
       <c r="H39" t="str">
-        <v>Individual Contributor</v>
+        <v>C Level</v>
       </c>
       <c r="I39" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J39" t="str">
-        <v>1 212-307-1122</v>
+        <v>3523328800</v>
       </c>
       <c r="K39" t="str">
         <v>-</v>
       </c>
       <c r="L39" t="str">
-        <v>1 S Ridgedale Ave</v>
+        <v>7201 NW 11th Pl</v>
       </c>
       <c r="M39" t="str">
         <v>-</v>
       </c>
       <c r="N39" t="str">
-        <v>East Hanover</v>
+        <v>Gainesville</v>
       </c>
       <c r="O39" t="str">
-        <v>New Jersey</v>
+        <v>Florida</v>
       </c>
       <c r="P39" t="str">
-        <v>7936</v>
+        <v>32605</v>
       </c>
       <c r="Q39" t="str">
         <v>United States</v>
       </c>
       <c r="R39" t="str">
-        <v>https://www.linkedin.com/in/rezamy/</v>
+        <v>https://www.linkedin.com/in/ralph-kubicsek-20671174/</v>
       </c>
       <c r="S39" t="str">
-        <v>-</v>
+        <v>Disqualified</v>
       </c>
       <c r="T39" t="str">
-        <v>-</v>
+        <v>Industry type does not match as per specs + Incorrect Email Pasted</v>
       </c>
       <c r="U39" t="str">
-        <v>novartis.com</v>
+        <v>thig.com</v>
       </c>
       <c r="V39" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Insurance</v>
       </c>
       <c r="W39" t="str">
-        <v>Manufacturing</v>
+        <v>Insurance</v>
       </c>
       <c r="X39" t="str">
-        <v>https://www.linkedin.com/company/novartis/</v>
+        <v>https://www.linkedin.com/company/tower-hill-insurance-group/about/</v>
       </c>
       <c r="Y39" t="str">
-        <v>10,001+ employees</v>
+        <v>201-500 employees</v>
       </c>
       <c r="Z39" t="str">
-        <v>https://www.linkedin.com/company/novartis/</v>
+        <v>https://www.linkedin.com/company/tower-hill-insurance-group/about/</v>
       </c>
       <c r="AA39" t="str">
-        <v>$48 Billion</v>
+        <v>-</v>
       </c>
       <c r="AB39" t="str">
-        <v>https://www.zoominfo.com/c/novartis-ag/62014529</v>
+        <v>-</v>
       </c>
       <c r="AC39" t="str">
-        <v>-</v>
+        <v>Rpc Voicemail</v>
       </c>
       <c r="AD39" t="str">
-        <v>RezMojNov</v>
+        <v>RalKubTow</v>
       </c>
       <c r="AE39" t="str">
-        <v>RezaMojaNova</v>
+        <v>RalpKubiTowe</v>
       </c>
       <c r="AF39" s="1">
-        <v>44958.00011574074</v>
+        <v>45400.00011574074</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1115119</v>
+        <v>1931615</v>
       </c>
       <c r="B40" t="str">
-        <v>Kelly</v>
+        <v>Ryan</v>
       </c>
       <c r="C40" t="str">
-        <v>Klein</v>
+        <v>Jackson</v>
       </c>
       <c r="D40" t="str">
-        <v>Novartis</v>
+        <v>smiledirectclub, llc</v>
       </c>
       <c r="E40" t="str">
-        <v>kelly.klein@novartis.com</v>
+        <v>ryan.jackson@smiledirectclub.com</v>
       </c>
       <c r="F40" t="str">
-        <v>-</v>
+        <v>deliverable</v>
       </c>
       <c r="G40" t="str">
-        <v>Associate Director - CSU Data Scientist</v>
+        <v>SVP, Digital IT, Global Tech, &amp; CISO</v>
       </c>
       <c r="H40" t="str">
-        <v>Director</v>
+        <v>C Level</v>
       </c>
       <c r="I40" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J40" t="str">
-        <v>1 212-307-1122</v>
+        <v>7043278077</v>
       </c>
       <c r="K40" t="str">
-        <v>-</v>
+        <v>17043278077</v>
       </c>
       <c r="L40" t="str">
-        <v>1 S Ridgedale Ave</v>
+        <v>414 Union St</v>
       </c>
       <c r="M40" t="str">
         <v>-</v>
       </c>
       <c r="N40" t="str">
-        <v>East Hanover</v>
+        <v>Nashville</v>
       </c>
       <c r="O40" t="str">
-        <v>New Jersey</v>
+        <v>Tennessee</v>
       </c>
       <c r="P40" t="str">
-        <v>7936</v>
+        <v>37219</v>
       </c>
       <c r="Q40" t="str">
         <v>United States</v>
       </c>
       <c r="R40" t="str">
-        <v>https://www.linkedin.com/in/kelly-klein-quart-b71b8b4/</v>
+        <v>https://www.linkedin.com/in/jacksonryan/</v>
       </c>
       <c r="S40" t="str">
-        <v>-</v>
+        <v>Disqualified</v>
       </c>
       <c r="T40" t="str">
-        <v>-</v>
+        <v>Found in All Client Collated Supp - 6 Months + Industry type does not match the specs</v>
       </c>
       <c r="U40" t="str">
-        <v>novartis.com</v>
+        <v>smiledirectclub.com</v>
       </c>
       <c r="V40" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Wellness and Fitness Services</v>
       </c>
       <c r="W40" t="str">
-        <v>Manufacturing</v>
+        <v>Health, Wellness &amp; Fitness</v>
       </c>
       <c r="X40" t="str">
-        <v>https://www.linkedin.com/company/novartis/</v>
+        <v>https://www.linkedin.com/company/smiledirectclub/about/</v>
       </c>
       <c r="Y40" t="str">
-        <v>10,001+ employees</v>
+        <v>1,001-5,000 employees</v>
       </c>
       <c r="Z40" t="str">
-        <v>https://www.linkedin.com/company/novartis/</v>
+        <v>https://www.linkedin.com/company/smiledirectclub/about/</v>
       </c>
       <c r="AA40" t="str">
-        <v>$48 Billion</v>
+        <v>100_Million_to_200_Million</v>
       </c>
       <c r="AB40" t="str">
-        <v>https://www.zoominfo.com/c/novartis-ag/62014529</v>
+        <v>https://investors.smiledirectclub.com/news-releases/news-release-details/smiledirectclub-reports-second-quarter-2023-financial-results</v>
       </c>
       <c r="AC40" t="str">
-        <v>-</v>
+        <v>Rpc Voicemail</v>
       </c>
       <c r="AD40" t="str">
-        <v>KelKleNov</v>
+        <v>RyaJacsmi</v>
       </c>
       <c r="AE40" t="str">
-        <v>KellKleiNova</v>
+        <v>RyanJacksmil</v>
       </c>
       <c r="AF40" s="1">
-        <v>44958.00011574074</v>
+        <v>45401.00011574074</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1115150</v>
+        <v>4920126</v>
       </c>
       <c r="B41" t="str">
-        <v>PohSin</v>
+        <v>Raul Ramirez</v>
       </c>
       <c r="C41" t="str">
-        <v>Yap</v>
+        <v>Hernandez</v>
       </c>
       <c r="D41" t="str">
-        <v>Novartis</v>
+        <v>GF Inbursa</v>
       </c>
       <c r="E41" t="str">
-        <v>pohsin.yap@novartis.com</v>
+        <v>raul.hernandez@inbursa.com</v>
       </c>
       <c r="F41" t="str">
-        <v>-</v>
+        <v>risky</v>
       </c>
       <c r="G41" t="str">
-        <v>Associate Director RWE and Data Scientist</v>
+        <v>CIO</v>
       </c>
       <c r="H41" t="str">
-        <v>Director</v>
+        <v>C-Level</v>
       </c>
       <c r="I41" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J41" t="str">
-        <v>1 212-307-1122</v>
+        <v>525556254900</v>
       </c>
       <c r="K41" t="str">
         <v>-</v>
       </c>
       <c r="L41" t="str">
-        <v>1 S Ridgedale Ave</v>
+        <v>3500 Ave Insurgentes Sur,</v>
       </c>
       <c r="M41" t="str">
         <v>-</v>
       </c>
       <c r="N41" t="str">
-        <v>East Hanover</v>
+        <v>Tlalpan</v>
       </c>
       <c r="O41" t="str">
-        <v>New Jersey</v>
+        <v>CDMX</v>
       </c>
       <c r="P41" t="str">
-        <v>7936</v>
+        <v>14060</v>
       </c>
       <c r="Q41" t="str">
-        <v>United States</v>
+        <v>Mexico</v>
       </c>
       <c r="R41" t="str">
-        <v>https://www.linkedin.com/in/pohsin-yap-a908232b/</v>
+        <v>https://www.linkedin.com/in/raul-ramirez-hernandez-3a62b934/?originalSubdomain=mx</v>
       </c>
       <c r="S41" t="str">
-        <v>-</v>
+        <v>Disqualified</v>
       </c>
       <c r="T41" t="str">
-        <v>-</v>
+        <v>Phone Number does not match address</v>
       </c>
       <c r="U41" t="str">
-        <v>novartis.com</v>
+        <v>inbursa.com</v>
       </c>
       <c r="V41" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Financial Services</v>
       </c>
       <c r="W41" t="str">
-        <v>Manufacturing</v>
+        <v>Financial Services</v>
       </c>
       <c r="X41" t="str">
-        <v>https://www.linkedin.com/company/novartis/</v>
+        <v>https://www.linkedin.com/company/inbursa/about/</v>
       </c>
       <c r="Y41" t="str">
-        <v>10,001+ employees</v>
+        <v>5,001-10,000 employees</v>
       </c>
       <c r="Z41" t="str">
-        <v>https://www.linkedin.com/company/novartis/</v>
+        <v>https://www.linkedin.com/company/inbursa/about/</v>
       </c>
       <c r="AA41" t="str">
-        <v>$48 Billion</v>
+        <v>$4.1 Billion</v>
       </c>
       <c r="AB41" t="str">
-        <v>https://www.zoominfo.com/c/novartis-ag/62014529</v>
+        <v>https://cc.bingj.com/cache.aspx?q=GF+Inbursa+zoominfo&amp;d=4675596281139419&amp;mkt=en-IN&amp;setlang=en-US&amp;w=azJldq79vuxON0hNf9DJfSwgjR4kfT2l</v>
       </c>
       <c r="AC41" t="str">
-        <v>-</v>
+        <v>Data Scraping</v>
       </c>
       <c r="AD41" t="str">
-        <v>PohYapNov</v>
+        <v>RauHerGF</v>
       </c>
       <c r="AE41" t="str">
-        <v>PohSYapNova</v>
+        <v>RaulHernGF I</v>
       </c>
       <c r="AF41" s="1">
-        <v>44958.00011574074</v>
+        <v>45401.00011574074</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1115186</v>
+        <v>4928948</v>
       </c>
       <c r="B42" t="str">
-        <v>Ashley</v>
+        <v>Sabri</v>
       </c>
       <c r="C42" t="str">
-        <v>Wills</v>
+        <v>Gökmenler</v>
       </c>
       <c r="D42" t="str">
-        <v>Novartis</v>
+        <v>Türkiye ?? Bankas?</v>
       </c>
       <c r="E42" t="str">
-        <v>ashley.wills@novartis.com</v>
+        <v>sabri@isbank.com.tr</v>
       </c>
       <c r="F42" t="str">
-        <v>-</v>
+        <v>unknown</v>
       </c>
       <c r="G42" t="str">
-        <v>Data Scientist</v>
+        <v>CIO, Deputy CEO</v>
       </c>
       <c r="H42" t="str">
-        <v>Individual Contributor</v>
+        <v>C-Level</v>
       </c>
       <c r="I42" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J42" t="str">
-        <v>1 212-307-1122</v>
+        <v>902123164747</v>
       </c>
       <c r="K42" t="str">
         <v>-</v>
       </c>
       <c r="L42" t="str">
-        <v>1 S Ridgedale Ave</v>
+        <v>Levent ?? Kuleleri, Meltem Sk. No:1, 34330</v>
       </c>
       <c r="M42" t="str">
         <v>-</v>
       </c>
       <c r="N42" t="str">
-        <v>East Hanover</v>
+        <v>Besiktas</v>
       </c>
       <c r="O42" t="str">
-        <v>New Jersey</v>
+        <v>Besiktas</v>
       </c>
       <c r="P42" t="str">
-        <v>7936</v>
+        <v>34330</v>
       </c>
       <c r="Q42" t="str">
-        <v>United States</v>
+        <v>Turkey</v>
       </c>
       <c r="R42" t="str">
-        <v>https://www.linkedin.com/in/ashley-wills-588277235/</v>
+        <v>https://www.linkedin.com/in/sabri-gokmenler/</v>
       </c>
       <c r="S42" t="str">
-        <v>-</v>
+        <v>Disqualified</v>
       </c>
       <c r="T42" t="str">
-        <v>-</v>
+        <v>Email bounce back</v>
       </c>
       <c r="U42" t="str">
-        <v>novartis.com</v>
+        <v>isbank.com.tr</v>
       </c>
       <c r="V42" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Financial Services</v>
       </c>
       <c r="W42" t="str">
-        <v>Manufacturing</v>
+        <v>Banking</v>
       </c>
       <c r="X42" t="str">
-        <v>https://www.linkedin.com/company/novartis/</v>
+        <v>https://www.linkedin.com/company/isbankasi/about/</v>
       </c>
       <c r="Y42" t="str">
         <v>10,001+ employees</v>
       </c>
       <c r="Z42" t="str">
-        <v>https://www.linkedin.com/company/novartis/</v>
+        <v>https://www.linkedin.com/company/isbankasi/about/</v>
       </c>
       <c r="AA42" t="str">
-        <v>$48 Billion</v>
+        <v>-</v>
       </c>
       <c r="AB42" t="str">
-        <v>https://www.zoominfo.com/c/novartis-ag/62014529</v>
+        <v>-</v>
       </c>
       <c r="AC42" t="str">
-        <v>-</v>
+        <v>Company Verified</v>
       </c>
       <c r="AD42" t="str">
-        <v>AshWilNov</v>
+        <v>SabGökTür</v>
       </c>
       <c r="AE42" t="str">
-        <v>AshlWillNova</v>
+        <v>SabrGökmTürk</v>
       </c>
       <c r="AF42" s="1">
-        <v>44958.00011574074</v>
+        <v>45401.00011574074</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1115187</v>
+        <v>4903947</v>
       </c>
       <c r="B43" t="str">
-        <v>Rocco</v>
+        <v>Cameron</v>
       </c>
       <c r="C43" t="str">
-        <v>Wu</v>
+        <v>Crofts</v>
       </c>
       <c r="D43" t="str">
-        <v>Novartis</v>
+        <v>Blue Connections IT</v>
       </c>
       <c r="E43" t="str">
-        <v>rocco.wu@novartis.com</v>
+        <v>ccrofts@blueconnections.com.au</v>
       </c>
       <c r="F43" t="str">
-        <v>-</v>
+        <v>risky</v>
       </c>
       <c r="G43" t="str">
-        <v>Data Scientist</v>
+        <v>Chief Information Officer</v>
       </c>
       <c r="H43" t="str">
-        <v>Individual Contributor</v>
+        <v>C-level</v>
       </c>
       <c r="I43" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J43" t="str">
-        <v>1 212-307-1122</v>
+        <v>61395600999</v>
       </c>
       <c r="K43" t="str">
         <v>-</v>
       </c>
       <c r="L43" t="str">
-        <v>1 S Ridgedale Ave</v>
+        <v>1b Dalmore Dr</v>
       </c>
       <c r="M43" t="str">
         <v>-</v>
       </c>
       <c r="N43" t="str">
-        <v>East Hanover</v>
+        <v>Scoresby</v>
       </c>
       <c r="O43" t="str">
-        <v>New Jersey</v>
+        <v>Victoria</v>
       </c>
       <c r="P43" t="str">
-        <v>7936</v>
+        <v>3179</v>
       </c>
       <c r="Q43" t="str">
-        <v>United States</v>
+        <v>Australia</v>
       </c>
       <c r="R43" t="str">
-        <v>https://www.linkedin.com/in/rocco-wu/</v>
+        <v>https://www.linkedin.com/in/cameroncrofts/</v>
       </c>
       <c r="S43" t="str">
-        <v>-</v>
+        <v>Disqualified</v>
       </c>
       <c r="T43" t="str">
-        <v>-</v>
+        <v>Not an RPC</v>
       </c>
       <c r="U43" t="str">
-        <v>novartis.com</v>
+        <v>blueconnections.com.au</v>
       </c>
       <c r="V43" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Information Technology &amp; Services</v>
       </c>
       <c r="W43" t="str">
-        <v>Manufacturing</v>
+        <v>Information Technology &amp; Services</v>
       </c>
       <c r="X43" t="str">
-        <v>https://www.linkedin.com/company/novartis/</v>
+        <v>https://www.linkedin.com/company/blue-connections/about/</v>
       </c>
       <c r="Y43" t="str">
-        <v>10,001+ employees</v>
+        <v>51-200 employees</v>
       </c>
       <c r="Z43" t="str">
-        <v>https://www.linkedin.com/company/novartis/</v>
+        <v>https://www.linkedin.com/company/blue-connections/about/</v>
       </c>
       <c r="AA43" t="str">
-        <v>$48 Billion</v>
+        <v>10 Million to 50 Million</v>
       </c>
       <c r="AB43" t="str">
-        <v>https://www.zoominfo.com/c/novartis-ag/62014529</v>
+        <v>https://www.google.com/search?q=Blue+Connections+IT+revenue+size&amp;rlz=1C1GCEU_en-GBIN1102IN1102&amp;oq=Blue+Connections+IT+revenue+size&amp;gs_lcrp=EgZjaHJvbWUyBggAEEUYOTIHCAEQIRigATIHCAIQIRigAdIBCDI4ODdqMGo3qAIAsAIA&amp;sourceid=chrome&amp;ie=UTF-8</v>
       </c>
       <c r="AC43" t="str">
-        <v>-</v>
+        <v>Operator Verified</v>
       </c>
       <c r="AD43" t="str">
-        <v>RocWuNov</v>
+        <v>CamCroBlu</v>
       </c>
       <c r="AE43" t="str">
-        <v>RoccWuNova</v>
+        <v>CameCrofBlue</v>
       </c>
       <c r="AF43" s="1">
-        <v>44958.00011574074</v>
+        <v>45401.00011574074</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1115258</v>
+        <v>4905144</v>
       </c>
       <c r="B44" t="str">
-        <v>Sai</v>
+        <v>Shahriar</v>
       </c>
       <c r="C44" t="str">
-        <v>Sibbinath</v>
+        <v>Zaman</v>
       </c>
       <c r="D44" t="str">
-        <v>Novartis</v>
+        <v>Nagad</v>
       </c>
       <c r="E44" t="str">
-        <v>sai.sibbinath@novartis.com</v>
+        <v>shahriar.zaman@nagad.com.bd</v>
       </c>
       <c r="F44" t="str">
-        <v>-</v>
+        <v>invalid</v>
       </c>
       <c r="G44" t="str">
-        <v>Senior RWE Data Scientist</v>
+        <v>Chief Information Officer</v>
       </c>
       <c r="H44" t="str">
-        <v>Individual Contributor</v>
+        <v>Director</v>
       </c>
       <c r="I44" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J44" t="str">
-        <v>1 212-307-1122</v>
+        <v>880202223387049</v>
       </c>
       <c r="K44" t="str">
         <v>-</v>
       </c>
       <c r="L44" t="str">
-        <v>1 S Ridgedale Ave</v>
+        <v>36 Kemal Ataturk Avenue</v>
       </c>
       <c r="M44" t="str">
         <v>-</v>
       </c>
       <c r="N44" t="str">
-        <v>East Hanover</v>
+        <v>Dhaka</v>
       </c>
       <c r="O44" t="str">
-        <v>New Jersey</v>
+        <v>Dhaka</v>
       </c>
       <c r="P44" t="str">
-        <v>7936</v>
+        <v>1213</v>
       </c>
       <c r="Q44" t="str">
-        <v>United States</v>
+        <v>Bangladesh</v>
       </c>
       <c r="R44" t="str">
-        <v>https://www.linkedin.com/in/sai-soumya-s/</v>
+        <v>https://www.linkedin.com/in/sizaman/</v>
       </c>
       <c r="S44" t="str">
-        <v>-</v>
+        <v>Disqualified</v>
       </c>
       <c r="T44" t="str">
-        <v>-</v>
+        <v>Incorrect Phone Number + Email bounce back</v>
       </c>
       <c r="U44" t="str">
-        <v>novartis.com</v>
+        <v>nagad.com.bd</v>
       </c>
       <c r="V44" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Financial Services</v>
       </c>
       <c r="W44" t="str">
-        <v>Manufacturing</v>
+        <v>Financial Services</v>
       </c>
       <c r="X44" t="str">
-        <v>https://www.linkedin.com/company/novartis/</v>
+        <v>https://www.linkedin.com/company/mynagad/about/</v>
       </c>
       <c r="Y44" t="str">
-        <v>10,001+ employees</v>
+        <v>501-1,000 employees</v>
       </c>
       <c r="Z44" t="str">
-        <v>https://www.linkedin.com/company/novartis/</v>
+        <v>https://www.linkedin.com/company/mynagad/about/</v>
       </c>
       <c r="AA44" t="str">
-        <v>$48 Billion</v>
+        <v>&lt;$5 Million</v>
       </c>
       <c r="AB44" t="str">
-        <v>https://www.zoominfo.com/c/novartis-ag/62014529</v>
+        <v>https://www.zoominfo.com/c/nagad/464839065</v>
       </c>
       <c r="AC44" t="str">
-        <v>-</v>
+        <v>BCL_DS</v>
       </c>
       <c r="AD44" t="str">
-        <v>SaiSibNov</v>
+        <v>ShaZamNag</v>
       </c>
       <c r="AE44" t="str">
-        <v>SaiSibbNova</v>
+        <v>ShahZamaNaga</v>
       </c>
       <c r="AF44" s="1">
-        <v>44958.00011574074</v>
+        <v>45401.00011574074</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1597221</v>
+        <v>4915005</v>
       </c>
       <c r="B45" t="str">
-        <v>Ju</v>
+        <v>Andreas</v>
       </c>
       <c r="C45" t="str">
-        <v>Zhang</v>
+        <v>Borchert</v>
       </c>
       <c r="D45" t="str">
-        <v>Roche</v>
+        <v>Zurich Insurance</v>
       </c>
       <c r="E45" t="str">
-        <v>ju.zhang@roche.com</v>
+        <v>andreas.borchert@zurich.com</v>
       </c>
       <c r="F45" t="str">
-        <v>undeliverable</v>
+        <v>risky</v>
       </c>
       <c r="G45" t="str">
-        <v>Senior Data Scientist</v>
+        <v>Chief Information Security Officer - Germany</v>
       </c>
       <c r="H45" t="str">
-        <v>Individual Contributor</v>
+        <v>C-Level</v>
       </c>
       <c r="I45" t="str">
-        <v>Human Resource</v>
+        <v>Information Technology</v>
       </c>
       <c r="J45" t="str">
-        <v>41616881111</v>
+        <v>492282427878</v>
       </c>
       <c r="K45" t="str">
         <v>-</v>
       </c>
       <c r="L45" t="str">
-        <v>430 E 29th St</v>
+        <v>Bonner Talweg 28</v>
       </c>
       <c r="M45" t="str">
         <v>-</v>
       </c>
       <c r="N45" t="str">
-        <v>New York</v>
+        <v>Bonn</v>
       </c>
       <c r="O45" t="str">
-        <v>New York</v>
+        <v>Bonn</v>
       </c>
       <c r="P45" t="str">
-        <v>10016</v>
+        <v>53113</v>
       </c>
       <c r="Q45" t="str">
-        <v>United States</v>
+        <v>Germany</v>
       </c>
       <c r="R45" t="str">
-        <v>https://www.linkedin.com/in/zhangju</v>
+        <v>https://www.linkedin.com/in/andreas-r-borchert-a15a6994/</v>
       </c>
       <c r="S45" t="str">
         <v>Disqualified</v>
       </c>
       <c r="T45" t="str">
-        <v>Email bounce back</v>
+        <v>All Client Collated Supp - 6 Months + Invalid Email updated</v>
       </c>
       <c r="U45" t="str">
-        <v>roche.com</v>
+        <v>zurich.com</v>
       </c>
       <c r="V45" t="str">
-        <v>Biotechnology Research</v>
+        <v>Insurance</v>
       </c>
       <c r="W45" t="str">
-        <v>Healthcare, Pharmaceuticals, &amp; Biotech</v>
+        <v>Insurance</v>
       </c>
       <c r="X45" t="str">
-        <v>https://www.linkedin.com/company/roche/?originalSubdomain=in</v>
+        <v>https://www.linkedin.com/company/zurich-insurance-company-ltd/about/</v>
       </c>
       <c r="Y45" t="str">
         <v>10,001+ employees</v>
       </c>
       <c r="Z45" t="str">
-        <v>https://www.linkedin.com/company/roche/?originalSubdomain=in</v>
+        <v>https://www.linkedin.com/company/zurich-insurance-company-ltd/about/</v>
       </c>
       <c r="AA45" t="str">
-        <v>-</v>
+        <v>1.8M</v>
       </c>
       <c r="AB45" t="str">
-        <v>-</v>
+        <v>https://www.apollo.io/companies/Zurich-Insurance/6023710bcb191b008c1d290f</v>
       </c>
       <c r="AC45" t="str">
-        <v>CDQALITE_Data</v>
+        <v>Data Scraping</v>
       </c>
       <c r="AD45" t="str">
-        <v>JuZhaRoc</v>
+        <v>AndBorZur</v>
       </c>
       <c r="AE45" t="str">
-        <v>JuZhanRoch</v>
+        <v>AndrBorcZuri</v>
       </c>
       <c r="AF45" s="1">
-        <v>44958.00011574074</v>
+        <v>45401.00011574074</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1597222</v>
+        <v>4915014</v>
       </c>
       <c r="B46" t="str">
-        <v>Tai-Hsien</v>
+        <v>Jürgen</v>
       </c>
       <c r="C46" t="str">
-        <v>Ou Yang</v>
+        <v>Sturm</v>
       </c>
       <c r="D46" t="str">
-        <v>Roche</v>
+        <v>ZF Group</v>
       </c>
       <c r="E46" t="str">
-        <v>tai-hsien.ouyang@roche.com</v>
+        <v>juergen.sturm@zf.com</v>
       </c>
       <c r="F46" t="str">
-        <v>undeliverable</v>
+        <v>deliverable</v>
       </c>
       <c r="G46" t="str">
-        <v>Senior Data Scientist</v>
+        <v>Chief Information Officer</v>
       </c>
       <c r="H46" t="str">
-        <v>Individual Contributor</v>
+        <v>C-Level</v>
       </c>
       <c r="I46" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J46" t="str">
-        <v>41616881111</v>
+        <v>497541770</v>
       </c>
       <c r="K46" t="str">
         <v>-</v>
       </c>
       <c r="L46" t="str">
-        <v>430 E 29th St</v>
+        <v>Headquarters / ZF Forum, Löwentaler Str. 20,</v>
       </c>
       <c r="M46" t="str">
         <v>-</v>
       </c>
       <c r="N46" t="str">
-        <v>New York</v>
+        <v>Friedrichshafen</v>
       </c>
       <c r="O46" t="str">
-        <v>New York</v>
+        <v>Friedrichshafen</v>
       </c>
       <c r="P46" t="str">
-        <v>10016</v>
+        <v>88046</v>
       </c>
       <c r="Q46" t="str">
-        <v>United States</v>
+        <v>Germany</v>
       </c>
       <c r="R46" t="str">
-        <v>https://www.linkedin.com/in/tai-hsien-ou-yang-089b6232</v>
+        <v>https://www.linkedin.com/in/j%C3%BCrgen-sturm-594633/</v>
       </c>
       <c r="S46" t="str">
         <v>Disqualified</v>
       </c>
       <c r="T46" t="str">
-        <v>Email bounce back</v>
+        <v>Invalid Email updated</v>
       </c>
       <c r="U46" t="str">
-        <v>roche.com</v>
+        <v>zf.com</v>
       </c>
       <c r="V46" t="str">
-        <v>Biotechnology Research</v>
+        <v>Motor Vehicle Manufacturing</v>
       </c>
       <c r="W46" t="str">
-        <v>Healthcare, Pharmaceuticals, &amp; Biotech</v>
+        <v>Motor Vehicle Manufacturing</v>
       </c>
       <c r="X46" t="str">
-        <v>https://www.linkedin.com/company/roche/?originalSubdomain=in</v>
+        <v>https://www.linkedin.com/company/zf-group/about/</v>
       </c>
       <c r="Y46" t="str">
         <v>10,001+ employees</v>
       </c>
       <c r="Z46" t="str">
-        <v>https://www.linkedin.com/company/roche/?originalSubdomain=in</v>
+        <v>https://www.linkedin.com/company/zf-group/about/</v>
       </c>
       <c r="AA46" t="str">
-        <v>-</v>
+        <v>$41.8 B</v>
       </c>
       <c r="AB46" t="str">
-        <v>-</v>
+        <v>https://www.datanyze.com/companies/zf/195641802</v>
       </c>
       <c r="AC46" t="str">
-        <v>CDQALITE_Data</v>
+        <v>Data Scraping</v>
       </c>
       <c r="AD46" t="str">
-        <v>TaiOu Roc</v>
+        <v>JürStuZF</v>
       </c>
       <c r="AE46" t="str">
-        <v>Tai-Ou YRoch</v>
+        <v>JürgSturZF G</v>
       </c>
       <c r="AF46" s="1">
-        <v>44958.00011574074</v>
+        <v>45401.00011574074</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1597223</v>
+        <v>4915029</v>
       </c>
       <c r="B47" t="str">
-        <v>Wei</v>
+        <v>Jens</v>
       </c>
       <c r="C47" t="str">
-        <v>Yao</v>
+        <v>Becker</v>
       </c>
       <c r="D47" t="str">
-        <v>Roche</v>
+        <v>Zurich Insurance</v>
       </c>
       <c r="E47" t="str">
-        <v>wei.yao@roche.com</v>
+        <v>jens.becker@zurich.de</v>
       </c>
       <c r="F47" t="str">
-        <v>undeliverable</v>
+        <v>risky</v>
       </c>
       <c r="G47" t="str">
-        <v>Senior Data Scientist</v>
+        <v>CIO</v>
       </c>
       <c r="H47" t="str">
-        <v>Individual Contributor</v>
+        <v>C-Level</v>
       </c>
       <c r="I47" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J47" t="str">
-        <v>41616881111</v>
+        <v>492282427878</v>
       </c>
       <c r="K47" t="str">
         <v>-</v>
       </c>
       <c r="L47" t="str">
-        <v>430 E 29th St</v>
+        <v>Bonner Talweg 28</v>
       </c>
       <c r="M47" t="str">
         <v>-</v>
       </c>
       <c r="N47" t="str">
-        <v>New York</v>
+        <v>Bonn</v>
       </c>
       <c r="O47" t="str">
-        <v>New York</v>
+        <v>Bonn</v>
       </c>
       <c r="P47" t="str">
-        <v>10016</v>
+        <v>53113</v>
       </c>
       <c r="Q47" t="str">
-        <v>United States</v>
+        <v>Germany</v>
       </c>
       <c r="R47" t="str">
-        <v>https://www.linkedin.com/in/wei-yao-9187a86a</v>
+        <v>https://www.linkedin.com/in/jensbecker1/</v>
       </c>
       <c r="S47" t="str">
         <v>Disqualified</v>
       </c>
       <c r="T47" t="str">
-        <v>Email bounce back</v>
+        <v>Quality-Qualified Lead Supression_2024 + Account list not mapped</v>
       </c>
       <c r="U47" t="str">
-        <v>roche.com</v>
+        <v>zurich.de</v>
       </c>
       <c r="V47" t="str">
-        <v>Biotechnology Research</v>
+        <v>Insurance</v>
       </c>
       <c r="W47" t="str">
-        <v>Healthcare, Pharmaceuticals, &amp; Biotech</v>
+        <v>Insurance</v>
       </c>
       <c r="X47" t="str">
-        <v>https://www.linkedin.com/company/roche/?originalSubdomain=in</v>
+        <v>https://www.linkedin.com/company/zurich-insurance-company-ltd/about/</v>
       </c>
       <c r="Y47" t="str">
         <v>10,001+ employees</v>
       </c>
       <c r="Z47" t="str">
-        <v>https://www.linkedin.com/company/roche/?originalSubdomain=in</v>
+        <v>https://www.linkedin.com/company/zurich-insurance-company-ltd/about/</v>
       </c>
       <c r="AA47" t="str">
-        <v>-</v>
+        <v>1.8M</v>
       </c>
       <c r="AB47" t="str">
-        <v>-</v>
+        <v>https://www.apollo.io/companies/Zurich-Insurance/6023710bcb191b008c1d290f</v>
       </c>
       <c r="AC47" t="str">
-        <v>CDQALITE_Data</v>
+        <v>Data Scraping</v>
       </c>
       <c r="AD47" t="str">
-        <v>WeiYaoRoc</v>
+        <v>JenBecZur</v>
       </c>
       <c r="AE47" t="str">
-        <v>WeiYaoRoch</v>
+        <v>JensBeckZuri</v>
       </c>
       <c r="AF47" s="1">
-        <v>44958.00011574074</v>
+        <v>45401.00011574074</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1877426</v>
+        <v>4915040</v>
       </c>
       <c r="B48" t="str">
-        <v>Matthew</v>
+        <v>Kim</v>
       </c>
       <c r="C48" t="str">
-        <v>Stetz</v>
+        <v>Listmann</v>
       </c>
       <c r="D48" t="str">
-        <v>GSK</v>
+        <v>Bender GmbH &amp; Co. KG</v>
       </c>
       <c r="E48" t="str">
-        <v>matthew.a.stetz@gsk.com</v>
+        <v>kim.listmann@bender.de</v>
       </c>
       <c r="F48" t="str">
         <v>deliverable</v>
       </c>
       <c r="G48" t="str">
-        <v>Data Scientist</v>
+        <v>Chief Technology Officer</v>
       </c>
       <c r="H48" t="str">
-        <v>Individual Contributor</v>
+        <v>C - level</v>
       </c>
       <c r="I48" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J48" t="str">
-        <v>2157511300</v>
+        <v>4964018070</v>
       </c>
       <c r="K48" t="str">
         <v>-</v>
       </c>
       <c r="L48" t="str">
-        <v>1 Benjamin Franklin Pkwy</v>
+        <v>Londorfer Str. 65</v>
       </c>
       <c r="M48" t="str">
         <v>-</v>
       </c>
       <c r="N48" t="str">
-        <v>Philadelphia</v>
+        <v>Grünberg</v>
       </c>
       <c r="O48" t="str">
-        <v>Pennsylvania</v>
+        <v>Hesse</v>
       </c>
       <c r="P48" t="str">
-        <v>19103</v>
+        <v>35305</v>
       </c>
       <c r="Q48" t="str">
-        <v>United States</v>
+        <v>Germany</v>
       </c>
       <c r="R48" t="str">
-        <v>https://www.linkedin.com/in/mattstetz/</v>
+        <v>https://www.linkedin.com/in/kim-listmann/</v>
       </c>
       <c r="S48" t="str">
         <v>Disqualified</v>
       </c>
       <c r="T48" t="str">
-        <v>Incorrect Email updated</v>
+        <v>Prospect Is No Longer With The Company</v>
       </c>
       <c r="U48" t="str">
-        <v>gsk.com</v>
+        <v>bender.de</v>
       </c>
       <c r="V48" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Appliances Electrical and Electronics Manufacturing</v>
       </c>
       <c r="W48" t="str">
-        <v>Manufacturing</v>
+        <v>Appliances Electrical and Electronics Manufacturing</v>
       </c>
       <c r="X48" t="str">
-        <v>https://www.linkedin.com/company/gsk/about/</v>
+        <v>https://www.linkedin.com/company/bender-electricalsafety/?originalSubdomain=de</v>
       </c>
       <c r="Y48" t="str">
-        <v>10,001+ employees</v>
+        <v>1,001-5,000 employees</v>
       </c>
       <c r="Z48" t="str">
-        <v>https://www.linkedin.com/company/gsk/about/</v>
+        <v>https://www.linkedin.com/company/bender-electricalsafety/?originalSubdomain=de</v>
       </c>
       <c r="AA48" t="str">
-        <v>&lt;$5 Million</v>
+        <v>-</v>
       </c>
       <c r="AB48" t="str">
-        <v>https://www.zoominfo.com/c/gsk-llp/358222183</v>
+        <v>-</v>
       </c>
       <c r="AC48" t="str">
-        <v>BCL_IH</v>
+        <v>Data Scraping</v>
       </c>
       <c r="AD48" t="str">
-        <v>MatSteGSK</v>
+        <v>KimLisBen</v>
       </c>
       <c r="AE48" t="str">
-        <v>MattStetGSK</v>
+        <v>KimListBend</v>
       </c>
       <c r="AF48" s="1">
-        <v>45349.00011574074</v>
+        <v>45400.00011574074</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1962982</v>
+        <v>4926722</v>
       </c>
       <c r="B49" t="str">
-        <v>Mary</v>
+        <v>Santiago</v>
       </c>
       <c r="C49" t="str">
-        <v>Saddler</v>
+        <v>Franco</v>
       </c>
       <c r="D49" t="str">
-        <v>Novartis</v>
+        <v>Amadeus</v>
       </c>
       <c r="E49" t="str">
-        <v>mary_pat.saddler@novartis.com</v>
+        <v>santiago.franco@amadeus.com</v>
       </c>
       <c r="F49" t="str">
-        <v>risky</v>
+        <v>deliverable</v>
       </c>
       <c r="G49" t="str">
-        <v>VP &amp; Divisional CIO, Sandoz</v>
+        <v>Global CIO</v>
       </c>
       <c r="H49" t="str">
-        <v>C Level</v>
+        <v>C-Level</v>
       </c>
       <c r="I49" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J49" t="str">
-        <v>4848881182</v>
+        <v>34913298683</v>
       </c>
       <c r="K49" t="str">
         <v>-</v>
       </c>
       <c r="L49" t="str">
-        <v>250 Massachusetts Ave</v>
+        <v>C. de la Ribera del Loira, 3, 6</v>
       </c>
       <c r="M49" t="str">
         <v>-</v>
       </c>
       <c r="N49" t="str">
-        <v>Cambridge</v>
+        <v>Barajas</v>
       </c>
       <c r="O49" t="str">
-        <v>Massachusetts</v>
+        <v>Madrid</v>
       </c>
       <c r="P49" t="str">
-        <v>2139</v>
+        <v>28042</v>
       </c>
       <c r="Q49" t="str">
-        <v>United States</v>
+        <v>Spain</v>
       </c>
       <c r="R49" t="str">
-        <v>https://www.linkedin.com/in/mary-pat-saddler/</v>
+        <v>https://www.linkedin.com/in/santiago-franco-65014311/</v>
       </c>
       <c r="S49" t="str">
         <v>Disqualified</v>
       </c>
       <c r="T49" t="str">
-        <v>Invalid Email</v>
+        <v>All Client Collated Supp - 6 Months + Quality-Qualified Lead Supression_2024</v>
       </c>
       <c r="U49" t="str">
-        <v>novartis.com</v>
+        <v>amadeus.com</v>
       </c>
       <c r="V49" t="str">
-        <v>Healthcare, Pharmaceuticals, &amp; Biotech</v>
+        <v>IT Services and IT Consulting</v>
       </c>
       <c r="W49" t="str">
-        <v>Healthcare, Pharmaceuticals, &amp; Biotech</v>
+        <v>IT Services and IT Consulting</v>
       </c>
       <c r="X49" t="str">
-        <v>https://www.linkedin.com/company/novartis/about/</v>
+        <v>https://www.linkedin.com/company/amadeus/about/</v>
       </c>
       <c r="Y49" t="str">
         <v>10,001+ employees</v>
       </c>
       <c r="Z49" t="str">
-        <v>https://www.linkedin.com/company/novartis/about/</v>
+        <v>https://www.linkedin.com/company/amadeus/about/</v>
       </c>
       <c r="AA49" t="str">
-        <v>-</v>
+        <v>5.9B</v>
       </c>
       <c r="AB49" t="str">
-        <v>-</v>
+        <v>https://www.apollo.io/companies/Amadeus/6181ad066e7d9900a4711c56</v>
       </c>
       <c r="AC49" t="str">
-        <v>Rpc Voicemail</v>
+        <v>Data Scraping</v>
       </c>
       <c r="AD49" t="str">
-        <v>MarSadNov</v>
+        <v>SanFraAma</v>
       </c>
       <c r="AE49" t="str">
-        <v>MarySaddNova</v>
+        <v>SantFranAmad</v>
       </c>
       <c r="AF49" s="1">
-        <v>45420.00011574074</v>
+        <v>45401.00011574074</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>4642661</v>
+        <v>1928790</v>
       </c>
       <c r="B50" t="str">
-        <v>Donald</v>
+        <v>Derek</v>
       </c>
       <c r="C50" t="str">
-        <v>Ogisi</v>
+        <v>White</v>
       </c>
       <c r="D50" t="str">
-        <v>Boehringer Ingelheim</v>
+        <v>SmithGroup</v>
       </c>
       <c r="E50" t="str">
-        <v>donald.ogisi@boehringer-ingelheim.com</v>
+        <v>derek.white@smithgroup.com</v>
       </c>
       <c r="F50" t="str">
         <v>deliverable</v>
       </c>
       <c r="G50" t="str">
-        <v>Director, Head of IT MDM Products - Customer Engagement</v>
+        <v>CIO</v>
       </c>
       <c r="H50" t="str">
-        <v>Director</v>
+        <v>C Level</v>
       </c>
       <c r="I50" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J50" t="str">
-        <v>9056390333</v>
+        <v>7346692770</v>
       </c>
       <c r="K50" t="str">
         <v>-</v>
       </c>
       <c r="L50" t="str">
-        <v>5180 S Service Rd</v>
+        <v>201 Depot St #100</v>
       </c>
       <c r="M50" t="str">
         <v>-</v>
       </c>
       <c r="N50" t="str">
-        <v>Burlington</v>
+        <v>Ann Arbor</v>
       </c>
       <c r="O50" t="str">
-        <v>Ontario</v>
+        <v>Michigan</v>
       </c>
       <c r="P50" t="str">
-        <v>L7L 5Y7</v>
+        <v>48104</v>
       </c>
       <c r="Q50" t="str">
-        <v>Canada</v>
+        <v>United States</v>
       </c>
       <c r="R50" t="str">
-        <v>https://www.linkedin.com/in/donaldogisi/</v>
+        <v>https://www.linkedin.com/in/derekjwhite/</v>
       </c>
       <c r="S50" t="str">
         <v>Disqualified</v>
       </c>
       <c r="T50" t="str">
-        <v>Invalid_Disposition</v>
+        <v>Attached Suppression - SUPP_SuppressionlistQ224_4929_040924_240411051656</v>
       </c>
       <c r="U50" t="str">
-        <v>boehringer-ingelheim.com</v>
+        <v>smithgroup.com</v>
       </c>
       <c r="V50" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Architecture and Planning</v>
       </c>
       <c r="W50" t="str">
-        <v>Manufacturing</v>
+        <v>Architecture and Planning</v>
       </c>
       <c r="X50" t="str">
-        <v>https://www.linkedin.com/company/boehringer-ingelheim/</v>
+        <v>https://www.linkedin.com/company/smithgroup/about/</v>
       </c>
       <c r="Y50" t="str">
-        <v>10,001+ employees</v>
+        <v>1,001-5,000 employees</v>
       </c>
       <c r="Z50" t="str">
-        <v>https://www.linkedin.com/company/boehringer-ingelheim/</v>
+        <v>https://www.linkedin.com/company/smithgroup/about/</v>
       </c>
       <c r="AA50" t="str">
-        <v>$22 Billion</v>
+        <v>200 Million to 500 Million</v>
       </c>
       <c r="AB50" t="str">
-        <v>https://webcache.googleusercontent.com/search?q=cache:358t9x0r7msJ:https://www.zoominfo.com/c/boehringer-ingelheim-international-gmbh/15896733+&amp;cd=1&amp;hl=en&amp;ct=clnk&amp;gl=in</v>
+        <v>https://cc.bingj.com/cache.aspx?q=smithgroup.com+zoominfo&amp;d=4782038448931342&amp;mkt=en-IN&amp;setlang=en-US&amp;w=Lz5aVYSJctB-npmvqMb_hm3dOUKO3Hfy</v>
       </c>
       <c r="AC50" t="str">
-        <v>Data Scraping</v>
+        <v>Rpc Voicemail</v>
       </c>
       <c r="AD50" t="str">
-        <v>DonOgiBoe</v>
+        <v>DerWhiSmi</v>
       </c>
       <c r="AE50" t="str">
-        <v>DonaOgisBoeh</v>
+        <v>DereWhitSmit</v>
       </c>
       <c r="AF50" s="1">
-        <v>45195.00011574074</v>
+        <v>45401.00011574074</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>280627</v>
+        <v>1928931</v>
       </c>
       <c r="B51" t="str">
-        <v>Domenico</v>
+        <v>David</v>
       </c>
       <c r="C51" t="str">
-        <v>Rizzi</v>
+        <v>Smith</v>
       </c>
       <c r="D51" t="str">
-        <v>Roche</v>
+        <v>Goodwill Industries of Sacramento Valley &amp; Northern Nevada, Inc.</v>
       </c>
       <c r="E51" t="str">
-        <v>domenico.rizzi@roche.com</v>
+        <v>davids@goodwillsacto.org</v>
       </c>
       <c r="F51" t="str">
-        <v>deliverable</v>
+        <v>invalid</v>
       </c>
       <c r="G51" t="str">
-        <v>Head of IT Roche Diabetes Care (CIO - RDC)</v>
+        <v>Chief Technology Officer</v>
       </c>
       <c r="H51" t="str">
         <v>C Level</v>
       </c>
       <c r="I51" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J51" t="str">
-        <v>14047289482</v>
+        <v>7022142000</v>
       </c>
       <c r="K51" t="str">
         <v>-</v>
       </c>
       <c r="L51" t="str">
-        <v>Cnn Center 12th Floor North Tower 1</v>
+        <v>250 Pilot Rd Ste 140</v>
       </c>
       <c r="M51" t="str">
         <v>-</v>
       </c>
       <c r="N51" t="str">
-        <v>Atlanta</v>
+        <v>Las Vegas</v>
       </c>
       <c r="O51" t="str">
-        <v>Georgia</v>
+        <v>Nevada</v>
       </c>
       <c r="P51" t="str">
-        <v>30303</v>
+        <v>89119</v>
       </c>
       <c r="Q51" t="str">
         <v>United States</v>
       </c>
       <c r="R51" t="str">
-        <v>https://www.linkedin.com/in/devora-olin-b5956913</v>
+        <v>https://www.linkedin.com/in/davesmithinc/</v>
       </c>
       <c r="S51" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T51" t="str">
-        <v>-</v>
+        <v>Email bounce back</v>
       </c>
       <c r="U51" t="str">
-        <v>roche.com</v>
+        <v>goodwillsacto.org</v>
       </c>
       <c r="V51" t="str">
-        <v>Biotechnology Research</v>
+        <v>Non-profit Organizations</v>
       </c>
       <c r="W51" t="str">
-        <v>Healthcare, Pharmaceuticals, &amp; Biotech</v>
+        <v>Non-profit Organizations</v>
       </c>
       <c r="X51" t="str">
-        <v>https://www.linkedin.com/company/roche/about/</v>
+        <v>https://www.linkedin.com/company/goodwill-industries-of-sacramento-valley-&amp;-northern-nevada-inc-/about/</v>
       </c>
       <c r="Y51" t="str">
-        <v>10,001+ employees</v>
+        <v>1,001-5,000 employees</v>
       </c>
       <c r="Z51" t="str">
-        <v>https://www.linkedin.com/company/roche/about/</v>
+        <v>https://www.linkedin.com/company/goodwill-industries-of-sacramento-valley-&amp;-northern-nevada-inc-/about/</v>
       </c>
       <c r="AA51" t="str">
-        <v>-</v>
+        <v>$84.3 Million</v>
       </c>
       <c r="AB51" t="str">
-        <v>-</v>
+        <v>https://www.zoominfo.com/c/goodwill-of-southern-nevada-inc/50008434</v>
       </c>
       <c r="AC51" t="str">
-        <v>BCL</v>
+        <v>BCL_IH</v>
       </c>
       <c r="AD51" t="str">
-        <v>DomRizRoc</v>
+        <v>DavSmiGoo</v>
       </c>
       <c r="AE51" t="str">
-        <v>DomeRizzRoch</v>
+        <v>DaviSmitGood</v>
       </c>
       <c r="AF51" s="1">
-        <v>44958.00011574074</v>
+        <v>45401.00011574074</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>280653</v>
+        <v>1929176</v>
       </c>
       <c r="B52" t="str">
-        <v>Myles</v>
+        <v>Jeff</v>
       </c>
       <c r="C52" t="str">
-        <v>Mao</v>
+        <v>Turpin</v>
       </c>
       <c r="D52" t="str">
-        <v>Roche</v>
+        <v>Gainwell Technologies</v>
       </c>
       <c r="E52" t="str">
-        <v>myles.mao@roche.com</v>
+        <v>jeff.turpin@gainwelltechnologies.com</v>
       </c>
       <c r="F52" t="str">
-        <v>deliverable</v>
+        <v>invalid</v>
       </c>
       <c r="G52" t="str">
-        <v>Senior Data Scientist</v>
+        <v>Chief Technology Officer, Product</v>
       </c>
       <c r="H52" t="str">
-        <v>Individual Contributor</v>
+        <v>C Level</v>
       </c>
       <c r="I52" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J52" t="str">
-        <v>16502251000</v>
+        <v>4802296747</v>
       </c>
       <c r="K52" t="str">
         <v>-</v>
       </c>
       <c r="L52" t="str">
-        <v>Investor Relations North America1 DNA Way</v>
+        <v>313 Blettner Blvd</v>
       </c>
       <c r="M52" t="str">
         <v>-</v>
       </c>
       <c r="N52" t="str">
-        <v>South San Francisco</v>
+        <v>Madison</v>
       </c>
       <c r="O52" t="str">
-        <v>California</v>
+        <v>Wisconsin</v>
       </c>
       <c r="P52" t="str">
-        <v>94080</v>
+        <v>53714</v>
       </c>
       <c r="Q52" t="str">
         <v>United States</v>
       </c>
       <c r="R52" t="str">
-        <v>https://www.linkedin.com/in/mylesmao</v>
+        <v>https://www.linkedin.com/in/jeff-turpin-51aa08/</v>
       </c>
       <c r="S52" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T52" t="str">
-        <v>-</v>
+        <v>Email bounce back</v>
       </c>
       <c r="U52" t="str">
-        <v>roche.com</v>
+        <v>gainwelltechnologies.com</v>
       </c>
       <c r="V52" t="str">
-        <v>Biotechnology Research</v>
+        <v>Information Technology</v>
       </c>
       <c r="W52" t="str">
-        <v>Healthcare, Pharmaceuticals, &amp; Biotech</v>
+        <v>Information Technology</v>
       </c>
       <c r="X52" t="str">
-        <v>https://www.linkedin.com/company/roche/?originalSubdomain=in</v>
+        <v>https://www.linkedin.com/company/gainwell-technologies/about/</v>
       </c>
       <c r="Y52" t="str">
         <v>10,001+ employees</v>
       </c>
       <c r="Z52" t="str">
-        <v>https://www.linkedin.com/company/roche/?originalSubdomain=in</v>
+        <v>https://www.linkedin.com/company/gainwell-technologies/about/</v>
       </c>
       <c r="AA52" t="str">
-        <v>-</v>
+        <v>$2.1 Billion</v>
       </c>
       <c r="AB52" t="str">
-        <v>-</v>
+        <v>https://www.zoominfo.com/c/gainwell-technologies/513324486</v>
       </c>
       <c r="AC52" t="str">
-        <v>CDQA_Scrapping</v>
+        <v>BCL_IH</v>
       </c>
       <c r="AD52" t="str">
-        <v>MylMaoRoc</v>
+        <v>JefTurGai</v>
       </c>
       <c r="AE52" t="str">
-        <v>MyleMaoRoch</v>
+        <v>JeffTurpGain</v>
       </c>
       <c r="AF52" s="1">
-        <v>44958.00011574074</v>
+        <v>45401.00011574074</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>280660</v>
+        <v>1929216</v>
       </c>
       <c r="B53" t="str">
-        <v>Marty</v>
+        <v>Patrick</v>
       </c>
       <c r="C53" t="str">
-        <v>Brouard</v>
+        <v>Reidy</v>
       </c>
       <c r="D53" t="str">
-        <v>Roche</v>
+        <v>GE Aerospace</v>
       </c>
       <c r="E53" t="str">
-        <v>marty.brouard@roche.com</v>
+        <v>patrick.reidy@geaviation.com</v>
       </c>
       <c r="F53" t="str">
-        <v>deliverable</v>
+        <v>invalid</v>
       </c>
       <c r="G53" t="str">
-        <v>Head of IT Engineering</v>
+        <v>Chief Information Security Officer</v>
       </c>
       <c r="H53" t="str">
-        <v>Director</v>
+        <v>C Level</v>
       </c>
       <c r="I53" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J53" t="str">
-        <v>13175212000</v>
+        <v>9378989600</v>
       </c>
       <c r="K53" t="str">
         <v>-</v>
       </c>
       <c r="L53" t="str">
-        <v>9115 Hague Rd, Indianapolis,</v>
+        <v>1 Neumann Way</v>
       </c>
       <c r="M53" t="str">
         <v>-</v>
       </c>
       <c r="N53" t="str">
-        <v>Indianapolis</v>
+        <v>Cincinnati</v>
       </c>
       <c r="O53" t="str">
-        <v>Indiana</v>
+        <v>Ohio</v>
       </c>
       <c r="P53" t="str">
-        <v>46256</v>
+        <v>45215</v>
       </c>
       <c r="Q53" t="str">
         <v>United States</v>
       </c>
       <c r="R53" t="str">
-        <v>https://www.linkedin.com/in/marty-brouard-9b84b5140</v>
+        <v>https://www.linkedin.com/in/patrick-reidy-6b59b030/</v>
       </c>
       <c r="S53" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T53" t="str">
-        <v>-</v>
+        <v>Email bounce back</v>
       </c>
       <c r="U53" t="str">
-        <v>roche.com</v>
+        <v>geaviation.com</v>
       </c>
       <c r="V53" t="str">
-        <v>Biotechnology Research</v>
+        <v>Financial Services</v>
       </c>
       <c r="W53" t="str">
-        <v>Healthcare, Pharmaceuticals, &amp; Biotech</v>
+        <v>Financial Services</v>
       </c>
       <c r="X53" t="str">
-        <v>https://www.linkedin.com/company/roche/?originalSubdomain=in</v>
+        <v>https://www.linkedin.com/company/deutscheboerse/about/</v>
       </c>
       <c r="Y53" t="str">
         <v>10,001+ employees</v>
       </c>
       <c r="Z53" t="str">
-        <v>https://www.linkedin.com/company/roche/?originalSubdomain=in</v>
+        <v>https://www.linkedin.com/company/deutscheboerse/about/</v>
       </c>
       <c r="AA53" t="str">
-        <v>-</v>
+        <v>$4.8 Billion</v>
       </c>
       <c r="AB53" t="str">
-        <v>-</v>
+        <v>https://www.google.com/search?q=deutsche+b%C3%B6rse+germany+%2B+revenue&amp;rlz=1C1GCEU_enIN1060IN1060&amp;sxsrf=APwXEdccy7AAsH308iIRi3KD9VoCSpTIw%3A1688147989742&amp;ei=FRifZI_8LIXiAbgiqfICg&amp;oq=deutsche+b%C3%B6rse+germany+%2B+reve&amp;gs_lcp=Cgxnd3Mtd2l6LXNlcnAQARgAMgUI</v>
       </c>
       <c r="AC53" t="str">
-        <v>CDQA_Scrapping</v>
+        <v>BCL_IH</v>
       </c>
       <c r="AD53" t="str">
-        <v>MarBroRoc</v>
+        <v>PatReiGE</v>
       </c>
       <c r="AE53" t="str">
-        <v>MartBrouRoch</v>
+        <v>PatrReidGE A</v>
       </c>
       <c r="AF53" s="1">
-        <v>44958.00011574074</v>
+        <v>45401.00011574074</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>542166</v>
+        <v>1929495</v>
       </c>
       <c r="B54" t="str">
-        <v>David</v>
+        <v>Britt</v>
       </c>
       <c r="C54" t="str">
-        <v>Pinto</v>
+        <v>Lindley</v>
       </c>
       <c r="D54" t="str">
-        <v>Boehringer Ingelheim</v>
+        <v>Trustmark</v>
       </c>
       <c r="E54" t="str">
-        <v>david.pinto@boehringer-ingelheim.com</v>
+        <v>blindley@trustmarkbenefits.com</v>
       </c>
       <c r="F54" t="str">
-        <v>catch-all</v>
+        <v>deliverable</v>
       </c>
       <c r="G54" t="str">
-        <v>Head of IT Operations and Lab Integration</v>
+        <v>Vice President, Chief Information Security Officer</v>
       </c>
       <c r="H54" t="str">
-        <v>Director</v>
+        <v>C Level</v>
       </c>
       <c r="I54" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J54" t="str">
-        <v>2037989988</v>
+        <v>8476151500</v>
       </c>
       <c r="K54" t="str">
         <v>-</v>
       </c>
       <c r="L54" t="str">
-        <v>900 Ridgebury Rd</v>
+        <v>400 N Field Dr</v>
       </c>
       <c r="M54" t="str">
         <v>-</v>
       </c>
       <c r="N54" t="str">
-        <v>Ridgefield</v>
+        <v>Lake Forest</v>
       </c>
       <c r="O54" t="str">
-        <v>Connecticut</v>
+        <v>Illinois</v>
       </c>
       <c r="P54" t="str">
-        <v>6877</v>
+        <v>60045</v>
       </c>
       <c r="Q54" t="str">
         <v>United States</v>
       </c>
       <c r="R54" t="str">
-        <v>https://www.linkedin.com/in/david-pinto-2817341/</v>
+        <v>https://www.linkedin.com/in/britt-lindley-229aa8/</v>
       </c>
       <c r="S54" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T54" t="str">
-        <v>-</v>
+        <v>FY24Q3SuppressionList-20240308T202253Z_240308122515 Matched</v>
       </c>
       <c r="U54" t="str">
-        <v>boehringer-ingelheim.com</v>
+        <v>trustmarkbenefits.com</v>
       </c>
       <c r="V54" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Healthcare, Pharmaceuticals, &amp; Biotech</v>
       </c>
       <c r="W54" t="str">
-        <v>Manufacturing</v>
+        <v>Healthcare, Pharmaceuticals, &amp; Biotech</v>
       </c>
       <c r="X54" t="str">
-        <v>https://www.linkedin.com/company/boehringer-ingelheim/about/</v>
+        <v>https://www.linkedin.com/company/trustmark-benefits/about/</v>
       </c>
       <c r="Y54" t="str">
-        <v>10,001+ employees</v>
+        <v>1,001-5,000 employees</v>
       </c>
       <c r="Z54" t="str">
-        <v>https://www.linkedin.com/company/boehringer-ingelheim/about/</v>
+        <v>https://www.linkedin.com/company/trustmark-benefits/about/</v>
       </c>
       <c r="AA54" t="str">
-        <v>$22 Billion</v>
+        <v>$941.9 Million</v>
       </c>
       <c r="AB54" t="str">
-        <v>https://webcache.googleusercontent.com/searchq=cache:358t9x0r7msJ:https://www.zoominfo.com/c/boehringer-ingelheim-international-gmbh/15896733+&amp;cd=1&amp;hl=en&amp;ct=clnk&amp;gl=in</v>
+        <v>https://www.google.com/search?q=trustmarkbenefits.com%0D%0A%0D%0A%0D%0A%0D%0A%0D%0A%0D%0A%0D%0A%0D%0A+revenue&amp;sca_esv=09df9e42e4754873&amp;sca_upv=1&amp;rlz=1C1RXQR_enIN1106IN1106&amp;ei=qEghZvJEr6TT6Q-ImKPoDw&amp;ved=0ahUKEwjyuJb3lcyFAxUv0jQHHQjMCP0Q4dUDCBA&amp;uact=5&amp;oq=trustmarkbenefits.com%0D%0A%0D%0A%0D%0A%0D%0A%0D%0A%0D%0A%0D%0A%0D%0A+revenue&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiJXRydXN0bWFya2JlbmVmaXRzLmNvbQoKCgoKCgoKIHJldmVudWVIAFAAWABwAHgBkAEAmAEAoAEAqgEAuAEDyAEA-AEC-AEBmAIAoAIAmAMAkgcAoAcA&amp;sclient=gws-wiz-serp#:~:text=Trustmark%20%2D%20Overview%2C%20News,Trustmark%27s%20SIC%20code%3F</v>
       </c>
       <c r="AC54" t="str">
-        <v>BCL_IH</v>
+        <v>Rpc Voicemail</v>
       </c>
       <c r="AD54" t="str">
-        <v>DavPinBoe</v>
+        <v>BriLinTru</v>
       </c>
       <c r="AE54" t="str">
-        <v>DaviPintBoeh</v>
+        <v>BritLindTrus</v>
       </c>
       <c r="AF54" s="1">
-        <v>45244.00011574074</v>
+        <v>45400.00011574074</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>928399</v>
+        <v>1929511</v>
       </c>
       <c r="B55" t="str">
-        <v>Wendy</v>
+        <v>Adrian</v>
       </c>
       <c r="C55" t="str">
-        <v>Mannon</v>
+        <v>Stone</v>
       </c>
       <c r="D55" t="str">
-        <v>Merck</v>
+        <v>Moderna</v>
       </c>
       <c r="E55" t="str">
-        <v>wendy_mannon@merck.com</v>
+        <v>adrian.stone@modernatx.com</v>
       </c>
       <c r="F55" t="str">
         <v>deliverable</v>
       </c>
       <c r="G55" t="str">
-        <v>Executive Director - IT Strategy and Operations - AH Office of the CIO Leader</v>
+        <v>Chief Information Security Officer, SVP</v>
       </c>
       <c r="H55" t="str">
-        <v>C Level</v>
+        <v>C level</v>
       </c>
       <c r="I55" t="str">
-        <v>IT</v>
+        <v>Information Technology</v>
       </c>
       <c r="J55" t="str">
-        <v>2156525000</v>
+        <v>4257539513</v>
       </c>
       <c r="K55" t="str">
         <v>-</v>
       </c>
       <c r="L55" t="str">
-        <v>770 Sumneytown Pike # WP39-134</v>
+        <v>325 Binney St</v>
       </c>
       <c r="M55" t="str">
         <v>-</v>
       </c>
       <c r="N55" t="str">
-        <v>West Point</v>
+        <v>Cambridge</v>
       </c>
       <c r="O55" t="str">
-        <v>Pennsylvania</v>
+        <v>Massachusetts</v>
       </c>
       <c r="P55" t="str">
-        <v>19486</v>
+        <v>2142</v>
       </c>
       <c r="Q55" t="str">
         <v>United States</v>
       </c>
       <c r="R55" t="str">
-        <v>https://www.linkedin.com/in/wendy-mannon-08517679/</v>
+        <v>https://www.linkedin.com/in/stoneadrian/</v>
       </c>
       <c r="S55" t="str">
-        <v>Qualified</v>
+        <v>Disqualified</v>
       </c>
       <c r="T55" t="str">
-        <v>-</v>
+        <v>Prospect Details Not Verified In Call</v>
       </c>
       <c r="U55" t="str">
-        <v>merck.com</v>
+        <v>modernatx.com</v>
       </c>
       <c r="V55" t="str">
-        <v>Pharmaceutical Manufacturing</v>
+        <v>Healthcare, Pharmaceuticals, &amp; Biotech</v>
       </c>
       <c r="W55" t="str">
-        <v>Manufacturing</v>
+        <v>Healthcare, Pharmaceuticals, &amp; Biotech</v>
       </c>
       <c r="X55" t="str">
-        <v>https://www.linkedin.com/company/merck/about/</v>
+        <v>https://www.linkedin.com/company/modernatx/about/</v>
       </c>
       <c r="Y55" t="str">
-        <v>10,001+ employees</v>
+        <v>1,001-5,000 employees</v>
       </c>
       <c r="Z55" t="str">
-        <v>https://www.linkedin.com/company/merck/about/</v>
+        <v>https://www.linkedin.com/company/modernatx/about/</v>
       </c>
       <c r="AA55" t="str">
-        <v>$59.3 Billion</v>
+        <v>1 Billion and above</v>
       </c>
       <c r="AB55" t="str">
-        <v>https://www.google.com/search?q=Merck+Revenue+Zoominfo&amp;rlz=1C1ONGR_enIN1098IN1098&amp;oq=Merck+Revenue+Zoominfo&amp;gs_lcrp=EgZjaHJvbWUyBggAEEUYOdIBBzI2OWowajmoAgCwAgA&amp;sourceid=chrome&amp;ie=UTF-8#:~:text=Merck%27s%20revenue%20is-,%2459.3%20Billion,-What%20is%20Merck%27s</v>
+        <v>https://www.datanyze.com/companies/moderna/355888866</v>
       </c>
       <c r="AC55" t="str">
-        <v>BCL_DS</v>
+        <v>Rpc Voicemail</v>
       </c>
       <c r="AD55" t="str">
-        <v>WenManMer</v>
+        <v>AdrStoMod</v>
       </c>
       <c r="AE55" t="str">
-        <v>WendMannMerc</v>
+        <v>AdriStonMode</v>
       </c>
       <c r="AF55" s="1">
-        <v>45355.00011574074</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56">
-        <v>1098189</v>
-      </c>
-      <c r="B56" t="str">
-        <v>Veena</v>
-      </c>
-      <c r="C56" t="str">
-        <v>Kaustaban</v>
-      </c>
-      <c r="D56" t="str">
-        <v>Roche</v>
-      </c>
-      <c r="E56" t="str">
-        <v>veena.kaustaban@roche.com</v>
-      </c>
-      <c r="F56" t="str">
-        <v>-</v>
-      </c>
-      <c r="G56" t="str">
-        <v>Principal Data Scientist</v>
-      </c>
-      <c r="H56" t="str">
-        <v>Individual Contributor</v>
-      </c>
-      <c r="I56" t="str">
-        <v>IT</v>
-      </c>
-      <c r="J56" t="str">
-        <v>1 625-225-1000</v>
-      </c>
-      <c r="K56" t="str">
-        <v>-</v>
-      </c>
-      <c r="L56" t="str">
-        <v>1 Dna Way</v>
-      </c>
-      <c r="M56" t="str">
-        <v>-</v>
-      </c>
-      <c r="N56" t="str">
-        <v>South San Francisco</v>
-      </c>
-      <c r="O56" t="str">
-        <v>California</v>
-      </c>
-      <c r="P56" t="str">
-        <v>94080</v>
-      </c>
-      <c r="Q56" t="str">
-        <v>United States</v>
-      </c>
-      <c r="R56" t="str">
-        <v>https://www.linkedin.com/in/veena-kaustaban/</v>
-      </c>
-      <c r="S56" t="str">
-        <v>-</v>
-      </c>
-      <c r="T56" t="str">
-        <v>-</v>
-      </c>
-      <c r="U56" t="str">
-        <v>roche.com</v>
-      </c>
-      <c r="V56" t="str">
-        <v>Biotechnology Research</v>
-      </c>
-      <c r="W56" t="str">
-        <v>Healthcare, Pharmaceuticals, &amp; Biotech</v>
-      </c>
-      <c r="X56" t="str">
-        <v>https://www.linkedin.com/company/roche/?originalSubdomain=in</v>
-      </c>
-      <c r="Y56" t="str">
-        <v>10,001+ employees</v>
-      </c>
-      <c r="Z56" t="str">
-        <v>https://www.linkedin.com/company/roche/?originalSubdomain=in</v>
-      </c>
-      <c r="AA56" t="str">
-        <v>-</v>
-      </c>
-      <c r="AB56" t="str">
-        <v>-</v>
-      </c>
-      <c r="AC56" t="str">
-        <v>-</v>
-      </c>
-      <c r="AD56" t="str">
-        <v>VeeKauRoc</v>
-      </c>
-      <c r="AE56" t="str">
-        <v>VeenKausRoch</v>
-      </c>
-      <c r="AF56" s="1">
-        <v>44958.00011574074</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57">
-        <v>1098228</v>
-      </c>
-      <c r="B57" t="str">
-        <v>Matthew</v>
-      </c>
-      <c r="C57" t="str">
-        <v>Snoke</v>
-      </c>
-      <c r="D57" t="str">
-        <v>Roche</v>
-      </c>
-      <c r="E57" t="str">
-        <v>matthew.snoke@roche.com</v>
-      </c>
-      <c r="F57" t="str">
-        <v>valid</v>
-      </c>
-      <c r="G57" t="str">
-        <v>Senior Data Scientist</v>
-      </c>
-      <c r="H57" t="str">
-        <v>Individual Contributor</v>
-      </c>
-      <c r="I57" t="str">
-        <v>IT</v>
-      </c>
-      <c r="J57" t="str">
-        <v>16252251000</v>
-      </c>
-      <c r="K57" t="str">
-        <v>-</v>
-      </c>
-      <c r="L57" t="str">
-        <v>1 Dna Way</v>
-      </c>
-      <c r="M57" t="str">
-        <v>-</v>
-      </c>
-      <c r="N57" t="str">
-        <v>CA</v>
-      </c>
-      <c r="O57" t="str">
-        <v>California</v>
-      </c>
-      <c r="P57" t="str">
-        <v>94080</v>
-      </c>
-      <c r="Q57" t="str">
-        <v>United States</v>
-      </c>
-      <c r="R57" t="str">
-        <v>https://www.linkedin.com/in/matthew-snoke-2792a480/</v>
-      </c>
-      <c r="S57" t="str">
-        <v>Disqualified</v>
-      </c>
-      <c r="T57" t="str">
-        <v>Suppression_List_Match</v>
-      </c>
-      <c r="U57" t="str">
-        <v>roche.com</v>
-      </c>
-      <c r="V57" t="str">
-        <v>Biotechnology Research</v>
-      </c>
-      <c r="W57" t="str">
-        <v>Healthcare, Pharmaceuticals, &amp; Biotech</v>
-      </c>
-      <c r="X57" t="str">
-        <v>https://www.linkedin.com/company/roche/?originalSubdomain=in</v>
-      </c>
-      <c r="Y57" t="str">
-        <v>10,001+ employees</v>
-      </c>
-      <c r="Z57" t="str">
-        <v>https://www.linkedin.com/company/roche/?originalSubdomain=in</v>
-      </c>
-      <c r="AA57" t="str">
-        <v>-</v>
-      </c>
-      <c r="AB57" t="str">
-        <v>-</v>
-      </c>
-      <c r="AC57" t="str">
-        <v>BCL</v>
-      </c>
-      <c r="AD57" t="str">
-        <v>MatSnoRoc</v>
-      </c>
-      <c r="AE57" t="str">
-        <v>MattSnokRoch</v>
-      </c>
-      <c r="AF57" s="1">
-        <v>44958.00011574074</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58">
-        <v>1098229</v>
-      </c>
-      <c r="B58" t="str">
-        <v>Morteza</v>
-      </c>
-      <c r="C58" t="str">
-        <v>Waskasi</v>
-      </c>
-      <c r="D58" t="str">
-        <v>Roche</v>
-      </c>
-      <c r="E58" t="str">
-        <v>morteza.waskasi@roche.com</v>
-      </c>
-      <c r="F58" t="str">
-        <v>-</v>
-      </c>
-      <c r="G58" t="str">
-        <v>Senior Data Scientist</v>
-      </c>
-      <c r="H58" t="str">
-        <v>Individual Contributor</v>
-      </c>
-      <c r="I58" t="str">
-        <v>IT</v>
-      </c>
-      <c r="J58" t="str">
-        <v>1 625-225-1000</v>
-      </c>
-      <c r="K58" t="str">
-        <v>-</v>
-      </c>
-      <c r="L58" t="str">
-        <v>1 Dna Way</v>
-      </c>
-      <c r="M58" t="str">
-        <v>-</v>
-      </c>
-      <c r="N58" t="str">
-        <v>South San Francisco</v>
-      </c>
-      <c r="O58" t="str">
-        <v>California</v>
-      </c>
-      <c r="P58" t="str">
-        <v>94080</v>
-      </c>
-      <c r="Q58" t="str">
-        <v>United States</v>
-      </c>
-      <c r="R58" t="str">
-        <v>https://www.linkedin.com/in/morteza-m-waskasi-791828b5/</v>
-      </c>
-      <c r="S58" t="str">
-        <v>-</v>
-      </c>
-      <c r="T58" t="str">
-        <v>-</v>
-      </c>
-      <c r="U58" t="str">
-        <v>roche.com</v>
-      </c>
-      <c r="V58" t="str">
-        <v>Biotechnology Research</v>
-      </c>
-      <c r="W58" t="str">
-        <v>Healthcare, Pharmaceuticals, &amp; Biotech</v>
-      </c>
-      <c r="X58" t="str">
-        <v>https://www.linkedin.com/company/roche/?originalSubdomain=in</v>
-      </c>
-      <c r="Y58" t="str">
-        <v>10,001+ employees</v>
-      </c>
-      <c r="Z58" t="str">
-        <v>https://www.linkedin.com/company/roche/?originalSubdomain=in</v>
-      </c>
-      <c r="AA58" t="str">
-        <v>-</v>
-      </c>
-      <c r="AB58" t="str">
-        <v>-</v>
-      </c>
-      <c r="AC58" t="str">
-        <v>-</v>
-      </c>
-      <c r="AD58" t="str">
-        <v>MorWasRoc</v>
-      </c>
-      <c r="AE58" t="str">
-        <v>MortWaskRoch</v>
-      </c>
-      <c r="AF58" s="1">
-        <v>44958.00011574074</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59">
-        <v>1225741</v>
-      </c>
-      <c r="B59" t="str">
-        <v>Sanket</v>
-      </c>
-      <c r="C59" t="str">
-        <v>Gupta</v>
-      </c>
-      <c r="D59" t="str">
-        <v>Merck</v>
-      </c>
-      <c r="E59" t="str">
-        <v>sanket.gupta@merck.com</v>
-      </c>
-      <c r="F59" t="str">
-        <v>undeliverable</v>
-      </c>
-      <c r="G59" t="str">
-        <v>Senior Data Scientist</v>
-      </c>
-      <c r="H59" t="str">
-        <v>Individual Contributor</v>
-      </c>
-      <c r="I59" t="str">
-        <v>IT</v>
-      </c>
-      <c r="J59" t="str">
-        <v>19087404000</v>
-      </c>
-      <c r="K59" t="str">
-        <v>-</v>
-      </c>
-      <c r="L59" t="str">
-        <v>126 E Lincoln Ave</v>
-      </c>
-      <c r="M59" t="str">
-        <v>-</v>
-      </c>
-      <c r="N59" t="str">
-        <v>Rahway</v>
-      </c>
-      <c r="O59" t="str">
-        <v>New Jersey</v>
-      </c>
-      <c r="P59" t="str">
-        <v>7065</v>
-      </c>
-      <c r="Q59" t="str">
-        <v>United States</v>
-      </c>
-      <c r="R59" t="str">
-        <v>https://www.linkedin.com/in/sanket-gupta-88421369/</v>
-      </c>
-      <c r="S59" t="str">
-        <v>Disqualified</v>
-      </c>
-      <c r="T59" t="str">
-        <v>Email bounce back</v>
-      </c>
-      <c r="U59" t="str">
-        <v>merck.com</v>
-      </c>
-      <c r="V59" t="str">
-        <v>Pharmaceutical Manufacturing</v>
-      </c>
-      <c r="W59" t="str">
-        <v>Manufacturing</v>
-      </c>
-      <c r="X59" t="str">
-        <v>https://www.linkedin.com/company/1486</v>
-      </c>
-      <c r="Y59" t="str">
-        <v>10,001+ employees</v>
-      </c>
-      <c r="Z59" t="str">
-        <v>https://www.linkedin.com/company/1486</v>
-      </c>
-      <c r="AA59" t="str">
-        <v>$48.7B</v>
-      </c>
-      <c r="AB59" t="str">
-        <v>https://www.zoominfo.com/c/merck-co-inc/24576142</v>
-      </c>
-      <c r="AC59" t="str">
-        <v>Data Scraping</v>
-      </c>
-      <c r="AD59" t="str">
-        <v>SanGupMer</v>
-      </c>
-      <c r="AE59" t="str">
-        <v>SankGuptMerc</v>
-      </c>
-      <c r="AF59" s="1">
-        <v>45116.00011574074</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60">
-        <v>1362215</v>
-      </c>
-      <c r="B60" t="str">
-        <v>Gary</v>
-      </c>
-      <c r="C60" t="str">
-        <v>Macphee</v>
-      </c>
-      <c r="D60" t="str">
-        <v>Merck</v>
-      </c>
-      <c r="E60" t="str">
-        <v>gary.macphee@merck.com</v>
-      </c>
-      <c r="F60" t="str">
-        <v>deliverable</v>
-      </c>
-      <c r="G60" t="str">
-        <v>Vice President and CIO</v>
-      </c>
-      <c r="H60" t="str">
-        <v>Board Memebers and Owners</v>
-      </c>
-      <c r="I60" t="str">
-        <v>IT</v>
-      </c>
-      <c r="J60" t="str">
-        <v>9087404000</v>
-      </c>
-      <c r="K60" t="str">
-        <v>-</v>
-      </c>
-      <c r="L60" t="str">
-        <v>2000 Galloping Hill Rd</v>
-      </c>
-      <c r="M60" t="str">
-        <v>-</v>
-      </c>
-      <c r="N60" t="str">
-        <v>Kenilworth</v>
-      </c>
-      <c r="O60" t="str">
-        <v>New Jersey</v>
-      </c>
-      <c r="P60" t="str">
-        <v>7033</v>
-      </c>
-      <c r="Q60" t="str">
-        <v>United States</v>
-      </c>
-      <c r="R60" t="str">
-        <v>https://www.linkedin.com/in/gmacphee</v>
-      </c>
-      <c r="S60" t="str">
-        <v>Disqualified</v>
-      </c>
-      <c r="T60" t="str">
-        <v>Invalid Job Title</v>
-      </c>
-      <c r="U60" t="str">
-        <v>merck.com</v>
-      </c>
-      <c r="V60" t="str">
-        <v>Pharmaceutical Manufacturing</v>
-      </c>
-      <c r="W60" t="str">
-        <v>Manufacturing</v>
-      </c>
-      <c r="X60" t="str">
-        <v>https://www.linkedin.com/company/1486</v>
-      </c>
-      <c r="Y60" t="str">
-        <v>10,001+ employees</v>
-      </c>
-      <c r="Z60" t="str">
-        <v>https://www.linkedin.com/company/1486</v>
-      </c>
-      <c r="AA60" t="str">
-        <v>$48.7B</v>
-      </c>
-      <c r="AB60" t="str">
-        <v>https://www.zoominfo.com/c/merck-co-inc/24576142</v>
-      </c>
-      <c r="AC60" t="str">
-        <v>Ops</v>
-      </c>
-      <c r="AD60" t="str">
-        <v>GarMacMer</v>
-      </c>
-      <c r="AE60" t="str">
-        <v>GaryMacpMerc</v>
-      </c>
-      <c r="AF60" s="1">
-        <v>45085.00011574074</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61">
-        <v>1362271</v>
-      </c>
-      <c r="B61" t="str">
-        <v>Guang</v>
-      </c>
-      <c r="C61" t="str">
-        <v>Yang</v>
-      </c>
-      <c r="D61" t="str">
-        <v>Merck</v>
-      </c>
-      <c r="E61" t="str">
-        <v>guang.yang@merck.com</v>
-      </c>
-      <c r="F61" t="str">
-        <v>invalid</v>
-      </c>
-      <c r="G61" t="str">
-        <v>Data Scientist MLOps Engineer</v>
-      </c>
-      <c r="H61" t="str">
-        <v>Individual Contributor</v>
-      </c>
-      <c r="I61" t="str">
-        <v>IT</v>
-      </c>
-      <c r="J61" t="str">
-        <v>9087404000</v>
-      </c>
-      <c r="K61" t="str">
-        <v>-</v>
-      </c>
-      <c r="L61" t="str">
-        <v>2000 Galloping Hill Road</v>
-      </c>
-      <c r="M61" t="str">
-        <v>-</v>
-      </c>
-      <c r="N61" t="str">
-        <v>Kenilworth</v>
-      </c>
-      <c r="O61" t="str">
-        <v>New Jersey</v>
-      </c>
-      <c r="P61" t="str">
-        <v>7033</v>
-      </c>
-      <c r="Q61" t="str">
-        <v>United States</v>
-      </c>
-      <c r="R61" t="str">
-        <v>https://www.linkedin.com/in/gwenyang/</v>
-      </c>
-      <c r="S61" t="str">
-        <v>Disqualified</v>
-      </c>
-      <c r="T61" t="str">
-        <v>Email bounce back</v>
-      </c>
-      <c r="U61" t="str">
-        <v>merck.com</v>
-      </c>
-      <c r="V61" t="str">
-        <v>Pharmaceutical Manufacturing</v>
-      </c>
-      <c r="W61" t="str">
-        <v>Manufacturing</v>
-      </c>
-      <c r="X61" t="str">
-        <v>https://www.linkedin.com/company/1486</v>
-      </c>
-      <c r="Y61" t="str">
-        <v>10,001+ employees</v>
-      </c>
-      <c r="Z61" t="str">
-        <v>https://www.linkedin.com/company/1486</v>
-      </c>
-      <c r="AA61" t="str">
-        <v>$48.7B</v>
-      </c>
-      <c r="AB61" t="str">
-        <v>https://www.zoominfo.com/c/merck-co-inc/24576142</v>
-      </c>
-      <c r="AC61" t="str">
-        <v>Data Scrapping</v>
-      </c>
-      <c r="AD61" t="str">
-        <v>GuaYanMer</v>
-      </c>
-      <c r="AE61" t="str">
-        <v>GuanYangMerc</v>
-      </c>
-      <c r="AF61" s="1">
-        <v>44958.00011574074</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62">
-        <v>1362277</v>
-      </c>
-      <c r="B62" t="str">
-        <v>Michelle</v>
-      </c>
-      <c r="C62" t="str">
-        <v>Turovsky</v>
-      </c>
-      <c r="D62" t="str">
-        <v>Merck</v>
-      </c>
-      <c r="E62" t="str">
-        <v>michelle.turovsky@merck.com</v>
-      </c>
-      <c r="F62" t="str">
-        <v>deliverable</v>
-      </c>
-      <c r="G62" t="str">
-        <v>Senior Data Scientist</v>
-      </c>
-      <c r="H62" t="str">
-        <v>Individual Contributor</v>
-      </c>
-      <c r="I62" t="str">
-        <v>IT</v>
-      </c>
-      <c r="J62" t="str">
-        <v>9087404000</v>
-      </c>
-      <c r="K62" t="str">
-        <v>-</v>
-      </c>
-      <c r="L62" t="str">
-        <v>2000 Galloping Hill Road</v>
-      </c>
-      <c r="M62" t="str">
-        <v>-</v>
-      </c>
-      <c r="N62" t="str">
-        <v>Kenilworth</v>
-      </c>
-      <c r="O62" t="str">
-        <v>New Jersey</v>
-      </c>
-      <c r="P62" t="str">
-        <v>7033</v>
-      </c>
-      <c r="Q62" t="str">
-        <v>United States</v>
-      </c>
-      <c r="R62" t="str">
-        <v>https://www.linkedin.com/in/mturovsky</v>
-      </c>
-      <c r="S62" t="str">
-        <v>Disqualified</v>
-      </c>
-      <c r="T62" t="str">
-        <v>Duplicate domain</v>
-      </c>
-      <c r="U62" t="str">
-        <v>merck.com</v>
-      </c>
-      <c r="V62" t="str">
-        <v>Pharmaceutical Manufacturing</v>
-      </c>
-      <c r="W62" t="str">
-        <v>Manufacturing</v>
-      </c>
-      <c r="X62" t="str">
-        <v>https://www.linkedin.com/company/1486</v>
-      </c>
-      <c r="Y62" t="str">
-        <v>10,001+ employees</v>
-      </c>
-      <c r="Z62" t="str">
-        <v>https://www.linkedin.com/company/1486</v>
-      </c>
-      <c r="AA62" t="str">
-        <v>$48.7B</v>
-      </c>
-      <c r="AB62" t="str">
-        <v>https://www.zoominfo.com/c/merck-co-inc/24576142</v>
-      </c>
-      <c r="AC62" t="str">
-        <v>CDQALITE_Data</v>
-      </c>
-      <c r="AD62" t="str">
-        <v>MicTurMer</v>
-      </c>
-      <c r="AE62" t="str">
-        <v>MichTuroMerc</v>
-      </c>
-      <c r="AF62" s="1">
-        <v>44958.00011574074</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63">
-        <v>1362280</v>
-      </c>
-      <c r="B63" t="str">
-        <v>Shi</v>
-      </c>
-      <c r="C63" t="str">
-        <v>Ye</v>
-      </c>
-      <c r="D63" t="str">
-        <v>Merck</v>
-      </c>
-      <c r="E63" t="str">
-        <v>shi.ye@merck.com</v>
-      </c>
-      <c r="F63" t="str">
-        <v>valid</v>
-      </c>
-      <c r="G63" t="str">
-        <v>Senior Specialist Data Scientist</v>
-      </c>
-      <c r="H63" t="str">
-        <v>Individual Contributor</v>
-      </c>
-      <c r="I63" t="str">
-        <v>IT</v>
-      </c>
-      <c r="J63" t="str">
-        <v>9087404000</v>
-      </c>
-      <c r="K63" t="str">
-        <v>-</v>
-      </c>
-      <c r="L63" t="str">
-        <v>2000 Galloping Hill Road</v>
-      </c>
-      <c r="M63" t="str">
-        <v>-</v>
-      </c>
-      <c r="N63" t="str">
-        <v>Kenilworth</v>
-      </c>
-      <c r="O63" t="str">
-        <v>New Jersey</v>
-      </c>
-      <c r="P63" t="str">
-        <v>7033</v>
-      </c>
-      <c r="Q63" t="str">
-        <v>United States</v>
-      </c>
-      <c r="R63" t="str">
-        <v>https://www.linkedin.com/in/shi-ye-042a3260/</v>
-      </c>
-      <c r="S63" t="str">
-        <v>Disqualified</v>
-      </c>
-      <c r="T63" t="str">
-        <v>Invalid_Disposition</v>
-      </c>
-      <c r="U63" t="str">
-        <v>merck.com</v>
-      </c>
-      <c r="V63" t="str">
-        <v>Pharmaceutical Manufacturing</v>
-      </c>
-      <c r="W63" t="str">
-        <v>Manufacturing</v>
-      </c>
-      <c r="X63" t="str">
-        <v>https://www.linkedin.com/company/1486</v>
-      </c>
-      <c r="Y63" t="str">
-        <v>10,001+ employees</v>
-      </c>
-      <c r="Z63" t="str">
-        <v>https://www.linkedin.com/company/1486</v>
-      </c>
-      <c r="AA63" t="str">
-        <v>$48.7B</v>
-      </c>
-      <c r="AB63" t="str">
-        <v>https://www.zoominfo.com/c/merck-co-inc/24576142</v>
-      </c>
-      <c r="AC63" t="str">
-        <v>Data Scrapping</v>
-      </c>
-      <c r="AD63" t="str">
-        <v>ShiYeMer</v>
-      </c>
-      <c r="AE63" t="str">
-        <v>ShiYeMerc</v>
-      </c>
-      <c r="AF63" s="1">
-        <v>44958.00011574074</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64">
-        <v>1605321</v>
-      </c>
-      <c r="B64" t="str">
-        <v>Cilla</v>
-      </c>
-      <c r="C64" t="str">
-        <v>Bara</v>
-      </c>
-      <c r="D64" t="str">
-        <v>Roche</v>
-      </c>
-      <c r="E64" t="str">
-        <v>cilla.bara@roche.com</v>
-      </c>
-      <c r="F64" t="str">
-        <v>undeliverable</v>
-      </c>
-      <c r="G64" t="str">
-        <v>Data Scientist</v>
-      </c>
-      <c r="H64" t="str">
-        <v>Individual Contributor</v>
-      </c>
-      <c r="I64" t="str">
-        <v>Human Resource</v>
-      </c>
-      <c r="J64" t="str">
-        <v>16502255566</v>
-      </c>
-      <c r="K64" t="str">
-        <v>-</v>
-      </c>
-      <c r="L64" t="str">
-        <v>4414 Lake Boone Trail</v>
-      </c>
-      <c r="M64" t="str">
-        <v>-</v>
-      </c>
-      <c r="N64" t="str">
-        <v>Raleigh</v>
-      </c>
-      <c r="O64" t="str">
-        <v>North carolina</v>
-      </c>
-      <c r="P64" t="str">
-        <v>27607</v>
-      </c>
-      <c r="Q64" t="str">
-        <v>United States</v>
-      </c>
-      <c r="R64" t="str">
-        <v>https://www.linkedin.com/in/cilla-bara-605519193/</v>
-      </c>
-      <c r="S64" t="str">
-        <v>Disqualified</v>
-      </c>
-      <c r="T64" t="str">
-        <v>Email bounce back</v>
-      </c>
-      <c r="U64" t="str">
-        <v>roche.com</v>
-      </c>
-      <c r="V64" t="str">
-        <v>Biotechnology Research</v>
-      </c>
-      <c r="W64" t="str">
-        <v>Healthcare, Pharmaceuticals, &amp; Biotech</v>
-      </c>
-      <c r="X64" t="str">
-        <v>https://www.linkedin.com/company/roche/?originalSubdomain=in</v>
-      </c>
-      <c r="Y64" t="str">
-        <v>10,001+ employees</v>
-      </c>
-      <c r="Z64" t="str">
-        <v>https://www.linkedin.com/company/roche/?originalSubdomain=in</v>
-      </c>
-      <c r="AA64" t="str">
-        <v>-</v>
-      </c>
-      <c r="AB64" t="str">
-        <v>-</v>
-      </c>
-      <c r="AC64" t="str">
-        <v>CDQALITE_Data</v>
-      </c>
-      <c r="AD64" t="str">
-        <v>CilBarRoc</v>
-      </c>
-      <c r="AE64" t="str">
-        <v>CillBaraRoch</v>
-      </c>
-      <c r="AF64" s="1">
-        <v>44958.00011574074</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65">
-        <v>1830298</v>
-      </c>
-      <c r="B65" t="str">
-        <v>Recep</v>
-      </c>
-      <c r="C65" t="str">
-        <v>Monkul</v>
-      </c>
-      <c r="D65" t="str">
-        <v>Roche</v>
-      </c>
-      <c r="E65" t="str">
-        <v>monkulr@roche.com</v>
-      </c>
-      <c r="F65" t="str">
-        <v>deliverable</v>
-      </c>
-      <c r="G65" t="str">
-        <v>Head of IT Quality and Compliance North America</v>
-      </c>
-      <c r="H65" t="str">
-        <v>Director</v>
-      </c>
-      <c r="I65" t="str">
-        <v>IT</v>
-      </c>
-      <c r="J65" t="str">
-        <v>8004285076</v>
-      </c>
-      <c r="K65" t="str">
-        <v>-</v>
-      </c>
-      <c r="L65" t="str">
-        <v>9115 Hague Rd</v>
-      </c>
-      <c r="M65" t="str">
-        <v>-</v>
-      </c>
-      <c r="N65" t="str">
-        <v>Indianapolis</v>
-      </c>
-      <c r="O65" t="str">
-        <v>Indiana</v>
-      </c>
-      <c r="P65" t="str">
-        <v>46256</v>
-      </c>
-      <c r="Q65" t="str">
-        <v>United States</v>
-      </c>
-      <c r="R65" t="str">
-        <v>https://www.linkedin.com/in/recep-deniz-monkul-4b6b22b/</v>
-      </c>
-      <c r="S65" t="str">
-        <v>Disqualified</v>
-      </c>
-      <c r="T65" t="str">
-        <v>Suppression_List_Match</v>
-      </c>
-      <c r="U65" t="str">
-        <v>roche.com</v>
-      </c>
-      <c r="V65" t="str">
-        <v>Biotechnology Research</v>
-      </c>
-      <c r="W65" t="str">
-        <v>Healthcare, Pharmaceuticals, &amp; Biotech</v>
-      </c>
-      <c r="X65" t="str">
-        <v>https://www.linkedin.com/company/roche/?originalSubdomain=in</v>
-      </c>
-      <c r="Y65" t="str">
-        <v>10,001+ employees</v>
-      </c>
-      <c r="Z65" t="str">
-        <v>https://www.linkedin.com/company/roche/?originalSubdomain=in</v>
-      </c>
-      <c r="AA65" t="str">
-        <v>-</v>
-      </c>
-      <c r="AB65" t="str">
-        <v>-</v>
-      </c>
-      <c r="AC65" t="str">
-        <v>DNC</v>
-      </c>
-      <c r="AD65" t="str">
-        <v>RecMonRoc</v>
-      </c>
-      <c r="AE65" t="str">
-        <v>ReceMonkRoch</v>
-      </c>
-      <c r="AF65" s="1">
-        <v>44958.00011574074</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66">
-        <v>1865006</v>
-      </c>
-      <c r="B66" t="str">
-        <v>Ashley</v>
-      </c>
-      <c r="C66" t="str">
-        <v>Adkins</v>
-      </c>
-      <c r="D66" t="str">
-        <v>Roche</v>
-      </c>
-      <c r="E66" t="str">
-        <v>ashley.adkins@roche.com</v>
-      </c>
-      <c r="F66" t="str">
-        <v>deliverable</v>
-      </c>
-      <c r="G66" t="str">
-        <v>Executive Assistant to Chief Financial Officer</v>
-      </c>
-      <c r="H66" t="str">
-        <v>C Level</v>
-      </c>
-      <c r="I66" t="str">
-        <v>Finance</v>
-      </c>
-      <c r="J66" t="str">
-        <v>3175212000</v>
-      </c>
-      <c r="K66" t="str">
-        <v>-</v>
-      </c>
-      <c r="L66" t="str">
-        <v>Roche Diagnostics Corporation 9115 Hague Rd</v>
-      </c>
-      <c r="M66" t="str">
-        <v>-</v>
-      </c>
-      <c r="N66" t="str">
-        <v>Indianapolis</v>
-      </c>
-      <c r="O66" t="str">
-        <v>Indiana</v>
-      </c>
-      <c r="P66" t="str">
-        <v>46256</v>
-      </c>
-      <c r="Q66" t="str">
-        <v>United States</v>
-      </c>
-      <c r="R66" t="str">
-        <v>https://www.linkedin.com/in/ashley-adkins-2a15a010a/</v>
-      </c>
-      <c r="S66" t="str">
-        <v>Disqualified</v>
-      </c>
-      <c r="T66" t="str">
-        <v>Suppression_List_Match</v>
-      </c>
-      <c r="U66" t="str">
-        <v>roche.com</v>
-      </c>
-      <c r="V66" t="str">
-        <v>Biotechnology Research</v>
-      </c>
-      <c r="W66" t="str">
-        <v>Healthcare, Pharmaceuticals, &amp; Biotech</v>
-      </c>
-      <c r="X66" t="str">
-        <v>https://www.linkedin.com/company/roche/?originalSubdomain=in</v>
-      </c>
-      <c r="Y66" t="str">
-        <v>10,001+ employees</v>
-      </c>
-      <c r="Z66" t="str">
-        <v>https://www.linkedin.com/company/roche/?originalSubdomain=in</v>
-      </c>
-      <c r="AA66" t="str">
-        <v>-</v>
-      </c>
-      <c r="AB66" t="str">
-        <v>-</v>
-      </c>
-      <c r="AC66" t="str">
-        <v>Data Scraping</v>
-      </c>
-      <c r="AD66" t="str">
-        <v>AshAdkRoc</v>
-      </c>
-      <c r="AE66" t="str">
-        <v>AshlAdkiRoch</v>
-      </c>
-      <c r="AF66" s="1">
-        <v>45227.00011574074</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67">
-        <v>1897073</v>
-      </c>
-      <c r="B67" t="str">
-        <v>Matthew</v>
-      </c>
-      <c r="C67" t="str">
-        <v>Stetz</v>
-      </c>
-      <c r="D67" t="str">
-        <v>GSK</v>
-      </c>
-      <c r="E67" t="str">
-        <v>matthew.stetz@gsk.com</v>
-      </c>
-      <c r="F67" t="str">
-        <v>undeliverable</v>
-      </c>
-      <c r="G67" t="str">
-        <v>Data Scientist</v>
-      </c>
-      <c r="H67" t="str">
-        <v>Individual Contributor</v>
-      </c>
-      <c r="I67" t="str">
-        <v>IT</v>
-      </c>
-      <c r="J67" t="str">
-        <v>7324910715</v>
-      </c>
-      <c r="K67" t="str">
-        <v>-</v>
-      </c>
-      <c r="L67" t="str">
-        <v>2929 Walnut Street Suite 1700</v>
-      </c>
-      <c r="M67" t="str">
-        <v>-</v>
-      </c>
-      <c r="N67" t="str">
-        <v>Philadelphia</v>
-      </c>
-      <c r="O67" t="str">
-        <v>Pennsylvania</v>
-      </c>
-      <c r="P67" t="str">
-        <v>19104</v>
-      </c>
-      <c r="Q67" t="str">
-        <v>United States</v>
-      </c>
-      <c r="R67" t="str">
-        <v>https://www.linkedin.com/in/mattstetz/</v>
-      </c>
-      <c r="S67" t="str">
-        <v>Disqualified</v>
-      </c>
-      <c r="T67" t="str">
-        <v>Email Bounce Back</v>
-      </c>
-      <c r="U67" t="str">
-        <v>gsk.com</v>
-      </c>
-      <c r="V67" t="str">
-        <v>Pharmaceutical Manufacturing</v>
-      </c>
-      <c r="W67" t="str">
-        <v>Manufacturing</v>
-      </c>
-      <c r="X67" t="str">
-        <v>https://www.linkedin.com/company/gsk/about/</v>
-      </c>
-      <c r="Y67" t="str">
-        <v>10,001+ employees</v>
-      </c>
-      <c r="Z67" t="str">
-        <v>https://www.linkedin.com/company/gsk/about/</v>
-      </c>
-      <c r="AA67" t="str">
-        <v>$37.8 Billion</v>
-      </c>
-      <c r="AB67" t="str">
-        <v>https://webcache.googleusercontent.com/search?q=cache:https://www.zoominfo.com/c/glaxosmithkline-plc/16859276</v>
-      </c>
-      <c r="AC67" t="str">
-        <v>BCL_IH</v>
-      </c>
-      <c r="AD67" t="str">
-        <v>MatSteGSK</v>
-      </c>
-      <c r="AE67" t="str">
-        <v>MattStetGSK</v>
-      </c>
-      <c r="AF67" s="1">
-        <v>45377.00011574074</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68">
-        <v>1952809</v>
-      </c>
-      <c r="B68" t="str">
-        <v>John</v>
-      </c>
-      <c r="C68" t="str">
-        <v>Pappas</v>
-      </c>
-      <c r="D68" t="str">
-        <v>Boehringer Ingelheim</v>
-      </c>
-      <c r="E68" t="str">
-        <v>john.pappas@boehringer-ingelheim.com</v>
-      </c>
-      <c r="F68" t="str">
-        <v>deliverable</v>
-      </c>
-      <c r="G68" t="str">
-        <v>Head of IT O&amp;L Lab Automation</v>
-      </c>
-      <c r="H68" t="str">
-        <v>Director</v>
-      </c>
-      <c r="I68" t="str">
-        <v>IT</v>
-      </c>
-      <c r="J68" t="str">
-        <v>3393682550</v>
-      </c>
-      <c r="K68" t="str">
-        <v>-</v>
-      </c>
-      <c r="L68" t="str">
-        <v>900 Ridgebury Rd</v>
-      </c>
-      <c r="M68" t="str">
-        <v>-</v>
-      </c>
-      <c r="N68" t="str">
-        <v>Ridgefield</v>
-      </c>
-      <c r="O68" t="str">
-        <v>Connecticut</v>
-      </c>
-      <c r="P68" t="str">
-        <v>6877</v>
-      </c>
-      <c r="Q68" t="str">
-        <v>United States</v>
-      </c>
-      <c r="R68" t="str">
-        <v>https://www.linkedin.com/in/johnmpappas/</v>
-      </c>
-      <c r="S68" t="str">
-        <v>Disqualified</v>
-      </c>
-      <c r="T68" t="str">
-        <v>Invalid Job Title</v>
-      </c>
-      <c r="U68" t="str">
-        <v>boehringer-ingelheim.com</v>
-      </c>
-      <c r="V68" t="str">
-        <v>Manufacturing</v>
-      </c>
-      <c r="W68" t="str">
-        <v>Manufacturing</v>
-      </c>
-      <c r="X68" t="str">
-        <v>https://www.linkedin.com/company/boehringer-ingelheim/about/</v>
-      </c>
-      <c r="Y68" t="str">
-        <v>10,001+ employees</v>
-      </c>
-      <c r="Z68" t="str">
-        <v>https://www.linkedin.com/company/boehringer-ingelheim/about/</v>
-      </c>
-      <c r="AA68" t="str">
-        <v>1 Billion and above</v>
-      </c>
-      <c r="AB68" t="str">
-        <v>https://www.zoominfo.com/c/boehringer-ingelheim-international-gmbh/15896733</v>
-      </c>
-      <c r="AC68" t="str">
-        <v>Rpc Voicemail</v>
-      </c>
-      <c r="AD68" t="str">
-        <v>JohPapBoe</v>
-      </c>
-      <c r="AE68" t="str">
-        <v>JohnPappBoeh</v>
-      </c>
-      <c r="AF68" s="1">
-        <v>45439.00011574074</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69">
-        <v>1954540</v>
-      </c>
-      <c r="B69" t="str">
-        <v>Mark</v>
-      </c>
-      <c r="C69" t="str">
-        <v>Borowsky</v>
-      </c>
-      <c r="D69" t="str">
-        <v>Novartis</v>
-      </c>
-      <c r="E69" t="str">
-        <v>mark.borowsky@novartis.com</v>
-      </c>
-      <c r="F69" t="str">
-        <v>risky</v>
-      </c>
-      <c r="G69" t="str">
-        <v>Chief Information Officer</v>
-      </c>
-      <c r="H69" t="str">
-        <v>C Level</v>
-      </c>
-      <c r="I69" t="str">
-        <v>IT</v>
-      </c>
-      <c r="J69" t="str">
-        <v>6177108153</v>
-      </c>
-      <c r="K69" t="str">
-        <v>-</v>
-      </c>
-      <c r="L69" t="str">
-        <v>250 Massachusetts Ave</v>
-      </c>
-      <c r="M69" t="str">
-        <v>-</v>
-      </c>
-      <c r="N69" t="str">
-        <v>Cambridge</v>
-      </c>
-      <c r="O69" t="str">
-        <v>Massachusetts</v>
-      </c>
-      <c r="P69" t="str">
-        <v>2139</v>
-      </c>
-      <c r="Q69" t="str">
-        <v>United States</v>
-      </c>
-      <c r="R69" t="str">
-        <v>https://www.linkedin.com/in/borowsky/</v>
-      </c>
-      <c r="S69" t="str">
-        <v>Disqualified</v>
-      </c>
-      <c r="T69" t="str">
-        <v>Suppression_List_Match</v>
-      </c>
-      <c r="U69" t="str">
-        <v>novartis.com</v>
-      </c>
-      <c r="V69" t="str">
-        <v>Healthcare, Pharmaceuticals, &amp; Biotech</v>
-      </c>
-      <c r="W69" t="str">
-        <v>Healthcare, Pharmaceuticals, &amp; Biotech</v>
-      </c>
-      <c r="X69" t="str">
-        <v>https://www.linkedin.com/company/novartis/about/</v>
-      </c>
-      <c r="Y69" t="str">
-        <v>10,001+ employees</v>
-      </c>
-      <c r="Z69" t="str">
-        <v>https://www.linkedin.com/company/novartis/about/</v>
-      </c>
-      <c r="AA69" t="str">
-        <v>-</v>
-      </c>
-      <c r="AB69" t="str">
-        <v>-</v>
-      </c>
-      <c r="AC69" t="str">
-        <v>Rpc Voicemail</v>
-      </c>
-      <c r="AD69" t="str">
-        <v>MarBorNov</v>
-      </c>
-      <c r="AE69" t="str">
-        <v>MarkBoroNova</v>
-      </c>
-      <c r="AF69" s="1">
-        <v>45420.00011574074</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70">
-        <v>1115945</v>
-      </c>
-      <c r="B70" t="str">
-        <v>Jasmine</v>
-      </c>
-      <c r="C70" t="str">
-        <v>Schneider</v>
-      </c>
-      <c r="D70" t="str">
-        <v>Novartis</v>
-      </c>
-      <c r="E70" t="str">
-        <v>jasmine.schneider@novartis.com</v>
-      </c>
-      <c r="F70" t="str">
-        <v>risky</v>
-      </c>
-      <c r="G70" t="str">
-        <v>Chief Financial Officer</v>
-      </c>
-      <c r="H70" t="str">
-        <v>C Level</v>
-      </c>
-      <c r="I70" t="str">
-        <v>Finance</v>
-      </c>
-      <c r="J70" t="str">
-        <v>8627782100</v>
-      </c>
-      <c r="K70" t="str">
-        <v>-</v>
-      </c>
-      <c r="L70" t="str">
-        <v>1 South Ridgedale Avenue Building 122 East</v>
-      </c>
-      <c r="M70" t="str">
-        <v>-</v>
-      </c>
-      <c r="N70" t="str">
-        <v>Hanover</v>
-      </c>
-      <c r="O70" t="str">
-        <v>New Jersey</v>
-      </c>
-      <c r="P70" t="str">
-        <v>7936</v>
-      </c>
-      <c r="Q70" t="str">
-        <v>United States</v>
-      </c>
-      <c r="R70" t="str">
-        <v>https://www.linkedin.com/in/jasmine-schneider-4161a7177/</v>
-      </c>
-      <c r="S70" t="str">
-        <v>Disqualified</v>
-      </c>
-      <c r="T70" t="str">
-        <v>Invalid Job Title</v>
-      </c>
-      <c r="U70" t="str">
-        <v>novartis.com</v>
-      </c>
-      <c r="V70" t="str">
-        <v>Pharmaceutical Manufacturing</v>
-      </c>
-      <c r="W70" t="str">
-        <v>Manufacturing</v>
-      </c>
-      <c r="X70" t="str">
-        <v>https://www.linkedin.com/company/novartis/</v>
-      </c>
-      <c r="Y70" t="str">
-        <v>10,001+ employees</v>
-      </c>
-      <c r="Z70" t="str">
-        <v>https://www.linkedin.com/company/novartis/</v>
-      </c>
-      <c r="AA70" t="str">
-        <v>$48 Billion</v>
-      </c>
-      <c r="AB70" t="str">
-        <v>https://www.zoominfo.com/c/novartis-ag/62014529</v>
-      </c>
-      <c r="AC70" t="str">
-        <v>Data Scraping</v>
-      </c>
-      <c r="AD70" t="str">
-        <v>JasSchNov</v>
-      </c>
-      <c r="AE70" t="str">
-        <v>JasmSchnNova</v>
-      </c>
-      <c r="AF70" s="1">
-        <v>45219.00011574074</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71">
-        <v>1115946</v>
-      </c>
-      <c r="B71" t="str">
-        <v>Katie</v>
-      </c>
-      <c r="C71" t="str">
-        <v>Ramos</v>
-      </c>
-      <c r="D71" t="str">
-        <v>Novartis</v>
-      </c>
-      <c r="E71" t="str">
-        <v>katie.ramos@novartis.com</v>
-      </c>
-      <c r="F71" t="str">
-        <v>risky</v>
-      </c>
-      <c r="G71" t="str">
-        <v>Chief Financial Officer</v>
-      </c>
-      <c r="H71" t="str">
-        <v>C Level</v>
-      </c>
-      <c r="I71" t="str">
-        <v>Finance</v>
-      </c>
-      <c r="J71" t="str">
-        <v>8627782100</v>
-      </c>
-      <c r="K71" t="str">
-        <v>-</v>
-      </c>
-      <c r="L71" t="str">
-        <v>1 South Ridgedale Avenue Building 122 East</v>
-      </c>
-      <c r="M71" t="str">
-        <v>-</v>
-      </c>
-      <c r="N71" t="str">
-        <v>Hanover</v>
-      </c>
-      <c r="O71" t="str">
-        <v>New Jersey</v>
-      </c>
-      <c r="P71" t="str">
-        <v>7936</v>
-      </c>
-      <c r="Q71" t="str">
-        <v>United States</v>
-      </c>
-      <c r="R71" t="str">
-        <v>https://www.linkedin.com/in/katie-ramos-0a5bb727b/</v>
-      </c>
-      <c r="S71" t="str">
-        <v>Disqualified</v>
-      </c>
-      <c r="T71" t="str">
-        <v>Duplicate_Prospect</v>
-      </c>
-      <c r="U71" t="str">
-        <v>novartis.com</v>
-      </c>
-      <c r="V71" t="str">
-        <v>Pharmaceutical Manufacturing</v>
-      </c>
-      <c r="W71" t="str">
-        <v>Manufacturing</v>
-      </c>
-      <c r="X71" t="str">
-        <v>https://www.linkedin.com/company/novartis/</v>
-      </c>
-      <c r="Y71" t="str">
-        <v>10,001+ employees</v>
-      </c>
-      <c r="Z71" t="str">
-        <v>https://www.linkedin.com/company/novartis/</v>
-      </c>
-      <c r="AA71" t="str">
-        <v>$48 Billion</v>
-      </c>
-      <c r="AB71" t="str">
-        <v>https://www.zoominfo.com/c/novartis-ag/62014529</v>
-      </c>
-      <c r="AC71" t="str">
-        <v>Data Scraping</v>
-      </c>
-      <c r="AD71" t="str">
-        <v>KatRamNov</v>
-      </c>
-      <c r="AE71" t="str">
-        <v>KatiRamoNova</v>
-      </c>
-      <c r="AF71" s="1">
-        <v>45226.00011574074</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72">
-        <v>1411233</v>
-      </c>
-      <c r="B72" t="str">
-        <v>Rama</v>
-      </c>
-      <c r="C72" t="str">
-        <v>Rao</v>
-      </c>
-      <c r="D72" t="str">
-        <v>Novartis</v>
-      </c>
-      <c r="E72" t="str">
-        <v>rama.rao@novartis.com</v>
-      </c>
-      <c r="F72" t="str">
-        <v>risky</v>
-      </c>
-      <c r="G72" t="str">
-        <v>CFO</v>
-      </c>
-      <c r="H72" t="str">
-        <v>C level</v>
-      </c>
-      <c r="I72" t="str">
-        <v>Finance</v>
-      </c>
-      <c r="J72" t="str">
-        <v>12123071122</v>
-      </c>
-      <c r="K72" t="str">
-        <v>-</v>
-      </c>
-      <c r="L72" t="str">
-        <v>230 Park Ave #21st</v>
-      </c>
-      <c r="M72" t="str">
-        <v>-</v>
-      </c>
-      <c r="N72" t="str">
-        <v>New York</v>
-      </c>
-      <c r="O72" t="str">
-        <v>New York</v>
-      </c>
-      <c r="P72" t="str">
-        <v>10169</v>
-      </c>
-      <c r="Q72" t="str">
-        <v>United States</v>
-      </c>
-      <c r="R72" t="str">
-        <v>https://www.linkedin.com/in/rama-rao-114514/</v>
-      </c>
-      <c r="S72" t="str">
-        <v>Disqualified</v>
-      </c>
-      <c r="T72" t="str">
-        <v>Duplicate domain</v>
-      </c>
-      <c r="U72" t="str">
-        <v>novartis.com</v>
-      </c>
-      <c r="V72" t="str">
-        <v>Pharmaceutical Manufacturing</v>
-      </c>
-      <c r="W72" t="str">
-        <v>Manufacturing</v>
-      </c>
-      <c r="X72" t="str">
-        <v>https://www.linkedin.com/company/novartis/</v>
-      </c>
-      <c r="Y72" t="str">
-        <v>10,001+ employees</v>
-      </c>
-      <c r="Z72" t="str">
-        <v>https://www.linkedin.com/company/novartis/</v>
-      </c>
-      <c r="AA72" t="str">
-        <v>$48 Billion</v>
-      </c>
-      <c r="AB72" t="str">
-        <v>https://www.zoominfo.com/c/novartis-ag/62014529</v>
-      </c>
-      <c r="AC72" t="str">
-        <v>Ops</v>
-      </c>
-      <c r="AD72" t="str">
-        <v>RamRaoNov</v>
-      </c>
-      <c r="AE72" t="str">
-        <v>RamaRaoNova</v>
-      </c>
-      <c r="AF72" s="1">
-        <v>45069.00011574074</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73">
-        <v>1474585</v>
-      </c>
-      <c r="B73" t="str">
-        <v>Clyde</v>
-      </c>
-      <c r="C73" t="str">
-        <v>Bango</v>
-      </c>
-      <c r="D73" t="str">
-        <v>GSK</v>
-      </c>
-      <c r="E73" t="str">
-        <v>clyde.x.bango@gsk.com</v>
-      </c>
-      <c r="F73" t="str">
-        <v>deliverable</v>
-      </c>
-      <c r="G73" t="str">
-        <v>Senior Data Scientist, Data Science Manager</v>
-      </c>
-      <c r="H73" t="str">
-        <v>Manager</v>
-      </c>
-      <c r="I73" t="str">
-        <v>IT</v>
-      </c>
-      <c r="J73" t="str">
-        <v>9012817572</v>
-      </c>
-      <c r="K73" t="str">
-        <v>-</v>
-      </c>
-      <c r="L73" t="str">
-        <v>2929 Walnut St</v>
-      </c>
-      <c r="M73" t="str">
-        <v>-</v>
-      </c>
-      <c r="N73" t="str">
-        <v>Philadelphia</v>
-      </c>
-      <c r="O73" t="str">
-        <v>Pennsylvania</v>
-      </c>
-      <c r="P73" t="str">
-        <v>19104</v>
-      </c>
-      <c r="Q73" t="str">
-        <v>United States</v>
-      </c>
-      <c r="R73" t="str">
-        <v>https://www.linkedin.com/in/clydebango/</v>
-      </c>
-      <c r="S73" t="str">
-        <v>Disqualified</v>
-      </c>
-      <c r="T73" t="str">
-        <v>Invalid Email</v>
-      </c>
-      <c r="U73" t="str">
-        <v>gsk.com</v>
-      </c>
-      <c r="V73" t="str">
-        <v>Pharmaceutical Manufacturing</v>
-      </c>
-      <c r="W73" t="str">
-        <v>Manufacturing</v>
-      </c>
-      <c r="X73" t="str">
-        <v>https://www.linkedin.com/company/glaxosmithkline/about/</v>
-      </c>
-      <c r="Y73" t="str">
-        <v>10,001+ employees</v>
-      </c>
-      <c r="Z73" t="str">
-        <v>https://www.linkedin.com/company/glaxosmithkline/about/</v>
-      </c>
-      <c r="AA73" t="str">
-        <v>-</v>
-      </c>
-      <c r="AB73" t="str">
-        <v>-</v>
-      </c>
-      <c r="AC73" t="str">
-        <v>BCL_IH</v>
-      </c>
-      <c r="AD73" t="str">
-        <v>ClyBanGSK</v>
-      </c>
-      <c r="AE73" t="str">
-        <v>ClydBangGSK</v>
-      </c>
-      <c r="AF73" s="1">
-        <v>45194.00011574074</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74">
-        <v>1859674</v>
-      </c>
-      <c r="B74" t="str">
-        <v>Maureen</v>
-      </c>
-      <c r="C74" t="str">
-        <v>Tribley Klein</v>
-      </c>
-      <c r="D74" t="str">
-        <v>Novartis</v>
-      </c>
-      <c r="E74" t="str">
-        <v>maureen.klein@novartis.com</v>
-      </c>
-      <c r="F74" t="str">
-        <v>risky</v>
-      </c>
-      <c r="G74" t="str">
-        <v>PEC Executive Assistant Office of the Chief Digital Officer US Pharma</v>
-      </c>
-      <c r="H74" t="str">
-        <v>C level</v>
-      </c>
-      <c r="I74" t="str">
-        <v>IT</v>
-      </c>
-      <c r="J74" t="str">
-        <v>8627788300</v>
-      </c>
-      <c r="K74" t="str">
-        <v>-</v>
-      </c>
-      <c r="L74" t="str">
-        <v>One Health Plaza</v>
-      </c>
-      <c r="M74" t="str">
-        <v>-</v>
-      </c>
-      <c r="N74" t="str">
-        <v>East Hanover</v>
-      </c>
-      <c r="O74" t="str">
-        <v>New Jersey</v>
-      </c>
-      <c r="P74" t="str">
-        <v>7936</v>
-      </c>
-      <c r="Q74" t="str">
-        <v>United States</v>
-      </c>
-      <c r="R74" t="str">
-        <v>https://www.linkedin.com/in/maureen-tribley-klein-b60b009</v>
-      </c>
-      <c r="S74" t="str">
-        <v>Disqualified</v>
-      </c>
-      <c r="T74" t="str">
-        <v>Invalid Job Title</v>
-      </c>
-      <c r="U74" t="str">
-        <v>novartis.com</v>
-      </c>
-      <c r="V74" t="str">
-        <v>Pharmaceutical Manufacturing</v>
-      </c>
-      <c r="W74" t="str">
-        <v>Manufacturing</v>
-      </c>
-      <c r="X74" t="str">
-        <v>https://www.linkedin.com/company/novartis/</v>
-      </c>
-      <c r="Y74" t="str">
-        <v>10,001+ employees</v>
-      </c>
-      <c r="Z74" t="str">
-        <v>https://www.linkedin.com/company/novartis/</v>
-      </c>
-      <c r="AA74" t="str">
-        <v>$48 Billion</v>
-      </c>
-      <c r="AB74" t="str">
-        <v>https://www.zoominfo.com/c/novartis-ag/62014529</v>
-      </c>
-      <c r="AC74" t="str">
-        <v>CDQALITE_Data</v>
-      </c>
-      <c r="AD74" t="str">
-        <v>MauTriNov</v>
-      </c>
-      <c r="AE74" t="str">
-        <v>MaurTribNova</v>
-      </c>
-      <c r="AF74" s="1">
-        <v>44958.00011574074</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75">
-        <v>1935551</v>
-      </c>
-      <c r="B75" t="str">
-        <v>Paul</v>
-      </c>
-      <c r="C75" t="str">
-        <v>Schaffer</v>
-      </c>
-      <c r="D75" t="str">
-        <v>Roche</v>
-      </c>
-      <c r="E75" t="str">
-        <v>paul.schaffer@roche.com</v>
-      </c>
-      <c r="F75" t="str">
-        <v>deliverable</v>
-      </c>
-      <c r="G75" t="str">
-        <v>CTO Project Review Lead</v>
-      </c>
-      <c r="H75" t="str">
-        <v>C Level</v>
-      </c>
-      <c r="I75" t="str">
-        <v>IT</v>
-      </c>
-      <c r="J75" t="str">
-        <v>2033764436</v>
-      </c>
-      <c r="K75" t="str">
-        <v>-</v>
-      </c>
-      <c r="L75" t="str">
-        <v>4300 Hacienda Dr</v>
-      </c>
-      <c r="M75" t="str">
-        <v>-</v>
-      </c>
-      <c r="N75" t="str">
-        <v>Pleasanton</v>
-      </c>
-      <c r="O75" t="str">
-        <v>California</v>
-      </c>
-      <c r="P75" t="str">
-        <v>94588</v>
-      </c>
-      <c r="Q75" t="str">
-        <v>United States</v>
-      </c>
-      <c r="R75" t="str">
-        <v>https://www.linkedin.com/in/paul-schaffer-6949a155/</v>
-      </c>
-      <c r="S75" t="str">
-        <v>Disqualified</v>
-      </c>
-      <c r="T75" t="str">
-        <v>DNC Contact and Company Suppression</v>
-      </c>
-      <c r="U75" t="str">
-        <v>roche.com</v>
-      </c>
-      <c r="V75" t="str">
-        <v>Healthcare, Pharmaceuticals, &amp; Biotech</v>
-      </c>
-      <c r="W75" t="str">
-        <v>Healthcare, Pharmaceuticals, &amp; Biotech</v>
-      </c>
-      <c r="X75" t="str">
-        <v>https://www.linkedin.com/company/roche/about/</v>
-      </c>
-      <c r="Y75" t="str">
-        <v>10,001+ employees</v>
-      </c>
-      <c r="Z75" t="str">
-        <v>https://www.linkedin.com/company/roche/about/</v>
-      </c>
-      <c r="AA75" t="str">
-        <v>-</v>
-      </c>
-      <c r="AB75" t="str">
-        <v>-</v>
-      </c>
-      <c r="AC75" t="str">
-        <v>Rpc Voicemail</v>
-      </c>
-      <c r="AD75" t="str">
-        <v>PauSchRoc</v>
-      </c>
-      <c r="AE75" t="str">
-        <v>PaulSchaRoch</v>
-      </c>
-      <c r="AF75" s="1">
-        <v>45408.00011574074</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76">
-        <v>1935552</v>
-      </c>
-      <c r="B76" t="str">
-        <v>Igor</v>
-      </c>
-      <c r="C76" t="str">
-        <v>Gejdos</v>
-      </c>
-      <c r="D76" t="str">
-        <v>Roche</v>
-      </c>
-      <c r="E76" t="str">
-        <v>igor.gejdos@roche.com</v>
-      </c>
-      <c r="F76" t="str">
-        <v>deliverable</v>
-      </c>
-      <c r="G76" t="str">
-        <v>Digital CTO Diabetes Care</v>
-      </c>
-      <c r="H76" t="str">
-        <v>C Level</v>
-      </c>
-      <c r="I76" t="str">
-        <v>IT</v>
-      </c>
-      <c r="J76" t="str">
-        <v>3175213686</v>
-      </c>
-      <c r="K76" t="str">
-        <v>-</v>
-      </c>
-      <c r="L76" t="str">
-        <v>9115 Hague Rd</v>
-      </c>
-      <c r="M76" t="str">
-        <v>-</v>
-      </c>
-      <c r="N76" t="str">
-        <v>Indianapolis</v>
-      </c>
-      <c r="O76" t="str">
-        <v>Indiana</v>
-      </c>
-      <c r="P76" t="str">
-        <v>46256</v>
-      </c>
-      <c r="Q76" t="str">
-        <v>United States</v>
-      </c>
-      <c r="R76" t="str">
-        <v>https://www.linkedin.com/in/ig123/</v>
-      </c>
-      <c r="S76" t="str">
-        <v>Disqualified</v>
-      </c>
-      <c r="T76" t="str">
-        <v>DNC Contact and Company Suppression</v>
-      </c>
-      <c r="U76" t="str">
-        <v>roche.com</v>
-      </c>
-      <c r="V76" t="str">
-        <v>Healthcare, Pharmaceuticals, &amp; Biotech</v>
-      </c>
-      <c r="W76" t="str">
-        <v>Healthcare, Pharmaceuticals, &amp; Biotech</v>
-      </c>
-      <c r="X76" t="str">
-        <v>https://www.linkedin.com/company/roche/about/</v>
-      </c>
-      <c r="Y76" t="str">
-        <v>10,001+ employees</v>
-      </c>
-      <c r="Z76" t="str">
-        <v>https://www.linkedin.com/company/roche/about/</v>
-      </c>
-      <c r="AA76" t="str">
-        <v>-</v>
-      </c>
-      <c r="AB76" t="str">
-        <v>-</v>
-      </c>
-      <c r="AC76" t="str">
-        <v>Rpc Voicemail</v>
-      </c>
-      <c r="AD76" t="str">
-        <v>IgoGejRoc</v>
-      </c>
-      <c r="AE76" t="str">
-        <v>IgorGejdRoch</v>
-      </c>
-      <c r="AF76" s="1">
-        <v>45408.00011574074</v>
+        <v>45401.00011574074</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AF76"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AF55"/>
   </ignoredErrors>
 </worksheet>
 </file>